--- a/BackTest/2019-10-27 BackTest BTG.xlsx
+++ b/BackTest/2019-10-27 BackTest BTG.xlsx
@@ -521,13 +521,17 @@
         <v>8843.333333333334</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>8840</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8840</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -556,14 +560,22 @@
         <v>8841.666666666666</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>8850</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8840</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -591,14 +603,22 @@
         <v>8860</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>8835</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8840</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -626,13 +646,17 @@
         <v>8858.333333333334</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>8895</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8895</v>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
@@ -667,8 +691,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>8895</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -702,8 +732,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>8895</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -871,14 +907,20 @@
         <v>8840</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>8835</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,18 +948,16 @@
         <v>8831.666666666666</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>8835</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -947,14 +987,12 @@
         <v>8830</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>8830</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
@@ -988,14 +1026,12 @@
         <v>8830</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>8830</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
@@ -1029,14 +1065,12 @@
         <v>8830</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>8830</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
@@ -1070,14 +1104,12 @@
         <v>8830</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>8830</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
@@ -1111,14 +1143,12 @@
         <v>8830</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>8830</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
@@ -1152,14 +1182,12 @@
         <v>8836.666666666666</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>8830</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
@@ -1193,14 +1221,12 @@
         <v>8835</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>8820</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
@@ -1234,14 +1260,12 @@
         <v>8833.333333333334</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>8855</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
@@ -1275,14 +1299,12 @@
         <v>8836.666666666666</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>8855</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
@@ -1316,14 +1338,12 @@
         <v>8848.333333333334</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>8850</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
@@ -1357,14 +1377,12 @@
         <v>8856.666666666666</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>8850</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
@@ -1398,14 +1416,12 @@
         <v>8853.333333333334</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>8850</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
@@ -1439,14 +1455,12 @@
         <v>8850</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>8850</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
@@ -1480,14 +1494,12 @@
         <v>8850</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>8850</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
@@ -1521,14 +1533,12 @@
         <v>8850</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>8850</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
@@ -1562,14 +1572,12 @@
         <v>8850</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>8850</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
@@ -1603,14 +1611,12 @@
         <v>8850</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>8850</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
@@ -1644,14 +1650,12 @@
         <v>8845</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>8850</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
@@ -1685,14 +1689,12 @@
         <v>8845</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>8850</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
@@ -1726,14 +1728,12 @@
         <v>8843.333333333334</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>8845</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
@@ -1767,14 +1767,12 @@
         <v>8845</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>8845</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
@@ -1808,14 +1806,12 @@
         <v>8841.666666666666</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>8840</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
@@ -1849,14 +1845,12 @@
         <v>8840</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>8840</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
@@ -1890,14 +1884,12 @@
         <v>8840</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>8840</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
@@ -1931,14 +1923,12 @@
         <v>8835</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>8825</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
@@ -1972,14 +1962,12 @@
         <v>8825</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>8825</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -2013,14 +2001,12 @@
         <v>8838.333333333334</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>8825</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
@@ -2054,14 +2040,12 @@
         <v>8836.666666666666</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>8825</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
@@ -2095,14 +2079,12 @@
         <v>8841.666666666666</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>8825</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -2136,14 +2118,12 @@
         <v>8826.666666666666</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>8835</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
@@ -2177,14 +2157,12 @@
         <v>8830</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>8830</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
@@ -2218,14 +2196,12 @@
         <v>8848.333333333334</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>8880</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
@@ -2259,14 +2235,12 @@
         <v>8866.666666666666</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>8890</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
@@ -2300,14 +2274,12 @@
         <v>8868.333333333334</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>8835</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
@@ -2341,14 +2313,12 @@
         <v>8855</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>8840</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
@@ -2382,14 +2352,12 @@
         <v>8838.333333333334</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>8890</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
@@ -2423,14 +2391,12 @@
         <v>8838.333333333334</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>8890</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
@@ -2464,14 +2430,12 @@
         <v>8851.666666666666</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>8880</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
@@ -2505,14 +2469,12 @@
         <v>8866.666666666666</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>8885</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
@@ -2546,14 +2508,12 @@
         <v>8885</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>8885</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
@@ -2587,14 +2547,12 @@
         <v>8888.333333333334</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>8890</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
@@ -2628,14 +2586,12 @@
         <v>8908.333333333334</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>8890</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
@@ -2669,14 +2625,12 @@
         <v>8921.666666666666</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>8995</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
@@ -2710,14 +2664,12 @@
         <v>8961.666666666666</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>9010</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
@@ -3378,18 +3330,16 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3417,15 +3367,11 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3460,11 +3406,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3499,11 +3441,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3538,11 +3476,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3577,11 +3511,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3612,16 +3542,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3684,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3719,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3754,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest BTG.xlsx
+++ b/BackTest/2019-10-27 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,13 +442,13 @@
         <v>8845</v>
       </c>
       <c r="E2" t="n">
-        <v>8805</v>
+        <v>8840</v>
       </c>
       <c r="F2" t="n">
-        <v>51.0669</v>
+        <v>42.31</v>
       </c>
       <c r="G2" t="n">
-        <v>8835</v>
+        <v>8919.25</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8840</v>
+        <v>8845</v>
       </c>
       <c r="C3" t="n">
         <v>8840</v>
       </c>
       <c r="D3" t="n">
-        <v>8840</v>
+        <v>8845</v>
       </c>
       <c r="E3" t="n">
-        <v>8840</v>
+        <v>8805</v>
       </c>
       <c r="F3" t="n">
-        <v>7.27</v>
+        <v>51.0669</v>
       </c>
       <c r="G3" t="n">
-        <v>8840</v>
+        <v>8917.333333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,35 +503,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8845</v>
+        <v>8840</v>
       </c>
       <c r="C4" t="n">
-        <v>8850</v>
+        <v>8840</v>
       </c>
       <c r="D4" t="n">
-        <v>8850</v>
+        <v>8840</v>
       </c>
       <c r="E4" t="n">
-        <v>8845</v>
+        <v>8840</v>
       </c>
       <c r="F4" t="n">
-        <v>129.3407</v>
+        <v>7.27</v>
       </c>
       <c r="G4" t="n">
-        <v>8843.333333333334</v>
+        <v>8916.916666666666</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>8840</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8840</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -542,40 +538,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8835</v>
+        <v>8845</v>
       </c>
       <c r="C5" t="n">
-        <v>8835</v>
+        <v>8850</v>
       </c>
       <c r="D5" t="n">
-        <v>8835</v>
+        <v>8850</v>
       </c>
       <c r="E5" t="n">
-        <v>8835</v>
+        <v>8845</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>129.3407</v>
       </c>
       <c r="G5" t="n">
-        <v>8841.666666666666</v>
+        <v>8916.666666666666</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8840</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -585,40 +573,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8870</v>
+        <v>8835</v>
       </c>
       <c r="C6" t="n">
-        <v>8895</v>
+        <v>8835</v>
       </c>
       <c r="D6" t="n">
-        <v>8895</v>
+        <v>8835</v>
       </c>
       <c r="E6" t="n">
-        <v>8870</v>
+        <v>8835</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>8860</v>
+        <v>8916.166666666666</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>8835</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8840</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -628,35 +608,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8845</v>
+        <v>8870</v>
       </c>
       <c r="C7" t="n">
-        <v>8845</v>
+        <v>8895</v>
       </c>
       <c r="D7" t="n">
-        <v>8845</v>
+        <v>8895</v>
       </c>
       <c r="E7" t="n">
-        <v>8845</v>
+        <v>8870</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>8858.333333333334</v>
+        <v>8915.583333333334</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>8895</v>
-      </c>
-      <c r="K7" t="n">
-        <v>8895</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
@@ -679,10 +655,10 @@
         <v>8845</v>
       </c>
       <c r="F8" t="n">
-        <v>8.075200000000001</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>8861.666666666666</v>
+        <v>8913.833333333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -691,14 +667,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>8895</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -708,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8850</v>
+        <v>8845</v>
       </c>
       <c r="C9" t="n">
-        <v>8850</v>
+        <v>8845</v>
       </c>
       <c r="D9" t="n">
-        <v>8850</v>
+        <v>8845</v>
       </c>
       <c r="E9" t="n">
-        <v>8850</v>
+        <v>8845</v>
       </c>
       <c r="F9" t="n">
-        <v>38.0653</v>
+        <v>8.075200000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>8846.666666666666</v>
+        <v>8911.916666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -732,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>8895</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -761,10 +725,10 @@
         <v>8850</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1</v>
+        <v>38.0653</v>
       </c>
       <c r="G10" t="n">
-        <v>8848.333333333334</v>
+        <v>8910.25</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -796,10 +760,10 @@
         <v>8850</v>
       </c>
       <c r="F11" t="n">
-        <v>8.697900000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G11" t="n">
-        <v>8850</v>
+        <v>8908.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -819,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8855</v>
+        <v>8850</v>
       </c>
       <c r="C12" t="n">
-        <v>8855</v>
+        <v>8850</v>
       </c>
       <c r="D12" t="n">
-        <v>8855</v>
+        <v>8850</v>
       </c>
       <c r="E12" t="n">
-        <v>8855</v>
+        <v>8850</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2</v>
+        <v>8.697900000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>8851.666666666666</v>
+        <v>8906.666666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -854,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8850</v>
+        <v>8855</v>
       </c>
       <c r="C13" t="n">
-        <v>8835</v>
+        <v>8855</v>
       </c>
       <c r="D13" t="n">
-        <v>8850</v>
+        <v>8855</v>
       </c>
       <c r="E13" t="n">
-        <v>8835</v>
+        <v>8855</v>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>0.2</v>
       </c>
       <c r="G13" t="n">
-        <v>8846.666666666666</v>
+        <v>8904.916666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -889,38 +853,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8840</v>
+        <v>8850</v>
       </c>
       <c r="C14" t="n">
-        <v>8830</v>
+        <v>8835</v>
       </c>
       <c r="D14" t="n">
-        <v>8840</v>
+        <v>8850</v>
       </c>
       <c r="E14" t="n">
-        <v>8830</v>
+        <v>8835</v>
       </c>
       <c r="F14" t="n">
-        <v>78.062</v>
+        <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>8840</v>
+        <v>8903.416666666666</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>8835</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -930,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8835</v>
+        <v>8840</v>
       </c>
       <c r="C15" t="n">
         <v>8830</v>
       </c>
       <c r="D15" t="n">
-        <v>8835</v>
+        <v>8840</v>
       </c>
       <c r="E15" t="n">
         <v>8830</v>
       </c>
       <c r="F15" t="n">
-        <v>67.91240000000001</v>
+        <v>78.062</v>
       </c>
       <c r="G15" t="n">
-        <v>8831.666666666666</v>
+        <v>8901.833333333334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -955,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -969,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8830</v>
+        <v>8835</v>
       </c>
       <c r="C16" t="n">
         <v>8830</v>
       </c>
       <c r="D16" t="n">
-        <v>8830</v>
+        <v>8835</v>
       </c>
       <c r="E16" t="n">
         <v>8830</v>
       </c>
       <c r="F16" t="n">
-        <v>43.1677</v>
+        <v>67.91240000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>8830</v>
+        <v>8900.083333333334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -994,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1020,10 +970,10 @@
         <v>8830</v>
       </c>
       <c r="F17" t="n">
-        <v>10.1002</v>
+        <v>43.1677</v>
       </c>
       <c r="G17" t="n">
-        <v>8830</v>
+        <v>8898.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1033,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1059,10 +1005,10 @@
         <v>8830</v>
       </c>
       <c r="F18" t="n">
-        <v>49.7667</v>
+        <v>10.1002</v>
       </c>
       <c r="G18" t="n">
-        <v>8830</v>
+        <v>8896.916666666666</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1072,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1098,24 +1040,24 @@
         <v>8830</v>
       </c>
       <c r="F19" t="n">
-        <v>26.8898</v>
+        <v>49.7667</v>
       </c>
       <c r="G19" t="n">
-        <v>8830</v>
+        <v>8895.25</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="n">
+        <v>8830</v>
+      </c>
+      <c r="K19" t="n">
+        <v>8830</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1131,28 +1073,32 @@
         <v>8830</v>
       </c>
       <c r="D20" t="n">
-        <v>8860</v>
+        <v>8830</v>
       </c>
       <c r="E20" t="n">
         <v>8830</v>
       </c>
       <c r="F20" t="n">
-        <v>175.6023</v>
+        <v>26.8898</v>
       </c>
       <c r="G20" t="n">
-        <v>8830</v>
+        <v>8894.083333333334</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>8830</v>
+      </c>
+      <c r="K20" t="n">
+        <v>8830</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -1167,19 +1113,19 @@
         <v>8830</v>
       </c>
       <c r="C21" t="n">
-        <v>8850</v>
+        <v>8830</v>
       </c>
       <c r="D21" t="n">
-        <v>8850</v>
+        <v>8860</v>
       </c>
       <c r="E21" t="n">
         <v>8830</v>
       </c>
       <c r="F21" t="n">
-        <v>12.1085</v>
+        <v>175.6023</v>
       </c>
       <c r="G21" t="n">
-        <v>8836.666666666666</v>
+        <v>8892.916666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1188,10 +1134,12 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>8830</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -1203,31 +1151,35 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>8820</v>
+        <v>8830</v>
       </c>
       <c r="C22" t="n">
-        <v>8825</v>
+        <v>8850</v>
       </c>
       <c r="D22" t="n">
-        <v>8860</v>
+        <v>8850</v>
       </c>
       <c r="E22" t="n">
-        <v>8820</v>
+        <v>8830</v>
       </c>
       <c r="F22" t="n">
-        <v>11.0567</v>
+        <v>12.1085</v>
       </c>
       <c r="G22" t="n">
-        <v>8835</v>
+        <v>8891.583333333334</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>8830</v>
+      </c>
+      <c r="K22" t="n">
+        <v>8830</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1242,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>8855</v>
+        <v>8820</v>
       </c>
       <c r="C23" t="n">
         <v>8825</v>
       </c>
       <c r="D23" t="n">
-        <v>8855</v>
+        <v>8860</v>
       </c>
       <c r="E23" t="n">
-        <v>8825</v>
+        <v>8820</v>
       </c>
       <c r="F23" t="n">
-        <v>101.1796</v>
+        <v>11.0567</v>
       </c>
       <c r="G23" t="n">
-        <v>8833.333333333334</v>
+        <v>8890.333333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1266,7 +1218,9 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>8830</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1284,28 +1238,32 @@
         <v>8855</v>
       </c>
       <c r="C24" t="n">
-        <v>8860</v>
+        <v>8825</v>
       </c>
       <c r="D24" t="n">
-        <v>8860</v>
+        <v>8855</v>
       </c>
       <c r="E24" t="n">
-        <v>8855</v>
+        <v>8825</v>
       </c>
       <c r="F24" t="n">
-        <v>110.3645</v>
+        <v>101.1796</v>
       </c>
       <c r="G24" t="n">
-        <v>8836.666666666666</v>
+        <v>8889.083333333334</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>8825</v>
+      </c>
+      <c r="K24" t="n">
+        <v>8830</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1320,7 +1278,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>8850</v>
+        <v>8855</v>
       </c>
       <c r="C25" t="n">
         <v>8860</v>
@@ -1329,13 +1287,13 @@
         <v>8860</v>
       </c>
       <c r="E25" t="n">
-        <v>8850</v>
+        <v>8855</v>
       </c>
       <c r="F25" t="n">
-        <v>19.1086</v>
+        <v>110.3645</v>
       </c>
       <c r="G25" t="n">
-        <v>8848.333333333334</v>
+        <v>8887.916666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1344,7 +1302,9 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>8830</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1362,19 +1322,19 @@
         <v>8850</v>
       </c>
       <c r="C26" t="n">
-        <v>8850</v>
+        <v>8860</v>
       </c>
       <c r="D26" t="n">
-        <v>8850</v>
+        <v>8860</v>
       </c>
       <c r="E26" t="n">
         <v>8850</v>
       </c>
       <c r="F26" t="n">
-        <v>7</v>
+        <v>19.1086</v>
       </c>
       <c r="G26" t="n">
-        <v>8856.666666666666</v>
+        <v>8886.416666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1383,7 +1343,9 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>8830</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1410,10 +1372,10 @@
         <v>8850</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G27" t="n">
-        <v>8853.333333333334</v>
+        <v>8884.75</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1422,7 +1384,9 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>8830</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1449,10 +1413,10 @@
         <v>8850</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>8850</v>
+        <v>8882.916666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1461,7 +1425,9 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>8830</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1488,10 +1454,10 @@
         <v>8850</v>
       </c>
       <c r="F29" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>8850</v>
+        <v>8881.083333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1500,7 +1466,9 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>8830</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1527,10 +1495,10 @@
         <v>8850</v>
       </c>
       <c r="F30" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G30" t="n">
-        <v>8850</v>
+        <v>8879.25</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1539,7 +1507,9 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>8830</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1566,10 +1536,10 @@
         <v>8850</v>
       </c>
       <c r="F31" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G31" t="n">
-        <v>8850</v>
+        <v>8878.166666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1578,7 +1548,9 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>8830</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1605,10 +1577,10 @@
         <v>8850</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G32" t="n">
-        <v>8850</v>
+        <v>8875.916666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1617,7 +1589,9 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>8830</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1635,19 +1609,19 @@
         <v>8850</v>
       </c>
       <c r="C33" t="n">
-        <v>8835</v>
+        <v>8850</v>
       </c>
       <c r="D33" t="n">
         <v>8850</v>
       </c>
       <c r="E33" t="n">
-        <v>8835</v>
+        <v>8850</v>
       </c>
       <c r="F33" t="n">
-        <v>9.975</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>8845</v>
+        <v>8874.25</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1656,7 +1630,9 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>8830</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1674,19 +1650,19 @@
         <v>8850</v>
       </c>
       <c r="C34" t="n">
-        <v>8850</v>
+        <v>8835</v>
       </c>
       <c r="D34" t="n">
         <v>8850</v>
       </c>
       <c r="E34" t="n">
-        <v>8850</v>
+        <v>8835</v>
       </c>
       <c r="F34" t="n">
-        <v>5.0199</v>
+        <v>9.975</v>
       </c>
       <c r="G34" t="n">
-        <v>8845</v>
+        <v>8872.416666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1695,7 +1671,9 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>8830</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1710,22 +1688,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>8845</v>
+        <v>8850</v>
       </c>
       <c r="C35" t="n">
-        <v>8845</v>
+        <v>8850</v>
       </c>
       <c r="D35" t="n">
-        <v>8845</v>
+        <v>8850</v>
       </c>
       <c r="E35" t="n">
-        <v>8845</v>
+        <v>8850</v>
       </c>
       <c r="F35" t="n">
-        <v>13</v>
+        <v>5.0199</v>
       </c>
       <c r="G35" t="n">
-        <v>8843.333333333334</v>
+        <v>8870.833333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1734,7 +1712,9 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>8830</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1752,19 +1732,19 @@
         <v>8845</v>
       </c>
       <c r="C36" t="n">
-        <v>8840</v>
+        <v>8845</v>
       </c>
       <c r="D36" t="n">
         <v>8845</v>
       </c>
       <c r="E36" t="n">
-        <v>8840</v>
+        <v>8845</v>
       </c>
       <c r="F36" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G36" t="n">
-        <v>8845</v>
+        <v>8869.083333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1773,7 +1753,9 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>8830</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1788,22 +1770,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>8840</v>
+        <v>8845</v>
       </c>
       <c r="C37" t="n">
         <v>8840</v>
       </c>
       <c r="D37" t="n">
-        <v>8840</v>
+        <v>8845</v>
       </c>
       <c r="E37" t="n">
         <v>8840</v>
       </c>
       <c r="F37" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G37" t="n">
-        <v>8841.666666666666</v>
+        <v>8867.166666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1812,7 +1794,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>8830</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1839,10 +1823,10 @@
         <v>8840</v>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G38" t="n">
-        <v>8840</v>
+        <v>8865.25</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1851,7 +1835,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>8830</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1878,19 +1864,23 @@
         <v>8840</v>
       </c>
       <c r="F39" t="n">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
+        <v>8863.666666666666</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
         <v>8840</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>8830</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1905,31 +1895,35 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>8825</v>
+        <v>8840</v>
       </c>
       <c r="C40" t="n">
-        <v>8825</v>
+        <v>8840</v>
       </c>
       <c r="D40" t="n">
-        <v>8825</v>
+        <v>8840</v>
       </c>
       <c r="E40" t="n">
-        <v>8825</v>
+        <v>8840</v>
       </c>
       <c r="F40" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="G40" t="n">
-        <v>8835</v>
+        <v>8862.416666666666</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>8840</v>
+      </c>
+      <c r="K40" t="n">
+        <v>8830</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1947,28 +1941,32 @@
         <v>8825</v>
       </c>
       <c r="C41" t="n">
-        <v>8810</v>
+        <v>8825</v>
       </c>
       <c r="D41" t="n">
         <v>8825</v>
       </c>
       <c r="E41" t="n">
-        <v>8810</v>
+        <v>8825</v>
       </c>
       <c r="F41" t="n">
-        <v>68.3652</v>
+        <v>40</v>
       </c>
       <c r="G41" t="n">
-        <v>8825</v>
+        <v>8860.833333333334</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>8840</v>
+      </c>
+      <c r="K41" t="n">
+        <v>8830</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1986,28 +1984,32 @@
         <v>8825</v>
       </c>
       <c r="C42" t="n">
-        <v>8880</v>
+        <v>8810</v>
       </c>
       <c r="D42" t="n">
-        <v>8880</v>
+        <v>8825</v>
       </c>
       <c r="E42" t="n">
+        <v>8810</v>
+      </c>
+      <c r="F42" t="n">
+        <v>68.3652</v>
+      </c>
+      <c r="G42" t="n">
+        <v>8859</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
         <v>8825</v>
       </c>
-      <c r="F42" t="n">
-        <v>90.2968</v>
-      </c>
-      <c r="G42" t="n">
-        <v>8838.333333333334</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>8830</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2025,28 +2027,32 @@
         <v>8825</v>
       </c>
       <c r="C43" t="n">
-        <v>8820</v>
+        <v>8880</v>
       </c>
       <c r="D43" t="n">
-        <v>8830</v>
+        <v>8880</v>
       </c>
       <c r="E43" t="n">
-        <v>8820</v>
+        <v>8825</v>
       </c>
       <c r="F43" t="n">
-        <v>56.418</v>
+        <v>90.2968</v>
       </c>
       <c r="G43" t="n">
-        <v>8836.666666666666</v>
+        <v>8858.166666666666</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>8810</v>
+      </c>
+      <c r="K43" t="n">
+        <v>8830</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2064,19 +2070,19 @@
         <v>8825</v>
       </c>
       <c r="C44" t="n">
-        <v>8825</v>
+        <v>8820</v>
       </c>
       <c r="D44" t="n">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="E44" t="n">
-        <v>8825</v>
+        <v>8820</v>
       </c>
       <c r="F44" t="n">
-        <v>15.9771</v>
+        <v>56.418</v>
       </c>
       <c r="G44" t="n">
-        <v>8841.666666666666</v>
+        <v>8856.416666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2085,7 +2091,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>8830</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2100,22 +2108,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>8835</v>
+        <v>8825</v>
       </c>
       <c r="C45" t="n">
-        <v>8835</v>
+        <v>8825</v>
       </c>
       <c r="D45" t="n">
-        <v>8835</v>
+        <v>8825</v>
       </c>
       <c r="E45" t="n">
-        <v>8835</v>
+        <v>8825</v>
       </c>
       <c r="F45" t="n">
-        <v>18</v>
+        <v>15.9771</v>
       </c>
       <c r="G45" t="n">
-        <v>8826.666666666666</v>
+        <v>8855.166666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2124,7 +2132,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>8830</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2139,22 +2149,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>8830</v>
+        <v>8835</v>
       </c>
       <c r="C46" t="n">
-        <v>8830</v>
+        <v>8835</v>
       </c>
       <c r="D46" t="n">
-        <v>8830</v>
+        <v>8835</v>
       </c>
       <c r="E46" t="n">
-        <v>8830</v>
+        <v>8835</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5</v>
+        <v>18</v>
       </c>
       <c r="G46" t="n">
-        <v>8830</v>
+        <v>8853.583333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2163,7 +2173,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>8830</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2178,31 +2190,35 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>8880</v>
+        <v>8830</v>
       </c>
       <c r="C47" t="n">
-        <v>8880</v>
+        <v>8830</v>
       </c>
       <c r="D47" t="n">
-        <v>8880</v>
+        <v>8830</v>
       </c>
       <c r="E47" t="n">
-        <v>8880</v>
+        <v>8830</v>
       </c>
       <c r="F47" t="n">
-        <v>69.3343</v>
+        <v>0.5</v>
       </c>
       <c r="G47" t="n">
-        <v>8848.333333333334</v>
+        <v>8851.916666666666</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>8835</v>
+      </c>
+      <c r="K47" t="n">
+        <v>8830</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2217,31 +2233,35 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>8890</v>
+        <v>8880</v>
       </c>
       <c r="C48" t="n">
-        <v>8890</v>
+        <v>8880</v>
       </c>
       <c r="D48" t="n">
-        <v>8890</v>
+        <v>8880</v>
       </c>
       <c r="E48" t="n">
-        <v>8890</v>
+        <v>8880</v>
       </c>
       <c r="F48" t="n">
-        <v>11.1551</v>
+        <v>69.3343</v>
       </c>
       <c r="G48" t="n">
-        <v>8866.666666666666</v>
+        <v>8851.25</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>8830</v>
+      </c>
+      <c r="K48" t="n">
+        <v>8830</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2256,22 +2276,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>8835</v>
+        <v>8890</v>
       </c>
       <c r="C49" t="n">
-        <v>8835</v>
+        <v>8890</v>
       </c>
       <c r="D49" t="n">
-        <v>8835</v>
+        <v>8890</v>
       </c>
       <c r="E49" t="n">
-        <v>8835</v>
+        <v>8890</v>
       </c>
       <c r="F49" t="n">
-        <v>0.242</v>
+        <v>11.1551</v>
       </c>
       <c r="G49" t="n">
-        <v>8868.333333333334</v>
+        <v>8850.583333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2280,7 +2300,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>8830</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2295,22 +2317,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>8840</v>
+        <v>8835</v>
       </c>
       <c r="C50" t="n">
-        <v>8840</v>
+        <v>8835</v>
       </c>
       <c r="D50" t="n">
-        <v>8840</v>
+        <v>8835</v>
       </c>
       <c r="E50" t="n">
-        <v>8840</v>
+        <v>8835</v>
       </c>
       <c r="F50" t="n">
-        <v>45.6425</v>
+        <v>0.242</v>
       </c>
       <c r="G50" t="n">
-        <v>8855</v>
+        <v>8849.166666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2319,7 +2341,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>8830</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2334,22 +2358,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>8890</v>
+        <v>8840</v>
       </c>
       <c r="C51" t="n">
         <v>8840</v>
       </c>
       <c r="D51" t="n">
-        <v>8890</v>
+        <v>8840</v>
       </c>
       <c r="E51" t="n">
         <v>8840</v>
       </c>
       <c r="F51" t="n">
-        <v>4.9888</v>
+        <v>45.6425</v>
       </c>
       <c r="G51" t="n">
-        <v>8838.333333333334</v>
+        <v>8848.166666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2358,7 +2382,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>8830</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2376,19 +2402,19 @@
         <v>8890</v>
       </c>
       <c r="C52" t="n">
-        <v>8835</v>
+        <v>8840</v>
       </c>
       <c r="D52" t="n">
         <v>8890</v>
       </c>
       <c r="E52" t="n">
-        <v>8835</v>
+        <v>8840</v>
       </c>
       <c r="F52" t="n">
-        <v>168.0659</v>
+        <v>4.9888</v>
       </c>
       <c r="G52" t="n">
-        <v>8838.333333333334</v>
+        <v>8847.333333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2397,7 +2423,9 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>8830</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2412,22 +2440,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>8880</v>
+        <v>8890</v>
       </c>
       <c r="C53" t="n">
-        <v>8880</v>
+        <v>8835</v>
       </c>
       <c r="D53" t="n">
-        <v>8885</v>
+        <v>8890</v>
       </c>
       <c r="E53" t="n">
-        <v>8880</v>
+        <v>8835</v>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>168.0659</v>
       </c>
       <c r="G53" t="n">
-        <v>8851.666666666666</v>
+        <v>8847</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2436,7 +2464,9 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>8830</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2451,22 +2481,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>8885</v>
+        <v>8880</v>
       </c>
       <c r="C54" t="n">
-        <v>8885</v>
+        <v>8880</v>
       </c>
       <c r="D54" t="n">
         <v>8885</v>
       </c>
       <c r="E54" t="n">
-        <v>8885</v>
+        <v>8880</v>
       </c>
       <c r="F54" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>8866.666666666666</v>
+        <v>8847.416666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2475,7 +2505,9 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>8830</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2493,19 +2525,19 @@
         <v>8885</v>
       </c>
       <c r="C55" t="n">
-        <v>8890</v>
+        <v>8885</v>
       </c>
       <c r="D55" t="n">
-        <v>8890</v>
+        <v>8885</v>
       </c>
       <c r="E55" t="n">
         <v>8885</v>
       </c>
       <c r="F55" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G55" t="n">
-        <v>8885</v>
+        <v>8847.083333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2514,7 +2546,9 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>8830</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2529,7 +2563,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>8890</v>
+        <v>8885</v>
       </c>
       <c r="C56" t="n">
         <v>8890</v>
@@ -2538,13 +2572,13 @@
         <v>8890</v>
       </c>
       <c r="E56" t="n">
-        <v>8890</v>
+        <v>8885</v>
       </c>
       <c r="F56" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G56" t="n">
-        <v>8888.333333333334</v>
+        <v>8846.916666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2553,7 +2587,9 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>8830</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2571,19 +2607,19 @@
         <v>8890</v>
       </c>
       <c r="C57" t="n">
-        <v>8945</v>
+        <v>8890</v>
       </c>
       <c r="D57" t="n">
-        <v>8945</v>
+        <v>8890</v>
       </c>
       <c r="E57" t="n">
         <v>8890</v>
       </c>
       <c r="F57" t="n">
-        <v>178.3834</v>
+        <v>26</v>
       </c>
       <c r="G57" t="n">
-        <v>8908.333333333334</v>
+        <v>8846.75</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2592,7 +2628,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>8830</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2607,22 +2645,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>8995</v>
+        <v>8890</v>
       </c>
       <c r="C58" t="n">
-        <v>8930</v>
+        <v>8945</v>
       </c>
       <c r="D58" t="n">
-        <v>9050</v>
+        <v>8945</v>
       </c>
       <c r="E58" t="n">
-        <v>8930</v>
+        <v>8890</v>
       </c>
       <c r="F58" t="n">
-        <v>459.0254232</v>
+        <v>178.3834</v>
       </c>
       <c r="G58" t="n">
-        <v>8921.666666666666</v>
+        <v>8848</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2631,7 +2669,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>8830</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2646,22 +2686,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9010</v>
+        <v>8995</v>
       </c>
       <c r="C59" t="n">
-        <v>9010</v>
+        <v>8930</v>
       </c>
       <c r="D59" t="n">
-        <v>9010</v>
+        <v>9050</v>
       </c>
       <c r="E59" t="n">
-        <v>9010</v>
+        <v>8930</v>
       </c>
       <c r="F59" t="n">
-        <v>5.5493</v>
+        <v>459.0254232</v>
       </c>
       <c r="G59" t="n">
-        <v>8961.666666666666</v>
+        <v>8849</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2670,7 +2710,9 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>8830</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2685,22 +2727,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9020</v>
+        <v>9010</v>
       </c>
       <c r="C60" t="n">
-        <v>9020</v>
+        <v>9010</v>
       </c>
       <c r="D60" t="n">
-        <v>9020</v>
+        <v>9010</v>
       </c>
       <c r="E60" t="n">
-        <v>9020</v>
+        <v>9010</v>
       </c>
       <c r="F60" t="n">
-        <v>5.5433</v>
+        <v>5.5493</v>
       </c>
       <c r="G60" t="n">
-        <v>8986.666666666666</v>
+        <v>8851.666666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2709,7 +2751,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>8830</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2724,22 +2768,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9035</v>
+        <v>9020</v>
       </c>
       <c r="C61" t="n">
-        <v>9035</v>
+        <v>9020</v>
       </c>
       <c r="D61" t="n">
-        <v>9035</v>
+        <v>9020</v>
       </c>
       <c r="E61" t="n">
-        <v>9035</v>
+        <v>9020</v>
       </c>
       <c r="F61" t="n">
-        <v>578.9956</v>
+        <v>5.5433</v>
       </c>
       <c r="G61" t="n">
-        <v>9021.666666666666</v>
+        <v>8854.916666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2748,7 +2792,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>8830</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2775,10 +2821,10 @@
         <v>9035</v>
       </c>
       <c r="F62" t="n">
-        <v>123</v>
+        <v>578.9956</v>
       </c>
       <c r="G62" t="n">
-        <v>9030</v>
+        <v>8858.166666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2787,7 +2833,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>8830</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2814,10 +2862,10 @@
         <v>9035</v>
       </c>
       <c r="F63" t="n">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="G63" t="n">
-        <v>9035</v>
+        <v>8861.416666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2826,7 +2874,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>8830</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2841,22 +2891,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>8955</v>
+        <v>9035</v>
       </c>
       <c r="C64" t="n">
-        <v>8955</v>
+        <v>9035</v>
       </c>
       <c r="D64" t="n">
-        <v>8955</v>
+        <v>9035</v>
       </c>
       <c r="E64" t="n">
-        <v>8955</v>
+        <v>9035</v>
       </c>
       <c r="F64" t="n">
-        <v>3.8463</v>
+        <v>6</v>
       </c>
       <c r="G64" t="n">
-        <v>9008.333333333334</v>
+        <v>8864.666666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2865,7 +2915,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>8830</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2883,19 +2935,19 @@
         <v>8955</v>
       </c>
       <c r="C65" t="n">
-        <v>8950</v>
+        <v>8955</v>
       </c>
       <c r="D65" t="n">
         <v>8955</v>
       </c>
       <c r="E65" t="n">
-        <v>8950</v>
+        <v>8955</v>
       </c>
       <c r="F65" t="n">
-        <v>116</v>
+        <v>3.8463</v>
       </c>
       <c r="G65" t="n">
-        <v>8980</v>
+        <v>8866.416666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2904,7 +2956,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>8830</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2919,22 +2973,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>8950</v>
+        <v>8955</v>
       </c>
       <c r="C66" t="n">
         <v>8950</v>
       </c>
       <c r="D66" t="n">
-        <v>8950</v>
+        <v>8955</v>
       </c>
       <c r="E66" t="n">
         <v>8950</v>
       </c>
       <c r="F66" t="n">
-        <v>28.7212</v>
+        <v>116</v>
       </c>
       <c r="G66" t="n">
-        <v>8951.666666666666</v>
+        <v>8868.333333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2943,7 +2997,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>8830</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2970,10 +3026,10 @@
         <v>8950</v>
       </c>
       <c r="F67" t="n">
-        <v>71.88460000000001</v>
+        <v>28.7212</v>
       </c>
       <c r="G67" t="n">
-        <v>8950</v>
+        <v>8869.25</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2982,7 +3038,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>8830</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3000,19 +3058,19 @@
         <v>8950</v>
       </c>
       <c r="C68" t="n">
-        <v>8945</v>
+        <v>8950</v>
       </c>
       <c r="D68" t="n">
         <v>8950</v>
       </c>
       <c r="E68" t="n">
-        <v>8945</v>
+        <v>8950</v>
       </c>
       <c r="F68" t="n">
-        <v>127.8804</v>
+        <v>71.88460000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>8948.333333333334</v>
+        <v>8871</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3021,7 +3079,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>8830</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3036,22 +3096,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9005</v>
+        <v>8950</v>
       </c>
       <c r="C69" t="n">
-        <v>9005</v>
+        <v>8945</v>
       </c>
       <c r="D69" t="n">
-        <v>9005</v>
+        <v>8950</v>
       </c>
       <c r="E69" t="n">
-        <v>9005</v>
+        <v>8945</v>
       </c>
       <c r="F69" t="n">
-        <v>111.4862</v>
+        <v>127.8804</v>
       </c>
       <c r="G69" t="n">
-        <v>8966.666666666666</v>
+        <v>8872.666666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3060,7 +3120,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>8830</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3075,22 +3137,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9050</v>
+        <v>9005</v>
       </c>
       <c r="C70" t="n">
-        <v>9050</v>
+        <v>9005</v>
       </c>
       <c r="D70" t="n">
-        <v>9050</v>
+        <v>9005</v>
       </c>
       <c r="E70" t="n">
-        <v>9050</v>
+        <v>9005</v>
       </c>
       <c r="F70" t="n">
-        <v>13.3527768</v>
+        <v>111.4862</v>
       </c>
       <c r="G70" t="n">
-        <v>9000</v>
+        <v>8875.25</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3099,7 +3161,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>8830</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3117,19 +3181,19 @@
         <v>9050</v>
       </c>
       <c r="C71" t="n">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="D71" t="n">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="E71" t="n">
         <v>9050</v>
       </c>
       <c r="F71" t="n">
-        <v>6</v>
+        <v>13.3527768</v>
       </c>
       <c r="G71" t="n">
-        <v>9036.666666666666</v>
+        <v>8878.583333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3138,7 +3202,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>8830</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3156,19 +3222,19 @@
         <v>9050</v>
       </c>
       <c r="C72" t="n">
-        <v>9095</v>
+        <v>9055</v>
       </c>
       <c r="D72" t="n">
-        <v>9095</v>
+        <v>9055</v>
       </c>
       <c r="E72" t="n">
         <v>9050</v>
       </c>
       <c r="F72" t="n">
-        <v>182</v>
+        <v>6</v>
       </c>
       <c r="G72" t="n">
-        <v>9066.666666666666</v>
+        <v>8882</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3177,7 +3243,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>8830</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3192,22 +3260,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9085</v>
+        <v>9050</v>
       </c>
       <c r="C73" t="n">
-        <v>9140</v>
+        <v>9095</v>
       </c>
       <c r="D73" t="n">
-        <v>9140</v>
+        <v>9095</v>
       </c>
       <c r="E73" t="n">
-        <v>9025</v>
+        <v>9050</v>
       </c>
       <c r="F73" t="n">
-        <v>166.0515</v>
+        <v>182</v>
       </c>
       <c r="G73" t="n">
-        <v>9096.666666666666</v>
+        <v>8886</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3216,7 +3284,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>8830</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3231,22 +3301,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>9085</v>
+      </c>
+      <c r="C74" t="n">
         <v>9140</v>
       </c>
-      <c r="C74" t="n">
-        <v>9170</v>
-      </c>
       <c r="D74" t="n">
-        <v>9170</v>
+        <v>9140</v>
       </c>
       <c r="E74" t="n">
-        <v>9140</v>
+        <v>9025</v>
       </c>
       <c r="F74" t="n">
-        <v>50.9608</v>
+        <v>166.0515</v>
       </c>
       <c r="G74" t="n">
-        <v>9135</v>
+        <v>8891.083333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3255,7 +3325,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>8830</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3270,22 +3342,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>9140</v>
+      </c>
+      <c r="C75" t="n">
         <v>9170</v>
       </c>
-      <c r="C75" t="n">
-        <v>9175</v>
-      </c>
       <c r="D75" t="n">
-        <v>9180</v>
+        <v>9170</v>
       </c>
       <c r="E75" t="n">
-        <v>9170</v>
+        <v>9140</v>
       </c>
       <c r="F75" t="n">
-        <v>69</v>
+        <v>50.9608</v>
       </c>
       <c r="G75" t="n">
-        <v>9161.666666666666</v>
+        <v>8896.75</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3294,7 +3366,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>8830</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3309,37 +3383,41 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9100</v>
+        <v>9170</v>
       </c>
       <c r="C76" t="n">
-        <v>9105</v>
+        <v>9175</v>
       </c>
       <c r="D76" t="n">
-        <v>9105</v>
+        <v>9180</v>
       </c>
       <c r="E76" t="n">
-        <v>9100</v>
+        <v>9170</v>
       </c>
       <c r="F76" t="n">
-        <v>462.4078</v>
+        <v>69</v>
       </c>
       <c r="G76" t="n">
-        <v>9150</v>
+        <v>8902.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>8830</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3349,19 +3427,19 @@
         <v>9100</v>
       </c>
       <c r="C77" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="D77" t="n">
-        <v>9100</v>
+        <v>9105</v>
       </c>
       <c r="E77" t="n">
         <v>9100</v>
       </c>
       <c r="F77" t="n">
-        <v>243.5135</v>
+        <v>462.4078</v>
       </c>
       <c r="G77" t="n">
-        <v>9126.666666666666</v>
+        <v>8907.083333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3370,10 +3448,16 @@
         <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>8830</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>1.02614382785957</v>
       </c>
     </row>
     <row r="78">
@@ -3381,28 +3465,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9160</v>
+        <v>9100</v>
       </c>
       <c r="C78" t="n">
-        <v>9180</v>
+        <v>9100</v>
       </c>
       <c r="D78" t="n">
-        <v>9180</v>
+        <v>9100</v>
       </c>
       <c r="E78" t="n">
-        <v>9160</v>
+        <v>9100</v>
       </c>
       <c r="F78" t="n">
-        <v>80.13200000000001</v>
+        <v>243.5135</v>
       </c>
       <c r="G78" t="n">
-        <v>9128.333333333334</v>
+        <v>8911.583333333334</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3416,22 +3500,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>9160</v>
+      </c>
+      <c r="C79" t="n">
         <v>9180</v>
       </c>
-      <c r="C79" t="n">
-        <v>9210</v>
-      </c>
       <c r="D79" t="n">
-        <v>9210</v>
+        <v>9180</v>
       </c>
       <c r="E79" t="n">
-        <v>9180</v>
+        <v>9160</v>
       </c>
       <c r="F79" t="n">
-        <v>149</v>
+        <v>80.13200000000001</v>
       </c>
       <c r="G79" t="n">
-        <v>9163.333333333334</v>
+        <v>8917.416666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3451,22 +3535,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>9180</v>
+      </c>
+      <c r="C80" t="n">
         <v>9210</v>
       </c>
-      <c r="C80" t="n">
-        <v>9300</v>
-      </c>
       <c r="D80" t="n">
-        <v>9300</v>
+        <v>9210</v>
       </c>
       <c r="E80" t="n">
-        <v>9210</v>
+        <v>9180</v>
       </c>
       <c r="F80" t="n">
-        <v>1.32</v>
+        <v>149</v>
       </c>
       <c r="G80" t="n">
-        <v>9230</v>
+        <v>8923.75</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3486,22 +3570,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>9210</v>
+      </c>
+      <c r="C81" t="n">
         <v>9300</v>
       </c>
-      <c r="C81" t="n">
-        <v>9485</v>
-      </c>
       <c r="D81" t="n">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="E81" t="n">
-        <v>9065</v>
+        <v>9210</v>
       </c>
       <c r="F81" t="n">
-        <v>997.03142947</v>
+        <v>1.32</v>
       </c>
       <c r="G81" t="n">
-        <v>9331.666666666666</v>
+        <v>8931.583333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3521,22 +3605,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9120</v>
+        <v>9300</v>
       </c>
       <c r="C82" t="n">
+        <v>9485</v>
+      </c>
+      <c r="D82" t="n">
+        <v>9500</v>
+      </c>
+      <c r="E82" t="n">
         <v>9065</v>
       </c>
-      <c r="D82" t="n">
-        <v>9120</v>
-      </c>
-      <c r="E82" t="n">
-        <v>9060</v>
-      </c>
       <c r="F82" t="n">
-        <v>74.6206</v>
+        <v>997.03142947</v>
       </c>
       <c r="G82" t="n">
-        <v>9283.333333333334</v>
+        <v>8942.166666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3556,28 +3640,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9420</v>
+        <v>9120</v>
       </c>
       <c r="C83" t="n">
-        <v>9075</v>
+        <v>9065</v>
       </c>
       <c r="D83" t="n">
-        <v>9420</v>
+        <v>9120</v>
       </c>
       <c r="E83" t="n">
-        <v>9075</v>
+        <v>9060</v>
       </c>
       <c r="F83" t="n">
-        <v>0.233</v>
+        <v>74.6206</v>
       </c>
       <c r="G83" t="n">
-        <v>9208.333333333334</v>
+        <v>8946.166666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3591,22 +3675,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9410</v>
+        <v>9420</v>
       </c>
       <c r="C84" t="n">
-        <v>9090</v>
+        <v>9075</v>
       </c>
       <c r="D84" t="n">
-        <v>9415</v>
+        <v>9420</v>
       </c>
       <c r="E84" t="n">
-        <v>9090</v>
+        <v>9075</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2231</v>
+        <v>0.233</v>
       </c>
       <c r="G84" t="n">
-        <v>9076.666666666666</v>
+        <v>8950.333333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3629,19 +3713,19 @@
         <v>9410</v>
       </c>
       <c r="C85" t="n">
-        <v>9415</v>
+        <v>9090</v>
       </c>
       <c r="D85" t="n">
         <v>9415</v>
       </c>
       <c r="E85" t="n">
-        <v>9410</v>
+        <v>9090</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1001</v>
+        <v>0.2231</v>
       </c>
       <c r="G85" t="n">
-        <v>9193.333333333334</v>
+        <v>8954.166666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3661,22 +3745,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9140</v>
+        <v>9410</v>
       </c>
       <c r="C86" t="n">
-        <v>9305</v>
+        <v>9415</v>
       </c>
       <c r="D86" t="n">
-        <v>9305</v>
+        <v>9415</v>
       </c>
       <c r="E86" t="n">
-        <v>9140</v>
+        <v>9410</v>
       </c>
       <c r="F86" t="n">
-        <v>9.2387</v>
+        <v>0.1001</v>
       </c>
       <c r="G86" t="n">
-        <v>9270</v>
+        <v>8963.416666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3696,22 +3780,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9145</v>
+        <v>9140</v>
       </c>
       <c r="C87" t="n">
-        <v>9145</v>
+        <v>9305</v>
       </c>
       <c r="D87" t="n">
-        <v>9145</v>
+        <v>9305</v>
       </c>
       <c r="E87" t="n">
-        <v>9145</v>
+        <v>9140</v>
       </c>
       <c r="F87" t="n">
-        <v>8.1</v>
+        <v>9.2387</v>
       </c>
       <c r="G87" t="n">
-        <v>9288.333333333334</v>
+        <v>8971</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3731,22 +3815,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9150</v>
+        <v>9145</v>
       </c>
       <c r="C88" t="n">
-        <v>9150</v>
+        <v>9145</v>
       </c>
       <c r="D88" t="n">
-        <v>9150</v>
+        <v>9145</v>
       </c>
       <c r="E88" t="n">
-        <v>9150</v>
+        <v>9145</v>
       </c>
       <c r="F88" t="n">
-        <v>10.9</v>
+        <v>8.1</v>
       </c>
       <c r="G88" t="n">
-        <v>9200</v>
+        <v>8975.916666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3766,22 +3850,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9140</v>
+        <v>9150</v>
       </c>
       <c r="C89" t="n">
-        <v>9140</v>
+        <v>9150</v>
       </c>
       <c r="D89" t="n">
-        <v>9140</v>
+        <v>9150</v>
       </c>
       <c r="E89" t="n">
-        <v>9140</v>
+        <v>9150</v>
       </c>
       <c r="F89" t="n">
-        <v>90</v>
+        <v>10.9</v>
       </c>
       <c r="G89" t="n">
-        <v>9145</v>
+        <v>8980.916666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3807,16 +3891,16 @@
         <v>9140</v>
       </c>
       <c r="D90" t="n">
-        <v>9205</v>
+        <v>9140</v>
       </c>
       <c r="E90" t="n">
         <v>9140</v>
       </c>
       <c r="F90" t="n">
-        <v>150.1275</v>
+        <v>90</v>
       </c>
       <c r="G90" t="n">
-        <v>9143.333333333334</v>
+        <v>8985.75</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3842,16 +3926,16 @@
         <v>9140</v>
       </c>
       <c r="D91" t="n">
-        <v>9140</v>
+        <v>9205</v>
       </c>
       <c r="E91" t="n">
         <v>9140</v>
       </c>
       <c r="F91" t="n">
-        <v>30</v>
+        <v>150.1275</v>
       </c>
       <c r="G91" t="n">
-        <v>9140</v>
+        <v>8990.583333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3871,22 +3955,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9200</v>
+        <v>9140</v>
       </c>
       <c r="C92" t="n">
-        <v>9100</v>
+        <v>9140</v>
       </c>
       <c r="D92" t="n">
-        <v>9200</v>
+        <v>9140</v>
       </c>
       <c r="E92" t="n">
-        <v>9100</v>
+        <v>9140</v>
       </c>
       <c r="F92" t="n">
-        <v>6.5361</v>
+        <v>30</v>
       </c>
       <c r="G92" t="n">
-        <v>9126.666666666666</v>
+        <v>8995.416666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3906,22 +3990,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9140</v>
+        <v>9200</v>
       </c>
       <c r="C93" t="n">
-        <v>9085</v>
+        <v>9100</v>
       </c>
       <c r="D93" t="n">
-        <v>9140</v>
+        <v>9200</v>
       </c>
       <c r="E93" t="n">
-        <v>9085</v>
+        <v>9100</v>
       </c>
       <c r="F93" t="n">
-        <v>29.8353</v>
+        <v>6.5361</v>
       </c>
       <c r="G93" t="n">
-        <v>9108.333333333334</v>
+        <v>8999.583333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3944,19 +4028,19 @@
         <v>9140</v>
       </c>
       <c r="C94" t="n">
-        <v>9180</v>
+        <v>9085</v>
       </c>
       <c r="D94" t="n">
-        <v>9180</v>
+        <v>9140</v>
       </c>
       <c r="E94" t="n">
-        <v>9140</v>
+        <v>9085</v>
       </c>
       <c r="F94" t="n">
-        <v>86.2436</v>
+        <v>29.8353</v>
       </c>
       <c r="G94" t="n">
-        <v>9121.666666666666</v>
+        <v>9003.75</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3976,22 +4060,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>9140</v>
+      </c>
+      <c r="C95" t="n">
         <v>9180</v>
       </c>
-      <c r="C95" t="n">
-        <v>9185</v>
-      </c>
       <c r="D95" t="n">
-        <v>9185</v>
+        <v>9180</v>
       </c>
       <c r="E95" t="n">
-        <v>9180</v>
+        <v>9140</v>
       </c>
       <c r="F95" t="n">
-        <v>12.62386243</v>
+        <v>86.2436</v>
       </c>
       <c r="G95" t="n">
-        <v>9150</v>
+        <v>9009.25</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4011,7 +4095,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9185</v>
+        <v>9180</v>
       </c>
       <c r="C96" t="n">
         <v>9185</v>
@@ -4020,13 +4104,13 @@
         <v>9185</v>
       </c>
       <c r="E96" t="n">
-        <v>9185</v>
+        <v>9180</v>
       </c>
       <c r="F96" t="n">
-        <v>141.9291</v>
+        <v>12.62386243</v>
       </c>
       <c r="G96" t="n">
-        <v>9183.333333333334</v>
+        <v>9014.916666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4046,22 +4130,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9115</v>
+        <v>9185</v>
       </c>
       <c r="C97" t="n">
-        <v>9250</v>
+        <v>9185</v>
       </c>
       <c r="D97" t="n">
-        <v>9250</v>
+        <v>9185</v>
       </c>
       <c r="E97" t="n">
-        <v>9115</v>
+        <v>9185</v>
       </c>
       <c r="F97" t="n">
-        <v>0.223</v>
+        <v>141.9291</v>
       </c>
       <c r="G97" t="n">
-        <v>9206.666666666666</v>
+        <v>9020.666666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4081,22 +4165,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9120</v>
+        <v>9115</v>
       </c>
       <c r="C98" t="n">
-        <v>9115</v>
+        <v>9250</v>
       </c>
       <c r="D98" t="n">
-        <v>9120</v>
+        <v>9250</v>
       </c>
       <c r="E98" t="n">
         <v>9115</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3264</v>
+        <v>0.223</v>
       </c>
       <c r="G98" t="n">
-        <v>9183.333333333334</v>
+        <v>9027.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4116,22 +4200,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9265</v>
+        <v>9120</v>
       </c>
       <c r="C99" t="n">
-        <v>9250</v>
+        <v>9115</v>
       </c>
       <c r="D99" t="n">
-        <v>9265</v>
+        <v>9120</v>
       </c>
       <c r="E99" t="n">
-        <v>9250</v>
+        <v>9115</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5468</v>
+        <v>0.3264</v>
       </c>
       <c r="G99" t="n">
-        <v>9205</v>
+        <v>9032.083333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4151,22 +4235,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9125</v>
+        <v>9265</v>
       </c>
       <c r="C100" t="n">
-        <v>9125</v>
+        <v>9250</v>
       </c>
       <c r="D100" t="n">
-        <v>9125</v>
+        <v>9265</v>
       </c>
       <c r="E100" t="n">
-        <v>9125</v>
+        <v>9250</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>0.5468</v>
       </c>
       <c r="G100" t="n">
-        <v>9163.333333333334</v>
+        <v>9038.916666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4198,10 +4282,10 @@
         <v>9125</v>
       </c>
       <c r="F101" t="n">
-        <v>10.7</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>9166.666666666666</v>
+        <v>9043.916666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4224,19 +4308,19 @@
         <v>9125</v>
       </c>
       <c r="C102" t="n">
-        <v>9265</v>
+        <v>9125</v>
       </c>
       <c r="D102" t="n">
-        <v>9265</v>
+        <v>9125</v>
       </c>
       <c r="E102" t="n">
         <v>9125</v>
       </c>
       <c r="F102" t="n">
-        <v>56.1189</v>
+        <v>10.7</v>
       </c>
       <c r="G102" t="n">
-        <v>9171.666666666666</v>
+        <v>9049.166666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4251,6 +4335,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>9125</v>
+      </c>
+      <c r="C103" t="n">
+        <v>9265</v>
+      </c>
+      <c r="D103" t="n">
+        <v>9265</v>
+      </c>
+      <c r="E103" t="n">
+        <v>9125</v>
+      </c>
+      <c r="F103" t="n">
+        <v>56.1189</v>
+      </c>
+      <c r="G103" t="n">
+        <v>9055.583333333334</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-27 BackTest BTG.xlsx
+++ b/BackTest/2019-10-27 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>42.31</v>
       </c>
       <c r="G2" t="n">
+        <v>8882</v>
+      </c>
+      <c r="H2" t="n">
         <v>8919.25</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>51.0669</v>
       </c>
       <c r="G3" t="n">
+        <v>8876.666666666666</v>
+      </c>
+      <c r="H3" t="n">
         <v>8917.333333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>7.27</v>
       </c>
       <c r="G4" t="n">
+        <v>8870.666666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>8916.916666666666</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>129.3407</v>
       </c>
       <c r="G5" t="n">
+        <v>8866</v>
+      </c>
+      <c r="H5" t="n">
         <v>8916.666666666666</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>2</v>
       </c>
       <c r="G6" t="n">
+        <v>8861.666666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>8916.166666666666</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>100</v>
       </c>
       <c r="G7" t="n">
+        <v>8862</v>
+      </c>
+      <c r="H7" t="n">
         <v>8915.583333333334</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>2</v>
       </c>
       <c r="G8" t="n">
+        <v>8861.333333333334</v>
+      </c>
+      <c r="H8" t="n">
         <v>8913.833333333334</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>8.075200000000001</v>
       </c>
       <c r="G9" t="n">
+        <v>8860.666666666666</v>
+      </c>
+      <c r="H9" t="n">
         <v>8911.916666666666</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>38.0653</v>
       </c>
       <c r="G10" t="n">
+        <v>8857</v>
+      </c>
+      <c r="H10" t="n">
         <v>8910.25</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>0.1</v>
       </c>
       <c r="G11" t="n">
+        <v>8853.666666666666</v>
+      </c>
+      <c r="H11" t="n">
         <v>8908.5</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>8.697900000000001</v>
       </c>
       <c r="G12" t="n">
+        <v>8850.333333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>8906.666666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>0.2</v>
       </c>
       <c r="G13" t="n">
+        <v>8849.333333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>8904.916666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>8</v>
       </c>
       <c r="G14" t="n">
+        <v>8847</v>
+      </c>
+      <c r="H14" t="n">
         <v>8903.416666666666</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>78.062</v>
       </c>
       <c r="G15" t="n">
+        <v>8845.666666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>8901.833333333334</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>67.91240000000001</v>
       </c>
       <c r="G16" t="n">
+        <v>8846</v>
+      </c>
+      <c r="H16" t="n">
         <v>8900.083333333334</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>43.1677</v>
       </c>
       <c r="G17" t="n">
+        <v>8845.333333333334</v>
+      </c>
+      <c r="H17" t="n">
         <v>8898.5</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>10.1002</v>
       </c>
       <c r="G18" t="n">
+        <v>8844.666666666666</v>
+      </c>
+      <c r="H18" t="n">
         <v>8896.916666666666</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,22 +1099,21 @@
         <v>49.7667</v>
       </c>
       <c r="G19" t="n">
+        <v>8844</v>
+      </c>
+      <c r="H19" t="n">
         <v>8895.25</v>
       </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>8830</v>
-      </c>
-      <c r="K19" t="n">
-        <v>8830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1082,26 +1137,25 @@
         <v>26.8898</v>
       </c>
       <c r="G20" t="n">
+        <v>8842.666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>8894.083333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>8830</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>8830</v>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1125,24 +1179,27 @@
         <v>175.6023</v>
       </c>
       <c r="G21" t="n">
+        <v>8842.333333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>8892.916666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1166,26 +1223,27 @@
         <v>12.1085</v>
       </c>
       <c r="G22" t="n">
+        <v>8839.333333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>8891.583333333334</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>8830</v>
-      </c>
-      <c r="K22" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1209,24 +1267,29 @@
         <v>11.0567</v>
       </c>
       <c r="G23" t="n">
+        <v>8838</v>
+      </c>
+      <c r="H23" t="n">
         <v>8890.333333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+        <v>8850</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1250,26 +1313,29 @@
         <v>101.1796</v>
       </c>
       <c r="G24" t="n">
+        <v>8836.666666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>8889.083333333334</v>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>8825</v>
       </c>
-      <c r="K24" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1293,24 +1359,29 @@
         <v>110.3645</v>
       </c>
       <c r="G25" t="n">
+        <v>8837.333333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>8887.916666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+        <v>8825</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1334,24 +1405,29 @@
         <v>19.1086</v>
       </c>
       <c r="G26" t="n">
+        <v>8838</v>
+      </c>
+      <c r="H26" t="n">
         <v>8886.416666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+        <v>8860</v>
+      </c>
+      <c r="L26" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1375,24 +1451,29 @@
         <v>7</v>
       </c>
       <c r="G27" t="n">
+        <v>8838</v>
+      </c>
+      <c r="H27" t="n">
         <v>8884.75</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+        <v>8860</v>
+      </c>
+      <c r="L27" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1416,24 +1497,29 @@
         <v>2</v>
       </c>
       <c r="G28" t="n">
+        <v>8837.666666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>8882.916666666666</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+        <v>8850</v>
+      </c>
+      <c r="L28" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1457,24 +1543,29 @@
         <v>10</v>
       </c>
       <c r="G29" t="n">
+        <v>8838.666666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>8881.083333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+        <v>8850</v>
+      </c>
+      <c r="L29" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,24 +1589,29 @@
         <v>27</v>
       </c>
       <c r="G30" t="n">
+        <v>8840</v>
+      </c>
+      <c r="H30" t="n">
         <v>8879.25</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+        <v>8850</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1539,24 +1635,29 @@
         <v>16</v>
       </c>
       <c r="G31" t="n">
+        <v>8841.333333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>8878.166666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+        <v>8850</v>
+      </c>
+      <c r="L31" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,24 +1681,29 @@
         <v>20</v>
       </c>
       <c r="G32" t="n">
+        <v>8842.666666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>8875.916666666666</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+        <v>8850</v>
+      </c>
+      <c r="L32" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1621,24 +1727,29 @@
         <v>2</v>
       </c>
       <c r="G33" t="n">
+        <v>8844</v>
+      </c>
+      <c r="H33" t="n">
         <v>8874.25</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+        <v>8850</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1662,24 +1773,27 @@
         <v>9.975</v>
       </c>
       <c r="G34" t="n">
+        <v>8844.333333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>8872.416666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1703,24 +1817,29 @@
         <v>5.0199</v>
       </c>
       <c r="G35" t="n">
+        <v>8845.666666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>8870.833333333334</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+        <v>8835</v>
+      </c>
+      <c r="L35" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1744,24 +1863,29 @@
         <v>13</v>
       </c>
       <c r="G36" t="n">
+        <v>8846.666666666666</v>
+      </c>
+      <c r="H36" t="n">
         <v>8869.083333333334</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+        <v>8850</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1785,24 +1909,29 @@
         <v>11</v>
       </c>
       <c r="G37" t="n">
+        <v>8846</v>
+      </c>
+      <c r="H37" t="n">
         <v>8867.166666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+        <v>8845</v>
+      </c>
+      <c r="L37" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1826,24 +1955,29 @@
         <v>8</v>
       </c>
       <c r="G38" t="n">
+        <v>8847</v>
+      </c>
+      <c r="H38" t="n">
         <v>8865.25</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+        <v>8840</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1867,26 +2001,29 @@
         <v>4</v>
       </c>
       <c r="G39" t="n">
+        <v>8848</v>
+      </c>
+      <c r="H39" t="n">
         <v>8863.666666666666</v>
       </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>8840</v>
       </c>
-      <c r="K39" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1910,26 +2047,29 @@
         <v>81</v>
       </c>
       <c r="G40" t="n">
+        <v>8846.666666666666</v>
+      </c>
+      <c r="H40" t="n">
         <v>8862.416666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>8840</v>
       </c>
-      <c r="K40" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,26 +2093,29 @@
         <v>40</v>
       </c>
       <c r="G41" t="n">
+        <v>8844.333333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>8860.833333333334</v>
       </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>8840</v>
       </c>
-      <c r="K41" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,26 +2139,29 @@
         <v>68.3652</v>
       </c>
       <c r="G42" t="n">
+        <v>8841.666666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>8859</v>
       </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>8825</v>
       </c>
-      <c r="K42" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2039,26 +2185,29 @@
         <v>90.2968</v>
       </c>
       <c r="G43" t="n">
+        <v>8843.666666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>8858.166666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>8810</v>
       </c>
-      <c r="K43" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2082,24 +2231,29 @@
         <v>56.418</v>
       </c>
       <c r="G44" t="n">
+        <v>8841.666666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>8856.416666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+        <v>8880</v>
+      </c>
+      <c r="L44" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2123,24 +2277,29 @@
         <v>15.9771</v>
       </c>
       <c r="G45" t="n">
+        <v>8840</v>
+      </c>
+      <c r="H45" t="n">
         <v>8855.166666666666</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+        <v>8820</v>
+      </c>
+      <c r="L45" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2164,24 +2323,29 @@
         <v>18</v>
       </c>
       <c r="G46" t="n">
+        <v>8839</v>
+      </c>
+      <c r="H46" t="n">
         <v>8853.583333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+        <v>8825</v>
+      </c>
+      <c r="L46" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2205,26 +2369,29 @@
         <v>0.5</v>
       </c>
       <c r="G47" t="n">
+        <v>8837.666666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>8851.916666666666</v>
       </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>8835</v>
       </c>
-      <c r="K47" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2248,26 +2415,29 @@
         <v>69.3343</v>
       </c>
       <c r="G48" t="n">
+        <v>8839.666666666666</v>
+      </c>
+      <c r="H48" t="n">
         <v>8851.25</v>
       </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>8830</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>8830</v>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2291,24 +2461,29 @@
         <v>11.1551</v>
       </c>
       <c r="G49" t="n">
+        <v>8843.333333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>8850.583333333334</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+        <v>8880</v>
+      </c>
+      <c r="L49" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2332,24 +2507,29 @@
         <v>0.242</v>
       </c>
       <c r="G50" t="n">
+        <v>8842.333333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>8849.166666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+        <v>8890</v>
+      </c>
+      <c r="L50" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,24 +2553,29 @@
         <v>45.6425</v>
       </c>
       <c r="G51" t="n">
+        <v>8842</v>
+      </c>
+      <c r="H51" t="n">
         <v>8848.166666666666</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+        <v>8835</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,24 +2599,29 @@
         <v>4.9888</v>
       </c>
       <c r="G52" t="n">
+        <v>8842</v>
+      </c>
+      <c r="H52" t="n">
         <v>8847.333333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+        <v>8840</v>
+      </c>
+      <c r="L52" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2455,24 +2645,29 @@
         <v>168.0659</v>
       </c>
       <c r="G53" t="n">
+        <v>8841.666666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>8847</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+        <v>8840</v>
+      </c>
+      <c r="L53" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2496,24 +2691,29 @@
         <v>10</v>
       </c>
       <c r="G54" t="n">
+        <v>8844.333333333334</v>
+      </c>
+      <c r="H54" t="n">
         <v>8847.416666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+        <v>8835</v>
+      </c>
+      <c r="L54" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2537,24 +2737,29 @@
         <v>18</v>
       </c>
       <c r="G55" t="n">
+        <v>8847.333333333334</v>
+      </c>
+      <c r="H55" t="n">
         <v>8847.083333333334</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+        <v>8880</v>
+      </c>
+      <c r="L55" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2578,24 +2783,29 @@
         <v>16</v>
       </c>
       <c r="G56" t="n">
+        <v>8851.666666666666</v>
+      </c>
+      <c r="H56" t="n">
         <v>8846.916666666666</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+        <v>8885</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2619,24 +2829,29 @@
         <v>26</v>
       </c>
       <c r="G57" t="n">
+        <v>8857</v>
+      </c>
+      <c r="H57" t="n">
         <v>8846.75</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+        <v>8890</v>
+      </c>
+      <c r="L57" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2660,24 +2875,29 @@
         <v>178.3834</v>
       </c>
       <c r="G58" t="n">
+        <v>8861.333333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>8848</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+        <v>8890</v>
+      </c>
+      <c r="L58" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2701,24 +2921,29 @@
         <v>459.0254232</v>
       </c>
       <c r="G59" t="n">
+        <v>8868.666666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>8849</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+        <v>8945</v>
+      </c>
+      <c r="L59" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2742,24 +2967,29 @@
         <v>5.5493</v>
       </c>
       <c r="G60" t="n">
+        <v>8881</v>
+      </c>
+      <c r="H60" t="n">
         <v>8851.666666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+        <v>8930</v>
+      </c>
+      <c r="L60" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2783,24 +3013,27 @@
         <v>5.5433</v>
       </c>
       <c r="G61" t="n">
+        <v>8893.333333333334</v>
+      </c>
+      <c r="H61" t="n">
         <v>8854.916666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2824,24 +3057,27 @@
         <v>578.9956</v>
       </c>
       <c r="G62" t="n">
+        <v>8907</v>
+      </c>
+      <c r="H62" t="n">
         <v>8858.166666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2865,24 +3101,27 @@
         <v>123</v>
       </c>
       <c r="G63" t="n">
+        <v>8917.333333333334</v>
+      </c>
+      <c r="H63" t="n">
         <v>8861.416666666666</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2906,24 +3145,27 @@
         <v>6</v>
       </c>
       <c r="G64" t="n">
+        <v>8927</v>
+      </c>
+      <c r="H64" t="n">
         <v>8864.666666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,24 +3189,27 @@
         <v>3.8463</v>
       </c>
       <c r="G65" t="n">
+        <v>8935</v>
+      </c>
+      <c r="H65" t="n">
         <v>8866.416666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2988,24 +3233,27 @@
         <v>116</v>
       </c>
       <c r="G66" t="n">
+        <v>8942.333333333334</v>
+      </c>
+      <c r="H66" t="n">
         <v>8868.333333333334</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3029,24 +3277,27 @@
         <v>28.7212</v>
       </c>
       <c r="G67" t="n">
+        <v>8949.666666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>8869.25</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3070,24 +3321,27 @@
         <v>71.88460000000001</v>
       </c>
       <c r="G68" t="n">
+        <v>8957.333333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>8871</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3111,24 +3365,27 @@
         <v>127.8804</v>
       </c>
       <c r="G69" t="n">
+        <v>8961.666666666666</v>
+      </c>
+      <c r="H69" t="n">
         <v>8872.666666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3152,24 +3409,27 @@
         <v>111.4862</v>
       </c>
       <c r="G70" t="n">
+        <v>8969.666666666666</v>
+      </c>
+      <c r="H70" t="n">
         <v>8875.25</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3193,24 +3453,27 @@
         <v>13.3527768</v>
       </c>
       <c r="G71" t="n">
+        <v>8980.333333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>8878.583333333334</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3234,24 +3497,27 @@
         <v>6</v>
       </c>
       <c r="G72" t="n">
+        <v>8991.333333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>8882</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3275,24 +3541,27 @@
         <v>182</v>
       </c>
       <c r="G73" t="n">
+        <v>9001.333333333334</v>
+      </c>
+      <c r="H73" t="n">
         <v>8886</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3316,24 +3585,27 @@
         <v>166.0515</v>
       </c>
       <c r="G74" t="n">
+        <v>9015.333333333334</v>
+      </c>
+      <c r="H74" t="n">
         <v>8891.083333333334</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3357,24 +3629,27 @@
         <v>50.9608</v>
       </c>
       <c r="G75" t="n">
+        <v>9026</v>
+      </c>
+      <c r="H75" t="n">
         <v>8896.75</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3398,24 +3673,27 @@
         <v>69</v>
       </c>
       <c r="G76" t="n">
+        <v>9036.333333333334</v>
+      </c>
+      <c r="H76" t="n">
         <v>8902.5</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,25 +3717,28 @@
         <v>462.4078</v>
       </c>
       <c r="G77" t="n">
+        <v>9041</v>
+      </c>
+      <c r="H77" t="n">
         <v>8907.083333333334</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1.02614382785957</v>
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3480,18 +3761,27 @@
         <v>243.5135</v>
       </c>
       <c r="G78" t="n">
+        <v>9045.333333333334</v>
+      </c>
+      <c r="H78" t="n">
         <v>8911.583333333334</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3515,18 +3805,27 @@
         <v>80.13200000000001</v>
       </c>
       <c r="G79" t="n">
+        <v>9055</v>
+      </c>
+      <c r="H79" t="n">
         <v>8917.416666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3550,18 +3849,27 @@
         <v>149</v>
       </c>
       <c r="G80" t="n">
+        <v>9072</v>
+      </c>
+      <c r="H80" t="n">
         <v>8923.75</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3585,18 +3893,27 @@
         <v>1.32</v>
       </c>
       <c r="G81" t="n">
+        <v>9095.333333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>8931.583333333334</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3620,18 +3937,27 @@
         <v>997.03142947</v>
       </c>
       <c r="G82" t="n">
+        <v>9131</v>
+      </c>
+      <c r="H82" t="n">
         <v>8942.166666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3655,18 +3981,27 @@
         <v>74.6206</v>
       </c>
       <c r="G83" t="n">
+        <v>9138.666666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>8946.166666666666</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3690,18 +4025,27 @@
         <v>0.233</v>
       </c>
       <c r="G84" t="n">
+        <v>9147.333333333334</v>
+      </c>
+      <c r="H84" t="n">
         <v>8950.333333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3725,18 +4069,27 @@
         <v>0.2231</v>
       </c>
       <c r="G85" t="n">
+        <v>9153</v>
+      </c>
+      <c r="H85" t="n">
         <v>8954.166666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,18 +4113,27 @@
         <v>0.1001</v>
       </c>
       <c r="G86" t="n">
+        <v>9177.333333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>8963.416666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3795,18 +4157,27 @@
         <v>9.2387</v>
       </c>
       <c r="G87" t="n">
+        <v>9194</v>
+      </c>
+      <c r="H87" t="n">
         <v>8971</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3830,18 +4201,27 @@
         <v>8.1</v>
       </c>
       <c r="G88" t="n">
+        <v>9197.333333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>8975.916666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,18 +4245,27 @@
         <v>10.9</v>
       </c>
       <c r="G89" t="n">
+        <v>9198</v>
+      </c>
+      <c r="H89" t="n">
         <v>8980.916666666666</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3900,18 +4289,27 @@
         <v>90</v>
       </c>
       <c r="G90" t="n">
+        <v>9196</v>
+      </c>
+      <c r="H90" t="n">
         <v>8985.75</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3935,18 +4333,27 @@
         <v>150.1275</v>
       </c>
       <c r="G91" t="n">
+        <v>9193.666666666666</v>
+      </c>
+      <c r="H91" t="n">
         <v>8990.583333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3970,18 +4377,27 @@
         <v>30</v>
       </c>
       <c r="G92" t="n">
+        <v>9196</v>
+      </c>
+      <c r="H92" t="n">
         <v>8995.416666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4005,18 +4421,27 @@
         <v>6.5361</v>
       </c>
       <c r="G93" t="n">
+        <v>9196</v>
+      </c>
+      <c r="H93" t="n">
         <v>8999.583333333334</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4040,18 +4465,27 @@
         <v>29.8353</v>
       </c>
       <c r="G94" t="n">
+        <v>9189.666666666666</v>
+      </c>
+      <c r="H94" t="n">
         <v>9003.75</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4075,18 +4509,27 @@
         <v>86.2436</v>
       </c>
       <c r="G95" t="n">
+        <v>9187.666666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>9009.25</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4110,18 +4553,27 @@
         <v>12.62386243</v>
       </c>
       <c r="G96" t="n">
+        <v>9180</v>
+      </c>
+      <c r="H96" t="n">
         <v>9014.916666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4145,18 +4597,27 @@
         <v>141.9291</v>
       </c>
       <c r="G97" t="n">
+        <v>9160</v>
+      </c>
+      <c r="H97" t="n">
         <v>9020.666666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4180,18 +4641,27 @@
         <v>0.223</v>
       </c>
       <c r="G98" t="n">
+        <v>9172.333333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>9027.5</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4215,18 +4685,27 @@
         <v>0.3264</v>
       </c>
       <c r="G99" t="n">
+        <v>9175</v>
+      </c>
+      <c r="H99" t="n">
         <v>9032.083333333334</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4250,18 +4729,27 @@
         <v>0.5468</v>
       </c>
       <c r="G100" t="n">
+        <v>9185.666666666666</v>
+      </c>
+      <c r="H100" t="n">
         <v>9038.916666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4285,19 +4773,28 @@
         <v>10</v>
       </c>
       <c r="G101" t="n">
+        <v>9166.333333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>9043.916666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
+      <c r="L101" t="n">
+        <v>8830</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>1.028408833522084</v>
       </c>
     </row>
     <row r="102">
@@ -4320,18 +4817,21 @@
         <v>10.7</v>
       </c>
       <c r="G102" t="n">
+        <v>9154.333333333334</v>
+      </c>
+      <c r="H102" t="n">
         <v>9049.166666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4355,18 +4855,401 @@
         <v>56.1189</v>
       </c>
       <c r="G103" t="n">
+        <v>9162.333333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>9055.583333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>9250</v>
+      </c>
+      <c r="C104" t="n">
+        <v>9250</v>
+      </c>
+      <c r="D104" t="n">
+        <v>9250</v>
+      </c>
+      <c r="E104" t="n">
+        <v>9250</v>
+      </c>
+      <c r="F104" t="n">
+        <v>23.1345</v>
+      </c>
+      <c r="G104" t="n">
+        <v>9169</v>
+      </c>
+      <c r="H104" t="n">
+        <v>9062.75</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>9245</v>
+      </c>
+      <c r="C105" t="n">
+        <v>9230</v>
+      </c>
+      <c r="D105" t="n">
+        <v>9245</v>
+      </c>
+      <c r="E105" t="n">
+        <v>9230</v>
+      </c>
+      <c r="F105" t="n">
+        <v>41</v>
+      </c>
+      <c r="G105" t="n">
+        <v>9175</v>
+      </c>
+      <c r="H105" t="n">
+        <v>9069.5</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>9230</v>
+      </c>
+      <c r="C106" t="n">
+        <v>9230</v>
+      </c>
+      <c r="D106" t="n">
+        <v>9230</v>
+      </c>
+      <c r="E106" t="n">
+        <v>9230</v>
+      </c>
+      <c r="F106" t="n">
+        <v>19.4976</v>
+      </c>
+      <c r="G106" t="n">
+        <v>9181</v>
+      </c>
+      <c r="H106" t="n">
+        <v>9076.083333333334</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>9320</v>
+      </c>
+      <c r="C107" t="n">
+        <v>9320</v>
+      </c>
+      <c r="D107" t="n">
+        <v>9320</v>
+      </c>
+      <c r="E107" t="n">
+        <v>9320</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.1009</v>
+      </c>
+      <c r="G107" t="n">
+        <v>9193</v>
+      </c>
+      <c r="H107" t="n">
+        <v>9084.25</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>9230</v>
+      </c>
+      <c r="C108" t="n">
+        <v>9390</v>
+      </c>
+      <c r="D108" t="n">
+        <v>9390</v>
+      </c>
+      <c r="E108" t="n">
+        <v>9230</v>
+      </c>
+      <c r="F108" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="G108" t="n">
+        <v>9212.333333333334</v>
+      </c>
+      <c r="H108" t="n">
+        <v>9092.75</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>9230</v>
+      </c>
+      <c r="C109" t="n">
+        <v>9230</v>
+      </c>
+      <c r="D109" t="n">
+        <v>9230</v>
+      </c>
+      <c r="E109" t="n">
+        <v>9230</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4.9875</v>
+      </c>
+      <c r="G109" t="n">
+        <v>9222</v>
+      </c>
+      <c r="H109" t="n">
+        <v>9098.416666666666</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>9210</v>
+      </c>
+      <c r="C110" t="n">
+        <v>9210</v>
+      </c>
+      <c r="D110" t="n">
+        <v>9210</v>
+      </c>
+      <c r="E110" t="n">
+        <v>9210</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.5778</v>
+      </c>
+      <c r="G110" t="n">
+        <v>9224</v>
+      </c>
+      <c r="H110" t="n">
+        <v>9104.666666666666</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>9375</v>
+      </c>
+      <c r="C111" t="n">
+        <v>9375</v>
+      </c>
+      <c r="D111" t="n">
+        <v>9375</v>
+      </c>
+      <c r="E111" t="n">
+        <v>9375</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="G111" t="n">
+        <v>9236.666666666666</v>
+      </c>
+      <c r="H111" t="n">
+        <v>9113.583333333334</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>9220</v>
+      </c>
+      <c r="C112" t="n">
+        <v>9240</v>
+      </c>
+      <c r="D112" t="n">
+        <v>9240</v>
+      </c>
+      <c r="E112" t="n">
+        <v>9220</v>
+      </c>
+      <c r="F112" t="n">
+        <v>4.8863</v>
+      </c>
+      <c r="G112" t="n">
+        <v>9240.333333333334</v>
+      </c>
+      <c r="H112" t="n">
+        <v>9120.25</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>9250</v>
+      </c>
+      <c r="C113" t="n">
+        <v>9250</v>
+      </c>
+      <c r="D113" t="n">
+        <v>9250</v>
+      </c>
+      <c r="E113" t="n">
+        <v>9250</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4.8777</v>
+      </c>
+      <c r="G113" t="n">
+        <v>9240.333333333334</v>
+      </c>
+      <c r="H113" t="n">
+        <v>9127.166666666666</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-27 BackTest BTG.xlsx
+++ b/BackTest/2019-10-27 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:M142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8845</v>
+        <v>8990</v>
       </c>
       <c r="C2" t="n">
-        <v>8840</v>
+        <v>8950</v>
       </c>
       <c r="D2" t="n">
-        <v>8845</v>
+        <v>8990</v>
       </c>
       <c r="E2" t="n">
-        <v>8840</v>
+        <v>8950</v>
       </c>
       <c r="F2" t="n">
-        <v>42.31</v>
+        <v>6.3786</v>
       </c>
       <c r="G2" t="n">
-        <v>8882</v>
+        <v>-1283.88870301</v>
       </c>
       <c r="H2" t="n">
-        <v>8919.25</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8845</v>
+        <v>8995</v>
       </c>
       <c r="C3" t="n">
-        <v>8840</v>
+        <v>8945</v>
       </c>
       <c r="D3" t="n">
-        <v>8845</v>
+        <v>8995</v>
       </c>
       <c r="E3" t="n">
-        <v>8805</v>
+        <v>8945</v>
       </c>
       <c r="F3" t="n">
-        <v>51.0669</v>
+        <v>84.151</v>
       </c>
       <c r="G3" t="n">
-        <v>8876.666666666666</v>
+        <v>-1368.03970301</v>
       </c>
       <c r="H3" t="n">
-        <v>8917.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8840</v>
+        <v>8945</v>
       </c>
       <c r="C4" t="n">
-        <v>8840</v>
+        <v>8945</v>
       </c>
       <c r="D4" t="n">
-        <v>8840</v>
+        <v>8945</v>
       </c>
       <c r="E4" t="n">
-        <v>8840</v>
+        <v>8945</v>
       </c>
       <c r="F4" t="n">
-        <v>7.27</v>
+        <v>18.763</v>
       </c>
       <c r="G4" t="n">
-        <v>8870.666666666666</v>
+        <v>-1368.03970301</v>
       </c>
       <c r="H4" t="n">
-        <v>8916.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8845</v>
+        <v>8950</v>
       </c>
       <c r="C5" t="n">
-        <v>8850</v>
+        <v>8950</v>
       </c>
       <c r="D5" t="n">
-        <v>8850</v>
+        <v>8950</v>
       </c>
       <c r="E5" t="n">
-        <v>8845</v>
+        <v>8950</v>
       </c>
       <c r="F5" t="n">
-        <v>129.3407</v>
+        <v>36.4389</v>
       </c>
       <c r="G5" t="n">
-        <v>8866</v>
+        <v>-1331.60080301</v>
       </c>
       <c r="H5" t="n">
-        <v>8916.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8835</v>
+        <v>8955</v>
       </c>
       <c r="C6" t="n">
-        <v>8835</v>
+        <v>8955</v>
       </c>
       <c r="D6" t="n">
-        <v>8835</v>
+        <v>8955</v>
       </c>
       <c r="E6" t="n">
-        <v>8835</v>
+        <v>8955</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G6" t="n">
-        <v>8861.666666666666</v>
+        <v>-1313.60080301</v>
       </c>
       <c r="H6" t="n">
-        <v>8916.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8870</v>
+        <v>8975</v>
       </c>
       <c r="C7" t="n">
-        <v>8895</v>
+        <v>8955</v>
       </c>
       <c r="D7" t="n">
-        <v>8895</v>
+        <v>8975</v>
       </c>
       <c r="E7" t="n">
-        <v>8870</v>
+        <v>8955</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>100.276</v>
       </c>
       <c r="G7" t="n">
-        <v>8862</v>
+        <v>-1313.60080301</v>
       </c>
       <c r="H7" t="n">
-        <v>8915.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8845</v>
+        <v>8955</v>
       </c>
       <c r="C8" t="n">
-        <v>8845</v>
+        <v>8935</v>
       </c>
       <c r="D8" t="n">
-        <v>8845</v>
+        <v>8955</v>
       </c>
       <c r="E8" t="n">
-        <v>8845</v>
+        <v>8935</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>38.6675</v>
       </c>
       <c r="G8" t="n">
-        <v>8861.333333333334</v>
+        <v>-1352.26830301</v>
       </c>
       <c r="H8" t="n">
-        <v>8913.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8845</v>
+        <v>8965</v>
       </c>
       <c r="C9" t="n">
-        <v>8845</v>
+        <v>8915</v>
       </c>
       <c r="D9" t="n">
-        <v>8845</v>
+        <v>8965</v>
       </c>
       <c r="E9" t="n">
-        <v>8845</v>
+        <v>8915</v>
       </c>
       <c r="F9" t="n">
-        <v>8.075200000000001</v>
+        <v>18.7689</v>
       </c>
       <c r="G9" t="n">
-        <v>8860.666666666666</v>
+        <v>-1371.03720301</v>
       </c>
       <c r="H9" t="n">
-        <v>8911.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8850</v>
+        <v>8920</v>
       </c>
       <c r="C10" t="n">
-        <v>8850</v>
+        <v>8920</v>
       </c>
       <c r="D10" t="n">
-        <v>8850</v>
+        <v>8920</v>
       </c>
       <c r="E10" t="n">
-        <v>8850</v>
+        <v>8920</v>
       </c>
       <c r="F10" t="n">
-        <v>38.0653</v>
+        <v>2.3959</v>
       </c>
       <c r="G10" t="n">
-        <v>8857</v>
+        <v>-1368.64130301</v>
       </c>
       <c r="H10" t="n">
-        <v>8910.25</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8850</v>
+        <v>8920</v>
       </c>
       <c r="C11" t="n">
-        <v>8850</v>
+        <v>8920</v>
       </c>
       <c r="D11" t="n">
-        <v>8850</v>
+        <v>8920</v>
       </c>
       <c r="E11" t="n">
-        <v>8850</v>
+        <v>8920</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>8853.666666666666</v>
+        <v>-1368.64130301</v>
       </c>
       <c r="H11" t="n">
-        <v>8908.5</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8850</v>
+        <v>8930</v>
       </c>
       <c r="C12" t="n">
-        <v>8850</v>
+        <v>8930</v>
       </c>
       <c r="D12" t="n">
-        <v>8850</v>
+        <v>8930</v>
       </c>
       <c r="E12" t="n">
-        <v>8850</v>
+        <v>8930</v>
       </c>
       <c r="F12" t="n">
-        <v>8.697900000000001</v>
+        <v>330.734</v>
       </c>
       <c r="G12" t="n">
-        <v>8850.333333333334</v>
+        <v>-1037.90730301</v>
       </c>
       <c r="H12" t="n">
-        <v>8906.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8855</v>
+        <v>8925</v>
       </c>
       <c r="C13" t="n">
-        <v>8855</v>
+        <v>8925</v>
       </c>
       <c r="D13" t="n">
-        <v>8855</v>
+        <v>8925</v>
       </c>
       <c r="E13" t="n">
-        <v>8855</v>
+        <v>8925</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2</v>
+        <v>17.4303</v>
       </c>
       <c r="G13" t="n">
-        <v>8849.333333333334</v>
+        <v>-1055.33760301</v>
       </c>
       <c r="H13" t="n">
-        <v>8904.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8850</v>
+        <v>8925</v>
       </c>
       <c r="C14" t="n">
-        <v>8835</v>
+        <v>8900</v>
       </c>
       <c r="D14" t="n">
-        <v>8850</v>
+        <v>8925</v>
       </c>
       <c r="E14" t="n">
-        <v>8835</v>
+        <v>8900</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>119.4206</v>
       </c>
       <c r="G14" t="n">
-        <v>8847</v>
+        <v>-1174.75820301</v>
       </c>
       <c r="H14" t="n">
-        <v>8903.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8840</v>
+        <v>8930</v>
       </c>
       <c r="C15" t="n">
-        <v>8830</v>
+        <v>8930</v>
       </c>
       <c r="D15" t="n">
-        <v>8840</v>
+        <v>8930</v>
       </c>
       <c r="E15" t="n">
-        <v>8830</v>
+        <v>8930</v>
       </c>
       <c r="F15" t="n">
-        <v>78.062</v>
+        <v>20</v>
       </c>
       <c r="G15" t="n">
-        <v>8845.666666666666</v>
+        <v>-1154.75820301</v>
       </c>
       <c r="H15" t="n">
-        <v>8901.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8835</v>
+        <v>8920</v>
       </c>
       <c r="C16" t="n">
-        <v>8830</v>
+        <v>8930</v>
       </c>
       <c r="D16" t="n">
-        <v>8835</v>
+        <v>8930</v>
       </c>
       <c r="E16" t="n">
-        <v>8830</v>
+        <v>8920</v>
       </c>
       <c r="F16" t="n">
-        <v>67.91240000000001</v>
+        <v>114.9563</v>
       </c>
       <c r="G16" t="n">
-        <v>8846</v>
+        <v>-1154.75820301</v>
       </c>
       <c r="H16" t="n">
-        <v>8900.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8830</v>
+        <v>8920</v>
       </c>
       <c r="C17" t="n">
-        <v>8830</v>
+        <v>8920</v>
       </c>
       <c r="D17" t="n">
-        <v>8830</v>
+        <v>8920</v>
       </c>
       <c r="E17" t="n">
-        <v>8830</v>
+        <v>8920</v>
       </c>
       <c r="F17" t="n">
-        <v>43.1677</v>
+        <v>22.8604</v>
       </c>
       <c r="G17" t="n">
-        <v>8845.333333333334</v>
+        <v>-1177.61860301</v>
       </c>
       <c r="H17" t="n">
-        <v>8898.5</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8830</v>
+        <v>8930</v>
       </c>
       <c r="C18" t="n">
-        <v>8830</v>
+        <v>8930</v>
       </c>
       <c r="D18" t="n">
-        <v>8830</v>
+        <v>8930</v>
       </c>
       <c r="E18" t="n">
-        <v>8830</v>
+        <v>8930</v>
       </c>
       <c r="F18" t="n">
-        <v>10.1002</v>
+        <v>0.1</v>
       </c>
       <c r="G18" t="n">
-        <v>8844.666666666666</v>
+        <v>-1177.51860301</v>
       </c>
       <c r="H18" t="n">
-        <v>8896.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8830</v>
+        <v>8920</v>
       </c>
       <c r="C19" t="n">
-        <v>8830</v>
+        <v>8920</v>
       </c>
       <c r="D19" t="n">
-        <v>8830</v>
+        <v>8920</v>
       </c>
       <c r="E19" t="n">
-        <v>8830</v>
+        <v>8920</v>
       </c>
       <c r="F19" t="n">
-        <v>49.7667</v>
+        <v>38.6479</v>
       </c>
       <c r="G19" t="n">
-        <v>8844</v>
+        <v>-1216.16650301</v>
       </c>
       <c r="H19" t="n">
-        <v>8895.25</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,40 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8830</v>
+        <v>8900</v>
       </c>
       <c r="C20" t="n">
-        <v>8830</v>
+        <v>8900</v>
       </c>
       <c r="D20" t="n">
-        <v>8830</v>
+        <v>8900</v>
       </c>
       <c r="E20" t="n">
-        <v>8830</v>
+        <v>8900</v>
       </c>
       <c r="F20" t="n">
-        <v>26.8898</v>
+        <v>0.2135</v>
       </c>
       <c r="G20" t="n">
-        <v>8842.666666666666</v>
+        <v>-1216.38000301</v>
       </c>
       <c r="H20" t="n">
-        <v>8894.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>8830</v>
-      </c>
-      <c r="L20" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1164,42 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8830</v>
+        <v>8890</v>
       </c>
       <c r="C21" t="n">
-        <v>8830</v>
+        <v>8890</v>
       </c>
       <c r="D21" t="n">
-        <v>8860</v>
+        <v>8890</v>
       </c>
       <c r="E21" t="n">
-        <v>8830</v>
+        <v>8890</v>
       </c>
       <c r="F21" t="n">
-        <v>175.6023</v>
+        <v>1.1242</v>
       </c>
       <c r="G21" t="n">
-        <v>8842.333333333334</v>
+        <v>-1217.50420301</v>
       </c>
       <c r="H21" t="n">
-        <v>8892.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1208,42 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>8830</v>
+        <v>8855</v>
       </c>
       <c r="C22" t="n">
-        <v>8850</v>
+        <v>8855</v>
       </c>
       <c r="D22" t="n">
-        <v>8850</v>
+        <v>8855</v>
       </c>
       <c r="E22" t="n">
-        <v>8830</v>
+        <v>8855</v>
       </c>
       <c r="F22" t="n">
-        <v>12.1085</v>
+        <v>16.3551</v>
       </c>
       <c r="G22" t="n">
-        <v>8839.333333333334</v>
+        <v>-1233.85930301</v>
       </c>
       <c r="H22" t="n">
-        <v>8891.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1252,44 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>8820</v>
+        <v>8855</v>
       </c>
       <c r="C23" t="n">
-        <v>8825</v>
+        <v>8855</v>
       </c>
       <c r="D23" t="n">
-        <v>8860</v>
+        <v>8855</v>
       </c>
       <c r="E23" t="n">
-        <v>8820</v>
+        <v>8855</v>
       </c>
       <c r="F23" t="n">
-        <v>11.0567</v>
+        <v>59.8391</v>
       </c>
       <c r="G23" t="n">
-        <v>8838</v>
+        <v>-1233.85930301</v>
       </c>
       <c r="H23" t="n">
-        <v>8890.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>8850</v>
-      </c>
-      <c r="L23" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1298,44 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>8855</v>
+        <v>8905</v>
       </c>
       <c r="C24" t="n">
-        <v>8825</v>
+        <v>8905</v>
       </c>
       <c r="D24" t="n">
-        <v>8855</v>
+        <v>8905</v>
       </c>
       <c r="E24" t="n">
-        <v>8825</v>
+        <v>8905</v>
       </c>
       <c r="F24" t="n">
-        <v>101.1796</v>
+        <v>1.0787</v>
       </c>
       <c r="G24" t="n">
-        <v>8836.666666666666</v>
+        <v>-1232.78060301</v>
       </c>
       <c r="H24" t="n">
-        <v>8889.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>8825</v>
-      </c>
-      <c r="L24" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1344,44 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>8855</v>
+        <v>8900</v>
       </c>
       <c r="C25" t="n">
-        <v>8860</v>
+        <v>8900</v>
       </c>
       <c r="D25" t="n">
-        <v>8860</v>
+        <v>8900</v>
       </c>
       <c r="E25" t="n">
-        <v>8855</v>
+        <v>8900</v>
       </c>
       <c r="F25" t="n">
-        <v>110.3645</v>
+        <v>0.6</v>
       </c>
       <c r="G25" t="n">
-        <v>8837.333333333334</v>
+        <v>-1233.38060301</v>
       </c>
       <c r="H25" t="n">
-        <v>8887.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>8825</v>
-      </c>
-      <c r="L25" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1390,44 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>8850</v>
+        <v>8900</v>
       </c>
       <c r="C26" t="n">
-        <v>8860</v>
+        <v>8900</v>
       </c>
       <c r="D26" t="n">
-        <v>8860</v>
+        <v>8900</v>
       </c>
       <c r="E26" t="n">
-        <v>8850</v>
+        <v>8900</v>
       </c>
       <c r="F26" t="n">
-        <v>19.1086</v>
+        <v>0.1123</v>
       </c>
       <c r="G26" t="n">
-        <v>8838</v>
+        <v>-1233.38060301</v>
       </c>
       <c r="H26" t="n">
-        <v>8886.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>8860</v>
-      </c>
-      <c r="L26" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1436,44 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>8850</v>
+        <v>8855</v>
       </c>
       <c r="C27" t="n">
-        <v>8850</v>
+        <v>8870</v>
       </c>
       <c r="D27" t="n">
-        <v>8850</v>
+        <v>8870</v>
       </c>
       <c r="E27" t="n">
         <v>8850</v>
       </c>
       <c r="F27" t="n">
-        <v>7</v>
+        <v>109.2789</v>
       </c>
       <c r="G27" t="n">
-        <v>8838</v>
+        <v>-1342.65950301</v>
       </c>
       <c r="H27" t="n">
-        <v>8884.75</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>8860</v>
-      </c>
-      <c r="L27" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,44 +1343,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>8850</v>
+        <v>8865</v>
       </c>
       <c r="C28" t="n">
-        <v>8850</v>
+        <v>8870</v>
       </c>
       <c r="D28" t="n">
-        <v>8850</v>
+        <v>8870</v>
       </c>
       <c r="E28" t="n">
-        <v>8850</v>
+        <v>8865</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>88.85890000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>8837.666666666666</v>
+        <v>-1342.65950301</v>
       </c>
       <c r="H28" t="n">
-        <v>8882.916666666666</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>8850</v>
-      </c>
-      <c r="L28" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+        <v>8870</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,32 +1396,25 @@
         <v>8850</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>15.2679</v>
       </c>
       <c r="G29" t="n">
-        <v>8838.666666666666</v>
+        <v>-1357.92740301</v>
       </c>
       <c r="H29" t="n">
-        <v>8881.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>8850</v>
-      </c>
-      <c r="L29" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1574,44 +1423,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>8850</v>
+        <v>8840</v>
       </c>
       <c r="C30" t="n">
-        <v>8850</v>
+        <v>8825</v>
       </c>
       <c r="D30" t="n">
-        <v>8850</v>
+        <v>8840</v>
       </c>
       <c r="E30" t="n">
-        <v>8850</v>
+        <v>8825</v>
       </c>
       <c r="F30" t="n">
-        <v>27</v>
+        <v>52.8207</v>
       </c>
       <c r="G30" t="n">
-        <v>8840</v>
+        <v>-1410.74810301</v>
       </c>
       <c r="H30" t="n">
-        <v>8879.25</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>8850</v>
-      </c>
-      <c r="L30" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+        <v>8850</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1620,44 +1464,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>8850</v>
+        <v>8845</v>
       </c>
       <c r="C31" t="n">
-        <v>8850</v>
+        <v>8840</v>
       </c>
       <c r="D31" t="n">
-        <v>8850</v>
+        <v>8845</v>
       </c>
       <c r="E31" t="n">
-        <v>8850</v>
+        <v>8840</v>
       </c>
       <c r="F31" t="n">
-        <v>16</v>
+        <v>42.31</v>
       </c>
       <c r="G31" t="n">
-        <v>8841.333333333334</v>
+        <v>-1368.43810301</v>
       </c>
       <c r="H31" t="n">
-        <v>8878.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>8850</v>
-      </c>
-      <c r="L31" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1666,44 +1503,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>8850</v>
+        <v>8845</v>
       </c>
       <c r="C32" t="n">
-        <v>8850</v>
+        <v>8840</v>
       </c>
       <c r="D32" t="n">
-        <v>8850</v>
+        <v>8845</v>
       </c>
       <c r="E32" t="n">
-        <v>8850</v>
+        <v>8805</v>
       </c>
       <c r="F32" t="n">
-        <v>20</v>
+        <v>51.0669</v>
       </c>
       <c r="G32" t="n">
-        <v>8842.666666666666</v>
+        <v>-1368.43810301</v>
       </c>
       <c r="H32" t="n">
-        <v>8875.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>8850</v>
-      </c>
-      <c r="L32" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1712,44 +1542,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>8850</v>
+        <v>8840</v>
       </c>
       <c r="C33" t="n">
-        <v>8850</v>
+        <v>8840</v>
       </c>
       <c r="D33" t="n">
-        <v>8850</v>
+        <v>8840</v>
       </c>
       <c r="E33" t="n">
-        <v>8850</v>
+        <v>8840</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>7.27</v>
       </c>
       <c r="G33" t="n">
-        <v>8844</v>
+        <v>-1368.43810301</v>
       </c>
       <c r="H33" t="n">
-        <v>8874.25</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>8850</v>
-      </c>
-      <c r="L33" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1758,42 +1581,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>8850</v>
+        <v>8845</v>
       </c>
       <c r="C34" t="n">
-        <v>8835</v>
+        <v>8850</v>
       </c>
       <c r="D34" t="n">
         <v>8850</v>
       </c>
       <c r="E34" t="n">
-        <v>8835</v>
+        <v>8845</v>
       </c>
       <c r="F34" t="n">
-        <v>9.975</v>
+        <v>129.3407</v>
       </c>
       <c r="G34" t="n">
-        <v>8844.333333333334</v>
+        <v>-1239.09740301</v>
       </c>
       <c r="H34" t="n">
-        <v>8872.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1802,44 +1620,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>8850</v>
+        <v>8835</v>
       </c>
       <c r="C35" t="n">
-        <v>8850</v>
+        <v>8835</v>
       </c>
       <c r="D35" t="n">
-        <v>8850</v>
+        <v>8835</v>
       </c>
       <c r="E35" t="n">
-        <v>8850</v>
+        <v>8835</v>
       </c>
       <c r="F35" t="n">
-        <v>5.0199</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>8845.666666666666</v>
+        <v>-1241.09740301</v>
       </c>
       <c r="H35" t="n">
-        <v>8870.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>8835</v>
-      </c>
-      <c r="L35" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,44 +1659,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>8845</v>
+        <v>8870</v>
       </c>
       <c r="C36" t="n">
-        <v>8845</v>
+        <v>8895</v>
       </c>
       <c r="D36" t="n">
-        <v>8845</v>
+        <v>8895</v>
       </c>
       <c r="E36" t="n">
-        <v>8845</v>
+        <v>8870</v>
       </c>
       <c r="F36" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>8846.666666666666</v>
+        <v>-1141.09740301</v>
       </c>
       <c r="H36" t="n">
-        <v>8869.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>8850</v>
-      </c>
-      <c r="L36" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1897,41 +1701,36 @@
         <v>8845</v>
       </c>
       <c r="C37" t="n">
-        <v>8840</v>
+        <v>8845</v>
       </c>
       <c r="D37" t="n">
         <v>8845</v>
       </c>
       <c r="E37" t="n">
-        <v>8840</v>
+        <v>8845</v>
       </c>
       <c r="F37" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>8846</v>
+        <v>-1143.09740301</v>
       </c>
       <c r="H37" t="n">
-        <v>8867.166666666666</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>8845</v>
-      </c>
-      <c r="L37" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+        <v>8895</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1940,44 +1739,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>8840</v>
+        <v>8845</v>
       </c>
       <c r="C38" t="n">
-        <v>8840</v>
+        <v>8845</v>
       </c>
       <c r="D38" t="n">
-        <v>8840</v>
+        <v>8845</v>
       </c>
       <c r="E38" t="n">
-        <v>8840</v>
+        <v>8845</v>
       </c>
       <c r="F38" t="n">
-        <v>8</v>
+        <v>8.075200000000001</v>
       </c>
       <c r="G38" t="n">
-        <v>8847</v>
+        <v>-1143.09740301</v>
       </c>
       <c r="H38" t="n">
-        <v>8865.25</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>8840</v>
-      </c>
-      <c r="L38" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1986,44 +1778,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>8840</v>
+        <v>8850</v>
       </c>
       <c r="C39" t="n">
-        <v>8840</v>
+        <v>8850</v>
       </c>
       <c r="D39" t="n">
-        <v>8840</v>
+        <v>8850</v>
       </c>
       <c r="E39" t="n">
-        <v>8840</v>
+        <v>8850</v>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>38.0653</v>
       </c>
       <c r="G39" t="n">
-        <v>8848</v>
+        <v>-1105.03210301</v>
       </c>
       <c r="H39" t="n">
-        <v>8863.666666666666</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>8840</v>
-      </c>
-      <c r="L39" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+        <v>8845</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2032,44 +1819,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>8840</v>
+        <v>8850</v>
       </c>
       <c r="C40" t="n">
-        <v>8840</v>
+        <v>8850</v>
       </c>
       <c r="D40" t="n">
-        <v>8840</v>
+        <v>8850</v>
       </c>
       <c r="E40" t="n">
-        <v>8840</v>
+        <v>8850</v>
       </c>
       <c r="F40" t="n">
-        <v>81</v>
+        <v>0.1</v>
       </c>
       <c r="G40" t="n">
-        <v>8846.666666666666</v>
+        <v>-1105.03210301</v>
       </c>
       <c r="H40" t="n">
-        <v>8862.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>8840</v>
-      </c>
-      <c r="L40" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2078,44 +1858,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>8825</v>
+        <v>8850</v>
       </c>
       <c r="C41" t="n">
-        <v>8825</v>
+        <v>8850</v>
       </c>
       <c r="D41" t="n">
-        <v>8825</v>
+        <v>8850</v>
       </c>
       <c r="E41" t="n">
-        <v>8825</v>
+        <v>8850</v>
       </c>
       <c r="F41" t="n">
-        <v>40</v>
+        <v>8.697900000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>8844.333333333334</v>
+        <v>-1105.03210301</v>
       </c>
       <c r="H41" t="n">
-        <v>8860.833333333334</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>8840</v>
-      </c>
-      <c r="L41" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2124,44 +1897,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>8825</v>
+        <v>8855</v>
       </c>
       <c r="C42" t="n">
-        <v>8810</v>
+        <v>8855</v>
       </c>
       <c r="D42" t="n">
-        <v>8825</v>
+        <v>8855</v>
       </c>
       <c r="E42" t="n">
-        <v>8810</v>
+        <v>8855</v>
       </c>
       <c r="F42" t="n">
-        <v>68.3652</v>
+        <v>0.2</v>
       </c>
       <c r="G42" t="n">
-        <v>8841.666666666666</v>
+        <v>-1104.83210301</v>
       </c>
       <c r="H42" t="n">
-        <v>8859</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>8825</v>
-      </c>
-      <c r="L42" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2170,44 +1936,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>8825</v>
+        <v>8850</v>
       </c>
       <c r="C43" t="n">
-        <v>8880</v>
+        <v>8835</v>
       </c>
       <c r="D43" t="n">
-        <v>8880</v>
+        <v>8850</v>
       </c>
       <c r="E43" t="n">
-        <v>8825</v>
+        <v>8835</v>
       </c>
       <c r="F43" t="n">
-        <v>90.2968</v>
+        <v>8</v>
       </c>
       <c r="G43" t="n">
-        <v>8843.666666666666</v>
+        <v>-1112.83210301</v>
       </c>
       <c r="H43" t="n">
-        <v>8858.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>8810</v>
-      </c>
-      <c r="L43" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2216,44 +1975,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>8825</v>
+        <v>8840</v>
       </c>
       <c r="C44" t="n">
-        <v>8820</v>
+        <v>8830</v>
       </c>
       <c r="D44" t="n">
+        <v>8840</v>
+      </c>
+      <c r="E44" t="n">
         <v>8830</v>
       </c>
-      <c r="E44" t="n">
-        <v>8820</v>
-      </c>
       <c r="F44" t="n">
-        <v>56.418</v>
+        <v>78.062</v>
       </c>
       <c r="G44" t="n">
-        <v>8841.666666666666</v>
+        <v>-1190.89410301</v>
       </c>
       <c r="H44" t="n">
-        <v>8856.416666666666</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>8880</v>
-      </c>
-      <c r="L44" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+        <v>8835</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,44 +2016,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>8825</v>
+        <v>8835</v>
       </c>
       <c r="C45" t="n">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="D45" t="n">
-        <v>8825</v>
+        <v>8835</v>
       </c>
       <c r="E45" t="n">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="F45" t="n">
-        <v>15.9771</v>
+        <v>67.91240000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>8840</v>
+        <v>-1190.89410301</v>
       </c>
       <c r="H45" t="n">
-        <v>8855.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>8820</v>
-      </c>
-      <c r="L45" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2308,44 +2055,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>8835</v>
+        <v>8830</v>
       </c>
       <c r="C46" t="n">
-        <v>8835</v>
+        <v>8830</v>
       </c>
       <c r="D46" t="n">
-        <v>8835</v>
+        <v>8830</v>
       </c>
       <c r="E46" t="n">
-        <v>8835</v>
+        <v>8830</v>
       </c>
       <c r="F46" t="n">
-        <v>18</v>
+        <v>43.1677</v>
       </c>
       <c r="G46" t="n">
-        <v>8839</v>
+        <v>-1190.89410301</v>
       </c>
       <c r="H46" t="n">
-        <v>8853.583333333334</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>8825</v>
-      </c>
-      <c r="L46" t="n">
         <v>8830</v>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2366,32 +2108,27 @@
         <v>8830</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5</v>
+        <v>10.1002</v>
       </c>
       <c r="G47" t="n">
-        <v>8837.666666666666</v>
+        <v>-1190.89410301</v>
       </c>
       <c r="H47" t="n">
-        <v>8851.916666666666</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>8835</v>
-      </c>
-      <c r="L47" t="n">
         <v>8830</v>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2400,44 +2137,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>8880</v>
+        <v>8830</v>
       </c>
       <c r="C48" t="n">
-        <v>8880</v>
+        <v>8830</v>
       </c>
       <c r="D48" t="n">
-        <v>8880</v>
+        <v>8830</v>
       </c>
       <c r="E48" t="n">
-        <v>8880</v>
+        <v>8830</v>
       </c>
       <c r="F48" t="n">
-        <v>69.3343</v>
+        <v>49.7667</v>
       </c>
       <c r="G48" t="n">
-        <v>8839.666666666666</v>
+        <v>-1190.89410301</v>
       </c>
       <c r="H48" t="n">
-        <v>8851.25</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
         <v>8830</v>
       </c>
-      <c r="L48" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2446,44 +2178,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>8890</v>
+        <v>8830</v>
       </c>
       <c r="C49" t="n">
-        <v>8890</v>
+        <v>8830</v>
       </c>
       <c r="D49" t="n">
-        <v>8890</v>
+        <v>8830</v>
       </c>
       <c r="E49" t="n">
-        <v>8890</v>
+        <v>8830</v>
       </c>
       <c r="F49" t="n">
-        <v>11.1551</v>
+        <v>26.8898</v>
       </c>
       <c r="G49" t="n">
-        <v>8843.333333333334</v>
+        <v>-1190.89410301</v>
       </c>
       <c r="H49" t="n">
-        <v>8850.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>8880</v>
-      </c>
-      <c r="L49" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2492,44 +2217,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>8835</v>
+        <v>8830</v>
       </c>
       <c r="C50" t="n">
-        <v>8835</v>
+        <v>8830</v>
       </c>
       <c r="D50" t="n">
-        <v>8835</v>
+        <v>8860</v>
       </c>
       <c r="E50" t="n">
-        <v>8835</v>
+        <v>8830</v>
       </c>
       <c r="F50" t="n">
-        <v>0.242</v>
+        <v>175.6023</v>
       </c>
       <c r="G50" t="n">
-        <v>8842.333333333334</v>
+        <v>-1190.89410301</v>
       </c>
       <c r="H50" t="n">
-        <v>8849.166666666666</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>8890</v>
-      </c>
-      <c r="L50" t="n">
         <v>8830</v>
       </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2538,44 +2258,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>8840</v>
+        <v>8830</v>
       </c>
       <c r="C51" t="n">
-        <v>8840</v>
+        <v>8850</v>
       </c>
       <c r="D51" t="n">
-        <v>8840</v>
+        <v>8850</v>
       </c>
       <c r="E51" t="n">
-        <v>8840</v>
+        <v>8830</v>
       </c>
       <c r="F51" t="n">
-        <v>45.6425</v>
+        <v>12.1085</v>
       </c>
       <c r="G51" t="n">
-        <v>8842</v>
+        <v>-1178.78560301</v>
       </c>
       <c r="H51" t="n">
-        <v>8848.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>8835</v>
-      </c>
-      <c r="L51" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2584,44 +2297,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>8890</v>
+        <v>8820</v>
       </c>
       <c r="C52" t="n">
-        <v>8840</v>
+        <v>8825</v>
       </c>
       <c r="D52" t="n">
-        <v>8890</v>
+        <v>8860</v>
       </c>
       <c r="E52" t="n">
-        <v>8840</v>
+        <v>8820</v>
       </c>
       <c r="F52" t="n">
-        <v>4.9888</v>
+        <v>11.0567</v>
       </c>
       <c r="G52" t="n">
-        <v>8842</v>
+        <v>-1189.84230301</v>
       </c>
       <c r="H52" t="n">
-        <v>8847.333333333334</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>8840</v>
-      </c>
-      <c r="L52" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2630,44 +2336,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>8890</v>
+        <v>8855</v>
       </c>
       <c r="C53" t="n">
-        <v>8835</v>
+        <v>8825</v>
       </c>
       <c r="D53" t="n">
-        <v>8890</v>
+        <v>8855</v>
       </c>
       <c r="E53" t="n">
-        <v>8835</v>
+        <v>8825</v>
       </c>
       <c r="F53" t="n">
-        <v>168.0659</v>
+        <v>101.1796</v>
       </c>
       <c r="G53" t="n">
-        <v>8841.666666666666</v>
+        <v>-1189.84230301</v>
       </c>
       <c r="H53" t="n">
-        <v>8847</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>8840</v>
-      </c>
-      <c r="L53" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2676,44 +2375,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>8880</v>
+        <v>8855</v>
       </c>
       <c r="C54" t="n">
-        <v>8880</v>
+        <v>8860</v>
       </c>
       <c r="D54" t="n">
-        <v>8885</v>
+        <v>8860</v>
       </c>
       <c r="E54" t="n">
-        <v>8880</v>
+        <v>8855</v>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>110.3645</v>
       </c>
       <c r="G54" t="n">
-        <v>8844.333333333334</v>
+        <v>-1079.47780301</v>
       </c>
       <c r="H54" t="n">
-        <v>8847.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>8835</v>
-      </c>
-      <c r="L54" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,44 +2414,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>8885</v>
+        <v>8850</v>
       </c>
       <c r="C55" t="n">
-        <v>8885</v>
+        <v>8860</v>
       </c>
       <c r="D55" t="n">
-        <v>8885</v>
+        <v>8860</v>
       </c>
       <c r="E55" t="n">
-        <v>8885</v>
+        <v>8850</v>
       </c>
       <c r="F55" t="n">
-        <v>18</v>
+        <v>19.1086</v>
       </c>
       <c r="G55" t="n">
-        <v>8847.333333333334</v>
+        <v>-1079.47780301</v>
       </c>
       <c r="H55" t="n">
-        <v>8847.083333333334</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>8880</v>
-      </c>
-      <c r="L55" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+        <v>8860</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2768,44 +2455,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>8885</v>
+        <v>8850</v>
       </c>
       <c r="C56" t="n">
-        <v>8890</v>
+        <v>8850</v>
       </c>
       <c r="D56" t="n">
-        <v>8890</v>
+        <v>8850</v>
       </c>
       <c r="E56" t="n">
-        <v>8885</v>
+        <v>8850</v>
       </c>
       <c r="F56" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G56" t="n">
-        <v>8851.666666666666</v>
+        <v>-1086.47780301</v>
       </c>
       <c r="H56" t="n">
-        <v>8846.916666666666</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>8885</v>
-      </c>
-      <c r="L56" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+        <v>8860</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2814,44 +2496,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>8890</v>
+        <v>8850</v>
       </c>
       <c r="C57" t="n">
-        <v>8890</v>
+        <v>8850</v>
       </c>
       <c r="D57" t="n">
-        <v>8890</v>
+        <v>8850</v>
       </c>
       <c r="E57" t="n">
-        <v>8890</v>
+        <v>8850</v>
       </c>
       <c r="F57" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>8857</v>
+        <v>-1086.47780301</v>
       </c>
       <c r="H57" t="n">
-        <v>8846.75</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>8890</v>
-      </c>
-      <c r="L57" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+        <v>8850</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2860,44 +2537,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>8890</v>
+        <v>8850</v>
       </c>
       <c r="C58" t="n">
-        <v>8945</v>
+        <v>8850</v>
       </c>
       <c r="D58" t="n">
-        <v>8945</v>
+        <v>8850</v>
       </c>
       <c r="E58" t="n">
-        <v>8890</v>
+        <v>8850</v>
       </c>
       <c r="F58" t="n">
-        <v>178.3834</v>
+        <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>8861.333333333334</v>
+        <v>-1086.47780301</v>
       </c>
       <c r="H58" t="n">
-        <v>8848</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>8890</v>
-      </c>
-      <c r="L58" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+        <v>8850</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2906,44 +2578,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>8995</v>
+        <v>8850</v>
       </c>
       <c r="C59" t="n">
-        <v>8930</v>
+        <v>8850</v>
       </c>
       <c r="D59" t="n">
-        <v>9050</v>
+        <v>8850</v>
       </c>
       <c r="E59" t="n">
-        <v>8930</v>
+        <v>8850</v>
       </c>
       <c r="F59" t="n">
-        <v>459.0254232</v>
+        <v>27</v>
       </c>
       <c r="G59" t="n">
-        <v>8868.666666666666</v>
+        <v>-1086.47780301</v>
       </c>
       <c r="H59" t="n">
-        <v>8849</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L59" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+        <v>8850</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2952,44 +2619,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9010</v>
+        <v>8850</v>
       </c>
       <c r="C60" t="n">
-        <v>9010</v>
+        <v>8850</v>
       </c>
       <c r="D60" t="n">
-        <v>9010</v>
+        <v>8850</v>
       </c>
       <c r="E60" t="n">
-        <v>9010</v>
+        <v>8850</v>
       </c>
       <c r="F60" t="n">
-        <v>5.5493</v>
+        <v>16</v>
       </c>
       <c r="G60" t="n">
-        <v>8881</v>
+        <v>-1086.47780301</v>
       </c>
       <c r="H60" t="n">
-        <v>8851.666666666666</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>8930</v>
-      </c>
-      <c r="L60" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+        <v>8850</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,42 +2660,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9020</v>
+        <v>8850</v>
       </c>
       <c r="C61" t="n">
-        <v>9020</v>
+        <v>8850</v>
       </c>
       <c r="D61" t="n">
-        <v>9020</v>
+        <v>8850</v>
       </c>
       <c r="E61" t="n">
-        <v>9020</v>
+        <v>8850</v>
       </c>
       <c r="F61" t="n">
-        <v>5.5433</v>
+        <v>20</v>
       </c>
       <c r="G61" t="n">
-        <v>8893.333333333334</v>
+        <v>-1086.47780301</v>
       </c>
       <c r="H61" t="n">
-        <v>8854.916666666666</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>8850</v>
       </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3042,42 +2701,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9035</v>
+        <v>8850</v>
       </c>
       <c r="C62" t="n">
-        <v>9035</v>
+        <v>8850</v>
       </c>
       <c r="D62" t="n">
-        <v>9035</v>
+        <v>8850</v>
       </c>
       <c r="E62" t="n">
-        <v>9035</v>
+        <v>8850</v>
       </c>
       <c r="F62" t="n">
-        <v>578.9956</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>8907</v>
+        <v>-1086.47780301</v>
       </c>
       <c r="H62" t="n">
-        <v>8858.166666666666</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>8850</v>
       </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3086,42 +2742,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9035</v>
+        <v>8850</v>
       </c>
       <c r="C63" t="n">
-        <v>9035</v>
+        <v>8835</v>
       </c>
       <c r="D63" t="n">
-        <v>9035</v>
+        <v>8850</v>
       </c>
       <c r="E63" t="n">
-        <v>9035</v>
+        <v>8835</v>
       </c>
       <c r="F63" t="n">
-        <v>123</v>
+        <v>9.975</v>
       </c>
       <c r="G63" t="n">
-        <v>8917.333333333334</v>
+        <v>-1096.45280301</v>
       </c>
       <c r="H63" t="n">
-        <v>8861.416666666666</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>8850</v>
       </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3130,42 +2783,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9035</v>
+        <v>8850</v>
       </c>
       <c r="C64" t="n">
-        <v>9035</v>
+        <v>8850</v>
       </c>
       <c r="D64" t="n">
-        <v>9035</v>
+        <v>8850</v>
       </c>
       <c r="E64" t="n">
-        <v>9035</v>
+        <v>8850</v>
       </c>
       <c r="F64" t="n">
-        <v>6</v>
+        <v>5.0199</v>
       </c>
       <c r="G64" t="n">
-        <v>8927</v>
+        <v>-1091.43290301</v>
       </c>
       <c r="H64" t="n">
-        <v>8864.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,42 +2822,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>8955</v>
+        <v>8845</v>
       </c>
       <c r="C65" t="n">
-        <v>8955</v>
+        <v>8845</v>
       </c>
       <c r="D65" t="n">
-        <v>8955</v>
+        <v>8845</v>
       </c>
       <c r="E65" t="n">
-        <v>8955</v>
+        <v>8845</v>
       </c>
       <c r="F65" t="n">
-        <v>3.8463</v>
+        <v>13</v>
       </c>
       <c r="G65" t="n">
-        <v>8935</v>
+        <v>-1104.43290301</v>
       </c>
       <c r="H65" t="n">
-        <v>8866.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3218,42 +2861,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>8955</v>
+        <v>8845</v>
       </c>
       <c r="C66" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="D66" t="n">
-        <v>8955</v>
+        <v>8845</v>
       </c>
       <c r="E66" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="F66" t="n">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="G66" t="n">
-        <v>8942.333333333334</v>
+        <v>-1115.43290301</v>
       </c>
       <c r="H66" t="n">
-        <v>8868.333333333334</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>8845</v>
       </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3262,42 +2902,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="C67" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="D67" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="E67" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="F67" t="n">
-        <v>28.7212</v>
+        <v>8</v>
       </c>
       <c r="G67" t="n">
-        <v>8949.666666666666</v>
+        <v>-1115.43290301</v>
       </c>
       <c r="H67" t="n">
-        <v>8869.25</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3306,42 +2941,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="C68" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="D68" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="E68" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="F68" t="n">
-        <v>71.88460000000001</v>
+        <v>4</v>
       </c>
       <c r="G68" t="n">
-        <v>8957.333333333334</v>
+        <v>-1115.43290301</v>
       </c>
       <c r="H68" t="n">
-        <v>8871</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>8840</v>
       </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3350,42 +2982,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="C69" t="n">
-        <v>8945</v>
+        <v>8840</v>
       </c>
       <c r="D69" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="E69" t="n">
-        <v>8945</v>
+        <v>8840</v>
       </c>
       <c r="F69" t="n">
-        <v>127.8804</v>
+        <v>81</v>
       </c>
       <c r="G69" t="n">
-        <v>8961.666666666666</v>
+        <v>-1115.43290301</v>
       </c>
       <c r="H69" t="n">
-        <v>8872.666666666666</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>8840</v>
       </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3394,42 +3023,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9005</v>
+        <v>8825</v>
       </c>
       <c r="C70" t="n">
-        <v>9005</v>
+        <v>8825</v>
       </c>
       <c r="D70" t="n">
-        <v>9005</v>
+        <v>8825</v>
       </c>
       <c r="E70" t="n">
-        <v>9005</v>
+        <v>8825</v>
       </c>
       <c r="F70" t="n">
-        <v>111.4862</v>
+        <v>40</v>
       </c>
       <c r="G70" t="n">
-        <v>8969.666666666666</v>
+        <v>-1155.43290301</v>
       </c>
       <c r="H70" t="n">
-        <v>8875.25</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3438,42 +3062,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9050</v>
+        <v>8825</v>
       </c>
       <c r="C71" t="n">
-        <v>9050</v>
+        <v>8810</v>
       </c>
       <c r="D71" t="n">
-        <v>9050</v>
+        <v>8825</v>
       </c>
       <c r="E71" t="n">
-        <v>9050</v>
+        <v>8810</v>
       </c>
       <c r="F71" t="n">
-        <v>13.3527768</v>
+        <v>68.3652</v>
       </c>
       <c r="G71" t="n">
-        <v>8980.333333333334</v>
+        <v>-1223.79810301</v>
       </c>
       <c r="H71" t="n">
-        <v>8878.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3482,42 +3101,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9050</v>
+        <v>8825</v>
       </c>
       <c r="C72" t="n">
-        <v>9055</v>
+        <v>8880</v>
       </c>
       <c r="D72" t="n">
-        <v>9055</v>
+        <v>8880</v>
       </c>
       <c r="E72" t="n">
-        <v>9050</v>
+        <v>8825</v>
       </c>
       <c r="F72" t="n">
-        <v>6</v>
+        <v>90.2968</v>
       </c>
       <c r="G72" t="n">
-        <v>8991.333333333334</v>
+        <v>-1133.50130301</v>
       </c>
       <c r="H72" t="n">
-        <v>8882</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3526,42 +3140,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9050</v>
+        <v>8825</v>
       </c>
       <c r="C73" t="n">
-        <v>9095</v>
+        <v>8820</v>
       </c>
       <c r="D73" t="n">
-        <v>9095</v>
+        <v>8830</v>
       </c>
       <c r="E73" t="n">
-        <v>9050</v>
+        <v>8820</v>
       </c>
       <c r="F73" t="n">
-        <v>182</v>
+        <v>56.418</v>
       </c>
       <c r="G73" t="n">
-        <v>9001.333333333334</v>
+        <v>-1189.91930301</v>
       </c>
       <c r="H73" t="n">
-        <v>8886</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3570,42 +3179,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9085</v>
+        <v>8825</v>
       </c>
       <c r="C74" t="n">
-        <v>9140</v>
+        <v>8825</v>
       </c>
       <c r="D74" t="n">
-        <v>9140</v>
+        <v>8825</v>
       </c>
       <c r="E74" t="n">
-        <v>9025</v>
+        <v>8825</v>
       </c>
       <c r="F74" t="n">
-        <v>166.0515</v>
+        <v>15.9771</v>
       </c>
       <c r="G74" t="n">
-        <v>9015.333333333334</v>
+        <v>-1173.94220301</v>
       </c>
       <c r="H74" t="n">
-        <v>8891.083333333334</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>8820</v>
       </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,42 +3220,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9140</v>
+        <v>8835</v>
       </c>
       <c r="C75" t="n">
-        <v>9170</v>
+        <v>8835</v>
       </c>
       <c r="D75" t="n">
-        <v>9170</v>
+        <v>8835</v>
       </c>
       <c r="E75" t="n">
-        <v>9140</v>
+        <v>8835</v>
       </c>
       <c r="F75" t="n">
-        <v>50.9608</v>
+        <v>18</v>
       </c>
       <c r="G75" t="n">
-        <v>9026</v>
+        <v>-1155.94220301</v>
       </c>
       <c r="H75" t="n">
-        <v>8896.75</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3658,42 +3259,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9170</v>
+        <v>8830</v>
       </c>
       <c r="C76" t="n">
-        <v>9175</v>
+        <v>8830</v>
       </c>
       <c r="D76" t="n">
-        <v>9180</v>
+        <v>8830</v>
       </c>
       <c r="E76" t="n">
-        <v>9170</v>
+        <v>8830</v>
       </c>
       <c r="F76" t="n">
-        <v>69</v>
+        <v>0.5</v>
       </c>
       <c r="G76" t="n">
-        <v>9036.333333333334</v>
+        <v>-1156.44220301</v>
       </c>
       <c r="H76" t="n">
-        <v>8902.5</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>8835</v>
       </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3702,42 +3300,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9100</v>
+        <v>8880</v>
       </c>
       <c r="C77" t="n">
-        <v>9105</v>
+        <v>8880</v>
       </c>
       <c r="D77" t="n">
-        <v>9105</v>
+        <v>8880</v>
       </c>
       <c r="E77" t="n">
-        <v>9100</v>
+        <v>8880</v>
       </c>
       <c r="F77" t="n">
-        <v>462.4078</v>
+        <v>69.3343</v>
       </c>
       <c r="G77" t="n">
-        <v>9041</v>
+        <v>-1087.10790301</v>
       </c>
       <c r="H77" t="n">
-        <v>8907.083333333334</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>8830</v>
       </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3746,42 +3341,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9100</v>
+        <v>8890</v>
       </c>
       <c r="C78" t="n">
-        <v>9100</v>
+        <v>8890</v>
       </c>
       <c r="D78" t="n">
-        <v>9100</v>
+        <v>8890</v>
       </c>
       <c r="E78" t="n">
-        <v>9100</v>
+        <v>8890</v>
       </c>
       <c r="F78" t="n">
-        <v>243.5135</v>
+        <v>11.1551</v>
       </c>
       <c r="G78" t="n">
-        <v>9045.333333333334</v>
+        <v>-1075.95280301</v>
       </c>
       <c r="H78" t="n">
-        <v>8911.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3790,42 +3380,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9160</v>
+        <v>8835</v>
       </c>
       <c r="C79" t="n">
-        <v>9180</v>
+        <v>8835</v>
       </c>
       <c r="D79" t="n">
-        <v>9180</v>
+        <v>8835</v>
       </c>
       <c r="E79" t="n">
-        <v>9160</v>
+        <v>8835</v>
       </c>
       <c r="F79" t="n">
-        <v>80.13200000000001</v>
+        <v>0.242</v>
       </c>
       <c r="G79" t="n">
-        <v>9055</v>
+        <v>-1076.19480301</v>
       </c>
       <c r="H79" t="n">
-        <v>8917.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3834,42 +3419,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9180</v>
+        <v>8840</v>
       </c>
       <c r="C80" t="n">
-        <v>9210</v>
+        <v>8840</v>
       </c>
       <c r="D80" t="n">
-        <v>9210</v>
+        <v>8840</v>
       </c>
       <c r="E80" t="n">
-        <v>9180</v>
+        <v>8840</v>
       </c>
       <c r="F80" t="n">
-        <v>149</v>
+        <v>45.6425</v>
       </c>
       <c r="G80" t="n">
-        <v>9072</v>
+        <v>-1030.55230301</v>
       </c>
       <c r="H80" t="n">
-        <v>8923.75</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,42 +3458,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9210</v>
+        <v>8890</v>
       </c>
       <c r="C81" t="n">
-        <v>9300</v>
+        <v>8840</v>
       </c>
       <c r="D81" t="n">
-        <v>9300</v>
+        <v>8890</v>
       </c>
       <c r="E81" t="n">
-        <v>9210</v>
+        <v>8840</v>
       </c>
       <c r="F81" t="n">
-        <v>1.32</v>
+        <v>4.9888</v>
       </c>
       <c r="G81" t="n">
-        <v>9095.333333333334</v>
+        <v>-1030.55230301</v>
       </c>
       <c r="H81" t="n">
-        <v>8931.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3922,42 +3497,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9300</v>
+        <v>8890</v>
       </c>
       <c r="C82" t="n">
-        <v>9485</v>
+        <v>8835</v>
       </c>
       <c r="D82" t="n">
-        <v>9500</v>
+        <v>8890</v>
       </c>
       <c r="E82" t="n">
-        <v>9065</v>
+        <v>8835</v>
       </c>
       <c r="F82" t="n">
-        <v>997.03142947</v>
+        <v>168.0659</v>
       </c>
       <c r="G82" t="n">
-        <v>9131</v>
+        <v>-1198.61820301</v>
       </c>
       <c r="H82" t="n">
-        <v>8942.166666666666</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>8840</v>
       </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3966,42 +3538,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9120</v>
+        <v>8880</v>
       </c>
       <c r="C83" t="n">
-        <v>9065</v>
+        <v>8880</v>
       </c>
       <c r="D83" t="n">
-        <v>9120</v>
+        <v>8885</v>
       </c>
       <c r="E83" t="n">
-        <v>9060</v>
+        <v>8880</v>
       </c>
       <c r="F83" t="n">
-        <v>74.6206</v>
+        <v>10</v>
       </c>
       <c r="G83" t="n">
-        <v>9138.666666666666</v>
+        <v>-1188.61820301</v>
       </c>
       <c r="H83" t="n">
-        <v>8946.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,42 +3577,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9420</v>
+        <v>8885</v>
       </c>
       <c r="C84" t="n">
-        <v>9075</v>
+        <v>8885</v>
       </c>
       <c r="D84" t="n">
-        <v>9420</v>
+        <v>8885</v>
       </c>
       <c r="E84" t="n">
-        <v>9075</v>
+        <v>8885</v>
       </c>
       <c r="F84" t="n">
-        <v>0.233</v>
+        <v>18</v>
       </c>
       <c r="G84" t="n">
-        <v>9147.333333333334</v>
+        <v>-1170.61820301</v>
       </c>
       <c r="H84" t="n">
-        <v>8950.333333333334</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>8880</v>
       </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4054,42 +3618,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9410</v>
+        <v>8885</v>
       </c>
       <c r="C85" t="n">
-        <v>9090</v>
+        <v>8890</v>
       </c>
       <c r="D85" t="n">
-        <v>9415</v>
+        <v>8890</v>
       </c>
       <c r="E85" t="n">
-        <v>9090</v>
+        <v>8885</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2231</v>
+        <v>16</v>
       </c>
       <c r="G85" t="n">
-        <v>9153</v>
+        <v>-1154.61820301</v>
       </c>
       <c r="H85" t="n">
-        <v>8954.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4098,42 +3657,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9410</v>
+        <v>8890</v>
       </c>
       <c r="C86" t="n">
-        <v>9415</v>
+        <v>8890</v>
       </c>
       <c r="D86" t="n">
-        <v>9415</v>
+        <v>8890</v>
       </c>
       <c r="E86" t="n">
-        <v>9410</v>
+        <v>8890</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1001</v>
+        <v>26</v>
       </c>
       <c r="G86" t="n">
-        <v>9177.333333333334</v>
+        <v>-1154.61820301</v>
       </c>
       <c r="H86" t="n">
-        <v>8963.416666666666</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>8890</v>
       </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4142,42 +3698,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9140</v>
+        <v>8890</v>
       </c>
       <c r="C87" t="n">
-        <v>9305</v>
+        <v>8945</v>
       </c>
       <c r="D87" t="n">
-        <v>9305</v>
+        <v>8945</v>
       </c>
       <c r="E87" t="n">
-        <v>9140</v>
+        <v>8890</v>
       </c>
       <c r="F87" t="n">
-        <v>9.2387</v>
+        <v>178.3834</v>
       </c>
       <c r="G87" t="n">
-        <v>9194</v>
+        <v>-976.2348030099997</v>
       </c>
       <c r="H87" t="n">
-        <v>8971</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>8890</v>
       </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4186,42 +3739,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9145</v>
+        <v>8995</v>
       </c>
       <c r="C88" t="n">
-        <v>9145</v>
+        <v>8930</v>
       </c>
       <c r="D88" t="n">
-        <v>9145</v>
+        <v>9050</v>
       </c>
       <c r="E88" t="n">
-        <v>9145</v>
+        <v>8930</v>
       </c>
       <c r="F88" t="n">
-        <v>8.1</v>
+        <v>459.0254232</v>
       </c>
       <c r="G88" t="n">
-        <v>9197.333333333334</v>
+        <v>-1435.26022621</v>
       </c>
       <c r="H88" t="n">
-        <v>8975.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4230,42 +3778,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9150</v>
+        <v>9010</v>
       </c>
       <c r="C89" t="n">
-        <v>9150</v>
+        <v>9010</v>
       </c>
       <c r="D89" t="n">
-        <v>9150</v>
+        <v>9010</v>
       </c>
       <c r="E89" t="n">
-        <v>9150</v>
+        <v>9010</v>
       </c>
       <c r="F89" t="n">
-        <v>10.9</v>
+        <v>5.5493</v>
       </c>
       <c r="G89" t="n">
-        <v>9198</v>
+        <v>-1429.71092621</v>
       </c>
       <c r="H89" t="n">
-        <v>8980.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4274,42 +3817,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9140</v>
+        <v>9020</v>
       </c>
       <c r="C90" t="n">
-        <v>9140</v>
+        <v>9020</v>
       </c>
       <c r="D90" t="n">
-        <v>9140</v>
+        <v>9020</v>
       </c>
       <c r="E90" t="n">
-        <v>9140</v>
+        <v>9020</v>
       </c>
       <c r="F90" t="n">
-        <v>90</v>
+        <v>5.5433</v>
       </c>
       <c r="G90" t="n">
-        <v>9196</v>
+        <v>-1424.16762621</v>
       </c>
       <c r="H90" t="n">
-        <v>8985.75</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4318,42 +3856,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9140</v>
+        <v>9035</v>
       </c>
       <c r="C91" t="n">
-        <v>9140</v>
+        <v>9035</v>
       </c>
       <c r="D91" t="n">
-        <v>9205</v>
+        <v>9035</v>
       </c>
       <c r="E91" t="n">
-        <v>9140</v>
+        <v>9035</v>
       </c>
       <c r="F91" t="n">
-        <v>150.1275</v>
+        <v>578.9956</v>
       </c>
       <c r="G91" t="n">
-        <v>9193.666666666666</v>
+        <v>-845.1720262099998</v>
       </c>
       <c r="H91" t="n">
-        <v>8990.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4362,42 +3895,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9140</v>
+        <v>9035</v>
       </c>
       <c r="C92" t="n">
-        <v>9140</v>
+        <v>9035</v>
       </c>
       <c r="D92" t="n">
-        <v>9140</v>
+        <v>9035</v>
       </c>
       <c r="E92" t="n">
-        <v>9140</v>
+        <v>9035</v>
       </c>
       <c r="F92" t="n">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="G92" t="n">
-        <v>9196</v>
+        <v>-845.1720262099998</v>
       </c>
       <c r="H92" t="n">
-        <v>8995.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4406,42 +3934,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9200</v>
+        <v>9035</v>
       </c>
       <c r="C93" t="n">
-        <v>9100</v>
+        <v>9035</v>
       </c>
       <c r="D93" t="n">
-        <v>9200</v>
+        <v>9035</v>
       </c>
       <c r="E93" t="n">
-        <v>9100</v>
+        <v>9035</v>
       </c>
       <c r="F93" t="n">
-        <v>6.5361</v>
+        <v>6</v>
       </c>
       <c r="G93" t="n">
-        <v>9196</v>
+        <v>-845.1720262099998</v>
       </c>
       <c r="H93" t="n">
-        <v>8999.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4450,42 +3973,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9140</v>
+        <v>8955</v>
       </c>
       <c r="C94" t="n">
-        <v>9085</v>
+        <v>8955</v>
       </c>
       <c r="D94" t="n">
-        <v>9140</v>
+        <v>8955</v>
       </c>
       <c r="E94" t="n">
-        <v>9085</v>
+        <v>8955</v>
       </c>
       <c r="F94" t="n">
-        <v>29.8353</v>
+        <v>3.8463</v>
       </c>
       <c r="G94" t="n">
-        <v>9189.666666666666</v>
+        <v>-849.0183262099998</v>
       </c>
       <c r="H94" t="n">
-        <v>9003.75</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4494,42 +4012,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9140</v>
+        <v>8955</v>
       </c>
       <c r="C95" t="n">
-        <v>9180</v>
+        <v>8950</v>
       </c>
       <c r="D95" t="n">
-        <v>9180</v>
+        <v>8955</v>
       </c>
       <c r="E95" t="n">
-        <v>9140</v>
+        <v>8950</v>
       </c>
       <c r="F95" t="n">
-        <v>86.2436</v>
+        <v>116</v>
       </c>
       <c r="G95" t="n">
-        <v>9187.666666666666</v>
+        <v>-965.0183262099998</v>
       </c>
       <c r="H95" t="n">
-        <v>9009.25</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4538,42 +4051,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9180</v>
+        <v>8950</v>
       </c>
       <c r="C96" t="n">
-        <v>9185</v>
+        <v>8950</v>
       </c>
       <c r="D96" t="n">
-        <v>9185</v>
+        <v>8950</v>
       </c>
       <c r="E96" t="n">
-        <v>9180</v>
+        <v>8950</v>
       </c>
       <c r="F96" t="n">
-        <v>12.62386243</v>
+        <v>28.7212</v>
       </c>
       <c r="G96" t="n">
-        <v>9180</v>
+        <v>-965.0183262099998</v>
       </c>
       <c r="H96" t="n">
-        <v>9014.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4582,42 +4090,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9185</v>
+        <v>8950</v>
       </c>
       <c r="C97" t="n">
-        <v>9185</v>
+        <v>8950</v>
       </c>
       <c r="D97" t="n">
-        <v>9185</v>
+        <v>8950</v>
       </c>
       <c r="E97" t="n">
-        <v>9185</v>
+        <v>8950</v>
       </c>
       <c r="F97" t="n">
-        <v>141.9291</v>
+        <v>71.88460000000001</v>
       </c>
       <c r="G97" t="n">
-        <v>9160</v>
+        <v>-965.0183262099998</v>
       </c>
       <c r="H97" t="n">
-        <v>9020.666666666666</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>8950</v>
       </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4626,42 +4131,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9115</v>
+        <v>8950</v>
       </c>
       <c r="C98" t="n">
-        <v>9250</v>
+        <v>8945</v>
       </c>
       <c r="D98" t="n">
-        <v>9250</v>
+        <v>8950</v>
       </c>
       <c r="E98" t="n">
-        <v>9115</v>
+        <v>8945</v>
       </c>
       <c r="F98" t="n">
-        <v>0.223</v>
+        <v>127.8804</v>
       </c>
       <c r="G98" t="n">
-        <v>9172.333333333334</v>
+        <v>-1092.89872621</v>
       </c>
       <c r="H98" t="n">
-        <v>9027.5</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>8950</v>
       </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4670,42 +4172,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9120</v>
+        <v>9005</v>
       </c>
       <c r="C99" t="n">
-        <v>9115</v>
+        <v>9005</v>
       </c>
       <c r="D99" t="n">
-        <v>9120</v>
+        <v>9005</v>
       </c>
       <c r="E99" t="n">
-        <v>9115</v>
+        <v>9005</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3264</v>
+        <v>111.4862</v>
       </c>
       <c r="G99" t="n">
-        <v>9175</v>
+        <v>-981.4125262099997</v>
       </c>
       <c r="H99" t="n">
-        <v>9032.083333333334</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>8945</v>
       </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4714,42 +4213,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9265</v>
+        <v>9050</v>
       </c>
       <c r="C100" t="n">
-        <v>9250</v>
+        <v>9050</v>
       </c>
       <c r="D100" t="n">
-        <v>9265</v>
+        <v>9050</v>
       </c>
       <c r="E100" t="n">
-        <v>9250</v>
+        <v>9050</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5468</v>
+        <v>13.3527768</v>
       </c>
       <c r="G100" t="n">
-        <v>9185.666666666666</v>
+        <v>-968.0597494099997</v>
       </c>
       <c r="H100" t="n">
-        <v>9038.916666666666</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>9005</v>
       </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4758,43 +4254,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9125</v>
+        <v>9050</v>
       </c>
       <c r="C101" t="n">
-        <v>9125</v>
+        <v>9055</v>
       </c>
       <c r="D101" t="n">
-        <v>9125</v>
+        <v>9055</v>
       </c>
       <c r="E101" t="n">
-        <v>9125</v>
+        <v>9050</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G101" t="n">
-        <v>9166.333333333334</v>
+        <v>-962.0597494099997</v>
       </c>
       <c r="H101" t="n">
-        <v>9043.916666666666</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>8830</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
-        <v>1.028408833522084</v>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -4802,36 +4293,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9125</v>
+        <v>9050</v>
       </c>
       <c r="C102" t="n">
-        <v>9125</v>
+        <v>9095</v>
       </c>
       <c r="D102" t="n">
-        <v>9125</v>
+        <v>9095</v>
       </c>
       <c r="E102" t="n">
-        <v>9125</v>
+        <v>9050</v>
       </c>
       <c r="F102" t="n">
-        <v>10.7</v>
+        <v>182</v>
       </c>
       <c r="G102" t="n">
-        <v>9154.333333333334</v>
+        <v>-780.0597494099997</v>
       </c>
       <c r="H102" t="n">
-        <v>9049.166666666666</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>1</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4840,36 +4332,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9125</v>
+        <v>9085</v>
       </c>
       <c r="C103" t="n">
-        <v>9265</v>
+        <v>9140</v>
       </c>
       <c r="D103" t="n">
-        <v>9265</v>
+        <v>9140</v>
       </c>
       <c r="E103" t="n">
-        <v>9125</v>
+        <v>9025</v>
       </c>
       <c r="F103" t="n">
-        <v>56.1189</v>
+        <v>166.0515</v>
       </c>
       <c r="G103" t="n">
-        <v>9162.333333333334</v>
+        <v>-614.0082494099996</v>
       </c>
       <c r="H103" t="n">
-        <v>9055.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4878,36 +4371,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9250</v>
+        <v>9140</v>
       </c>
       <c r="C104" t="n">
-        <v>9250</v>
+        <v>9170</v>
       </c>
       <c r="D104" t="n">
-        <v>9250</v>
+        <v>9170</v>
       </c>
       <c r="E104" t="n">
-        <v>9250</v>
+        <v>9140</v>
       </c>
       <c r="F104" t="n">
-        <v>23.1345</v>
+        <v>50.9608</v>
       </c>
       <c r="G104" t="n">
-        <v>9169</v>
+        <v>-563.0474494099997</v>
       </c>
       <c r="H104" t="n">
-        <v>9062.75</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4916,36 +4410,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9245</v>
+        <v>9170</v>
       </c>
       <c r="C105" t="n">
-        <v>9230</v>
+        <v>9175</v>
       </c>
       <c r="D105" t="n">
-        <v>9245</v>
+        <v>9180</v>
       </c>
       <c r="E105" t="n">
-        <v>9230</v>
+        <v>9170</v>
       </c>
       <c r="F105" t="n">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="G105" t="n">
-        <v>9175</v>
+        <v>-494.0474494099997</v>
       </c>
       <c r="H105" t="n">
-        <v>9069.5</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>1</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4954,36 +4449,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9230</v>
+        <v>9100</v>
       </c>
       <c r="C106" t="n">
-        <v>9230</v>
+        <v>9105</v>
       </c>
       <c r="D106" t="n">
-        <v>9230</v>
+        <v>9105</v>
       </c>
       <c r="E106" t="n">
-        <v>9230</v>
+        <v>9100</v>
       </c>
       <c r="F106" t="n">
-        <v>19.4976</v>
+        <v>462.4078</v>
       </c>
       <c r="G106" t="n">
-        <v>9181</v>
+        <v>-956.4552494099996</v>
       </c>
       <c r="H106" t="n">
-        <v>9076.083333333334</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4992,36 +4488,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9320</v>
+        <v>9100</v>
       </c>
       <c r="C107" t="n">
-        <v>9320</v>
+        <v>9100</v>
       </c>
       <c r="D107" t="n">
-        <v>9320</v>
+        <v>9100</v>
       </c>
       <c r="E107" t="n">
-        <v>9320</v>
+        <v>9100</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1009</v>
+        <v>243.5135</v>
       </c>
       <c r="G107" t="n">
-        <v>9193</v>
+        <v>-1199.96874941</v>
       </c>
       <c r="H107" t="n">
-        <v>9084.25</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>1</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5030,36 +4527,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9230</v>
+        <v>9160</v>
       </c>
       <c r="C108" t="n">
-        <v>9390</v>
+        <v>9180</v>
       </c>
       <c r="D108" t="n">
-        <v>9390</v>
+        <v>9180</v>
       </c>
       <c r="E108" t="n">
-        <v>9230</v>
+        <v>9160</v>
       </c>
       <c r="F108" t="n">
-        <v>5.61</v>
+        <v>80.13200000000001</v>
       </c>
       <c r="G108" t="n">
-        <v>9212.333333333334</v>
+        <v>-1119.83674941</v>
       </c>
       <c r="H108" t="n">
-        <v>9092.75</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>1</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,36 +4566,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9230</v>
+        <v>9180</v>
       </c>
       <c r="C109" t="n">
-        <v>9230</v>
+        <v>9210</v>
       </c>
       <c r="D109" t="n">
-        <v>9230</v>
+        <v>9210</v>
       </c>
       <c r="E109" t="n">
-        <v>9230</v>
+        <v>9180</v>
       </c>
       <c r="F109" t="n">
-        <v>4.9875</v>
+        <v>149</v>
       </c>
       <c r="G109" t="n">
-        <v>9222</v>
+        <v>-970.8367494099996</v>
       </c>
       <c r="H109" t="n">
-        <v>9098.416666666666</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>1</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5109,33 +4608,34 @@
         <v>9210</v>
       </c>
       <c r="C110" t="n">
-        <v>9210</v>
+        <v>9300</v>
       </c>
       <c r="D110" t="n">
-        <v>9210</v>
+        <v>9300</v>
       </c>
       <c r="E110" t="n">
         <v>9210</v>
       </c>
       <c r="F110" t="n">
-        <v>1.5778</v>
+        <v>1.32</v>
       </c>
       <c r="G110" t="n">
-        <v>9224</v>
+        <v>-969.5167494099995</v>
       </c>
       <c r="H110" t="n">
-        <v>9104.666666666666</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>1</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5144,36 +4644,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9375</v>
+        <v>9300</v>
       </c>
       <c r="C111" t="n">
-        <v>9375</v>
+        <v>9485</v>
       </c>
       <c r="D111" t="n">
-        <v>9375</v>
+        <v>9500</v>
       </c>
       <c r="E111" t="n">
-        <v>9375</v>
+        <v>9065</v>
       </c>
       <c r="F111" t="n">
-        <v>0.139</v>
+        <v>997.03142947</v>
       </c>
       <c r="G111" t="n">
-        <v>9236.666666666666</v>
+        <v>27.5146800600005</v>
       </c>
       <c r="H111" t="n">
-        <v>9113.583333333334</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>1</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5182,36 +4683,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9220</v>
+        <v>9120</v>
       </c>
       <c r="C112" t="n">
-        <v>9240</v>
+        <v>9065</v>
       </c>
       <c r="D112" t="n">
-        <v>9240</v>
+        <v>9120</v>
       </c>
       <c r="E112" t="n">
-        <v>9220</v>
+        <v>9060</v>
       </c>
       <c r="F112" t="n">
-        <v>4.8863</v>
+        <v>74.6206</v>
       </c>
       <c r="G112" t="n">
-        <v>9240.333333333334</v>
+        <v>-47.1059199399995</v>
       </c>
       <c r="H112" t="n">
-        <v>9120.25</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>1</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5220,36 +4722,1162 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>9420</v>
+      </c>
+      <c r="C113" t="n">
+        <v>9075</v>
+      </c>
+      <c r="D113" t="n">
+        <v>9420</v>
+      </c>
+      <c r="E113" t="n">
+        <v>9075</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-46.8729199399995</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>9410</v>
+      </c>
+      <c r="C114" t="n">
+        <v>9090</v>
+      </c>
+      <c r="D114" t="n">
+        <v>9415</v>
+      </c>
+      <c r="E114" t="n">
+        <v>9090</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.2231</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-46.6498199399995</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>9410</v>
+      </c>
+      <c r="C115" t="n">
+        <v>9415</v>
+      </c>
+      <c r="D115" t="n">
+        <v>9415</v>
+      </c>
+      <c r="E115" t="n">
+        <v>9410</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.1001</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-46.5497199399995</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>9140</v>
+      </c>
+      <c r="C116" t="n">
+        <v>9305</v>
+      </c>
+      <c r="D116" t="n">
+        <v>9305</v>
+      </c>
+      <c r="E116" t="n">
+        <v>9140</v>
+      </c>
+      <c r="F116" t="n">
+        <v>9.2387</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-55.7884199399995</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>9145</v>
+      </c>
+      <c r="C117" t="n">
+        <v>9145</v>
+      </c>
+      <c r="D117" t="n">
+        <v>9145</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9145</v>
+      </c>
+      <c r="F117" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-63.8884199399995</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>9150</v>
+      </c>
+      <c r="C118" t="n">
+        <v>9150</v>
+      </c>
+      <c r="D118" t="n">
+        <v>9150</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9150</v>
+      </c>
+      <c r="F118" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-52.9884199399995</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>9140</v>
+      </c>
+      <c r="C119" t="n">
+        <v>9140</v>
+      </c>
+      <c r="D119" t="n">
+        <v>9140</v>
+      </c>
+      <c r="E119" t="n">
+        <v>9140</v>
+      </c>
+      <c r="F119" t="n">
+        <v>90</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-142.9884199399995</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>9140</v>
+      </c>
+      <c r="C120" t="n">
+        <v>9140</v>
+      </c>
+      <c r="D120" t="n">
+        <v>9205</v>
+      </c>
+      <c r="E120" t="n">
+        <v>9140</v>
+      </c>
+      <c r="F120" t="n">
+        <v>150.1275</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-142.9884199399995</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>9140</v>
+      </c>
+      <c r="C121" t="n">
+        <v>9140</v>
+      </c>
+      <c r="D121" t="n">
+        <v>9140</v>
+      </c>
+      <c r="E121" t="n">
+        <v>9140</v>
+      </c>
+      <c r="F121" t="n">
+        <v>30</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-142.9884199399995</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>9200</v>
+      </c>
+      <c r="C122" t="n">
+        <v>9100</v>
+      </c>
+      <c r="D122" t="n">
+        <v>9200</v>
+      </c>
+      <c r="E122" t="n">
+        <v>9100</v>
+      </c>
+      <c r="F122" t="n">
+        <v>6.5361</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-149.5245199399995</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>9140</v>
+      </c>
+      <c r="C123" t="n">
+        <v>9085</v>
+      </c>
+      <c r="D123" t="n">
+        <v>9140</v>
+      </c>
+      <c r="E123" t="n">
+        <v>9085</v>
+      </c>
+      <c r="F123" t="n">
+        <v>29.8353</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-179.3598199399995</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>9140</v>
+      </c>
+      <c r="C124" t="n">
+        <v>9180</v>
+      </c>
+      <c r="D124" t="n">
+        <v>9180</v>
+      </c>
+      <c r="E124" t="n">
+        <v>9140</v>
+      </c>
+      <c r="F124" t="n">
+        <v>86.2436</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-93.11621993999951</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>9180</v>
+      </c>
+      <c r="C125" t="n">
+        <v>9185</v>
+      </c>
+      <c r="D125" t="n">
+        <v>9185</v>
+      </c>
+      <c r="E125" t="n">
+        <v>9180</v>
+      </c>
+      <c r="F125" t="n">
+        <v>12.62386243</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-80.49235750999951</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>9185</v>
+      </c>
+      <c r="C126" t="n">
+        <v>9185</v>
+      </c>
+      <c r="D126" t="n">
+        <v>9185</v>
+      </c>
+      <c r="E126" t="n">
+        <v>9185</v>
+      </c>
+      <c r="F126" t="n">
+        <v>141.9291</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-80.49235750999951</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>9115</v>
+      </c>
+      <c r="C127" t="n">
         <v>9250</v>
       </c>
-      <c r="C113" t="n">
+      <c r="D127" t="n">
         <v>9250</v>
       </c>
-      <c r="D113" t="n">
+      <c r="E127" t="n">
+        <v>9115</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-80.26935750999951</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>9120</v>
+      </c>
+      <c r="C128" t="n">
+        <v>9115</v>
+      </c>
+      <c r="D128" t="n">
+        <v>9120</v>
+      </c>
+      <c r="E128" t="n">
+        <v>9115</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.3264</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-80.59575750999952</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>9265</v>
+      </c>
+      <c r="C129" t="n">
         <v>9250</v>
       </c>
-      <c r="E113" t="n">
+      <c r="D129" t="n">
+        <v>9265</v>
+      </c>
+      <c r="E129" t="n">
         <v>9250</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F129" t="n">
+        <v>0.5468</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-80.04895750999951</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>9125</v>
+      </c>
+      <c r="C130" t="n">
+        <v>9125</v>
+      </c>
+      <c r="D130" t="n">
+        <v>9125</v>
+      </c>
+      <c r="E130" t="n">
+        <v>9125</v>
+      </c>
+      <c r="F130" t="n">
+        <v>10</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-90.04895750999951</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>9125</v>
+      </c>
+      <c r="C131" t="n">
+        <v>9125</v>
+      </c>
+      <c r="D131" t="n">
+        <v>9125</v>
+      </c>
+      <c r="E131" t="n">
+        <v>9125</v>
+      </c>
+      <c r="F131" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-90.04895750999951</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>9125</v>
+      </c>
+      <c r="C132" t="n">
+        <v>9265</v>
+      </c>
+      <c r="D132" t="n">
+        <v>9265</v>
+      </c>
+      <c r="E132" t="n">
+        <v>9125</v>
+      </c>
+      <c r="F132" t="n">
+        <v>56.1189</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-33.93005750999951</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>9250</v>
+      </c>
+      <c r="C133" t="n">
+        <v>9250</v>
+      </c>
+      <c r="D133" t="n">
+        <v>9250</v>
+      </c>
+      <c r="E133" t="n">
+        <v>9250</v>
+      </c>
+      <c r="F133" t="n">
+        <v>23.1345</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-57.06455750999952</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>9245</v>
+      </c>
+      <c r="C134" t="n">
+        <v>9230</v>
+      </c>
+      <c r="D134" t="n">
+        <v>9245</v>
+      </c>
+      <c r="E134" t="n">
+        <v>9230</v>
+      </c>
+      <c r="F134" t="n">
+        <v>41</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-98.06455750999952</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>9230</v>
+      </c>
+      <c r="C135" t="n">
+        <v>9230</v>
+      </c>
+      <c r="D135" t="n">
+        <v>9230</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9230</v>
+      </c>
+      <c r="F135" t="n">
+        <v>19.4976</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-98.06455750999952</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>9320</v>
+      </c>
+      <c r="C136" t="n">
+        <v>9320</v>
+      </c>
+      <c r="D136" t="n">
+        <v>9320</v>
+      </c>
+      <c r="E136" t="n">
+        <v>9320</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.1009</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-97.96365750999952</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>9230</v>
+      </c>
+      <c r="C137" t="n">
+        <v>9390</v>
+      </c>
+      <c r="D137" t="n">
+        <v>9390</v>
+      </c>
+      <c r="E137" t="n">
+        <v>9230</v>
+      </c>
+      <c r="F137" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-92.35365750999952</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>9230</v>
+      </c>
+      <c r="C138" t="n">
+        <v>9230</v>
+      </c>
+      <c r="D138" t="n">
+        <v>9230</v>
+      </c>
+      <c r="E138" t="n">
+        <v>9230</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4.9875</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-97.34115750999952</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>9210</v>
+      </c>
+      <c r="C139" t="n">
+        <v>9210</v>
+      </c>
+      <c r="D139" t="n">
+        <v>9210</v>
+      </c>
+      <c r="E139" t="n">
+        <v>9210</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.5778</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-98.91895750999952</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>9375</v>
+      </c>
+      <c r="C140" t="n">
+        <v>9375</v>
+      </c>
+      <c r="D140" t="n">
+        <v>9375</v>
+      </c>
+      <c r="E140" t="n">
+        <v>9375</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-98.77995750999952</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>9220</v>
+      </c>
+      <c r="C141" t="n">
+        <v>9240</v>
+      </c>
+      <c r="D141" t="n">
+        <v>9240</v>
+      </c>
+      <c r="E141" t="n">
+        <v>9220</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4.8863</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-103.6662575099995</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>9250</v>
+      </c>
+      <c r="C142" t="n">
+        <v>9250</v>
+      </c>
+      <c r="D142" t="n">
+        <v>9250</v>
+      </c>
+      <c r="E142" t="n">
+        <v>9250</v>
+      </c>
+      <c r="F142" t="n">
         <v>4.8777</v>
       </c>
-      <c r="G113" t="n">
-        <v>9240.333333333334</v>
-      </c>
-      <c r="H113" t="n">
-        <v>9127.166666666666</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>1</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="G142" t="n">
+        <v>-98.78855750999952</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-27 BackTest BTG.xlsx
+++ b/BackTest/2019-10-27 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M142"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>6.3786</v>
       </c>
       <c r="G2" t="n">
-        <v>-1283.88870301</v>
+        <v>8950</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>84.151</v>
       </c>
       <c r="G3" t="n">
-        <v>-1368.03970301</v>
+        <v>8960</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>18.763</v>
       </c>
       <c r="G4" t="n">
-        <v>-1368.03970301</v>
+        <v>8946.666666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>36.4389</v>
       </c>
       <c r="G5" t="n">
-        <v>-1331.60080301</v>
+        <v>8946.666666666666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>18</v>
       </c>
       <c r="G6" t="n">
-        <v>-1313.60080301</v>
+        <v>8950</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>100.276</v>
       </c>
       <c r="G7" t="n">
-        <v>-1313.60080301</v>
+        <v>8953.333333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,7 +669,7 @@
         <v>38.6675</v>
       </c>
       <c r="G8" t="n">
-        <v>-1352.26830301</v>
+        <v>8948.333333333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +705,7 @@
         <v>18.7689</v>
       </c>
       <c r="G9" t="n">
-        <v>-1371.03720301</v>
+        <v>8935</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>2.3959</v>
       </c>
       <c r="G10" t="n">
-        <v>-1368.64130301</v>
+        <v>8923.333333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>-1368.64130301</v>
+        <v>8918.333333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,7 +813,7 @@
         <v>330.734</v>
       </c>
       <c r="G12" t="n">
-        <v>-1037.90730301</v>
+        <v>8923.333333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,7 +849,7 @@
         <v>17.4303</v>
       </c>
       <c r="G13" t="n">
-        <v>-1055.33760301</v>
+        <v>8925</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +885,7 @@
         <v>119.4206</v>
       </c>
       <c r="G14" t="n">
-        <v>-1174.75820301</v>
+        <v>8918.333333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,7 +921,7 @@
         <v>20</v>
       </c>
       <c r="G15" t="n">
-        <v>-1154.75820301</v>
+        <v>8918.333333333334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,7 +957,7 @@
         <v>114.9563</v>
       </c>
       <c r="G16" t="n">
-        <v>-1154.75820301</v>
+        <v>8920</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -973,7 +993,7 @@
         <v>22.8604</v>
       </c>
       <c r="G17" t="n">
-        <v>-1177.61860301</v>
+        <v>8926.666666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,7 +1029,7 @@
         <v>0.1</v>
       </c>
       <c r="G18" t="n">
-        <v>-1177.51860301</v>
+        <v>8926.666666666666</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1043,7 +1065,7 @@
         <v>38.6479</v>
       </c>
       <c r="G19" t="n">
-        <v>-1216.16650301</v>
+        <v>8923.333333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1078,7 +1101,7 @@
         <v>0.2135</v>
       </c>
       <c r="G20" t="n">
-        <v>-1216.38000301</v>
+        <v>8916.666666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,7 +1137,7 @@
         <v>1.1242</v>
       </c>
       <c r="G21" t="n">
-        <v>-1217.50420301</v>
+        <v>8903.333333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,7 +1173,7 @@
         <v>16.3551</v>
       </c>
       <c r="G22" t="n">
-        <v>-1233.85930301</v>
+        <v>8881.666666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1183,7 +1209,7 @@
         <v>59.8391</v>
       </c>
       <c r="G23" t="n">
-        <v>-1233.85930301</v>
+        <v>8866.666666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1218,7 +1245,7 @@
         <v>1.0787</v>
       </c>
       <c r="G24" t="n">
-        <v>-1232.78060301</v>
+        <v>8871.666666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1253,7 +1281,7 @@
         <v>0.6</v>
       </c>
       <c r="G25" t="n">
-        <v>-1233.38060301</v>
+        <v>8886.666666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1288,7 +1317,7 @@
         <v>0.1123</v>
       </c>
       <c r="G26" t="n">
-        <v>-1233.38060301</v>
+        <v>8901.666666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1323,7 +1353,7 @@
         <v>109.2789</v>
       </c>
       <c r="G27" t="n">
-        <v>-1342.65950301</v>
+        <v>8890</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1358,7 +1389,7 @@
         <v>88.85890000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>-1342.65950301</v>
+        <v>8880</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1378,6 +1409,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1399,7 +1431,7 @@
         <v>15.2679</v>
       </c>
       <c r="G29" t="n">
-        <v>-1357.92740301</v>
+        <v>8863.333333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1417,6 +1449,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1438,7 +1471,7 @@
         <v>52.8207</v>
       </c>
       <c r="G30" t="n">
-        <v>-1410.74810301</v>
+        <v>8848.333333333334</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1458,6 +1491,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1479,7 +1513,7 @@
         <v>42.31</v>
       </c>
       <c r="G31" t="n">
-        <v>-1368.43810301</v>
+        <v>8838.333333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1497,6 +1531,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1518,7 +1553,7 @@
         <v>51.0669</v>
       </c>
       <c r="G32" t="n">
-        <v>-1368.43810301</v>
+        <v>8835</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1536,6 +1571,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1557,7 +1593,7 @@
         <v>7.27</v>
       </c>
       <c r="G33" t="n">
-        <v>-1368.43810301</v>
+        <v>8840</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1575,6 +1611,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1596,7 +1633,7 @@
         <v>129.3407</v>
       </c>
       <c r="G34" t="n">
-        <v>-1239.09740301</v>
+        <v>8843.333333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,6 +1651,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1635,7 +1673,7 @@
         <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>-1241.09740301</v>
+        <v>8841.666666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1653,6 +1691,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1674,7 +1713,7 @@
         <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>-1141.09740301</v>
+        <v>8860</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1692,6 +1731,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1713,7 +1753,7 @@
         <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>-1143.09740301</v>
+        <v>8858.333333333334</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -1733,6 +1773,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,7 +1795,7 @@
         <v>8.075200000000001</v>
       </c>
       <c r="G38" t="n">
-        <v>-1143.09740301</v>
+        <v>8861.666666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1772,6 +1813,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1793,7 +1835,7 @@
         <v>38.0653</v>
       </c>
       <c r="G39" t="n">
-        <v>-1105.03210301</v>
+        <v>8846.666666666666</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -1813,6 +1855,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1834,7 +1877,7 @@
         <v>0.1</v>
       </c>
       <c r="G40" t="n">
-        <v>-1105.03210301</v>
+        <v>8848.333333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1852,6 +1895,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1873,7 +1917,7 @@
         <v>8.697900000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>-1105.03210301</v>
+        <v>8850</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1891,6 +1935,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1912,7 +1957,7 @@
         <v>0.2</v>
       </c>
       <c r="G42" t="n">
-        <v>-1104.83210301</v>
+        <v>8851.666666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1930,6 +1975,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1951,7 +1997,7 @@
         <v>8</v>
       </c>
       <c r="G43" t="n">
-        <v>-1112.83210301</v>
+        <v>8846.666666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1969,6 +2015,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1990,7 +2037,7 @@
         <v>78.062</v>
       </c>
       <c r="G44" t="n">
-        <v>-1190.89410301</v>
+        <v>8840</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -2010,6 +2057,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2031,7 +2079,7 @@
         <v>67.91240000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>-1190.89410301</v>
+        <v>8831.666666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2049,6 +2097,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2070,7 +2119,7 @@
         <v>43.1677</v>
       </c>
       <c r="G46" t="n">
-        <v>-1190.89410301</v>
+        <v>8830</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
@@ -2090,6 +2139,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2111,7 +2161,7 @@
         <v>10.1002</v>
       </c>
       <c r="G47" t="n">
-        <v>-1190.89410301</v>
+        <v>8830</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -2131,6 +2181,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2152,7 +2203,7 @@
         <v>49.7667</v>
       </c>
       <c r="G48" t="n">
-        <v>-1190.89410301</v>
+        <v>8830</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
@@ -2172,6 +2223,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2193,7 +2245,7 @@
         <v>26.8898</v>
       </c>
       <c r="G49" t="n">
-        <v>-1190.89410301</v>
+        <v>8830</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2211,6 +2263,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2232,7 +2285,7 @@
         <v>175.6023</v>
       </c>
       <c r="G50" t="n">
-        <v>-1190.89410301</v>
+        <v>8830</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -2252,6 +2305,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2273,7 +2327,7 @@
         <v>12.1085</v>
       </c>
       <c r="G51" t="n">
-        <v>-1178.78560301</v>
+        <v>8836.666666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2291,6 +2345,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2312,7 +2367,7 @@
         <v>11.0567</v>
       </c>
       <c r="G52" t="n">
-        <v>-1189.84230301</v>
+        <v>8835</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2330,6 +2385,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2351,7 +2407,7 @@
         <v>101.1796</v>
       </c>
       <c r="G53" t="n">
-        <v>-1189.84230301</v>
+        <v>8833.333333333334</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2369,6 +2425,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2390,7 +2447,7 @@
         <v>110.3645</v>
       </c>
       <c r="G54" t="n">
-        <v>-1079.47780301</v>
+        <v>8836.666666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2408,6 +2465,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2429,7 +2487,7 @@
         <v>19.1086</v>
       </c>
       <c r="G55" t="n">
-        <v>-1079.47780301</v>
+        <v>8848.333333333334</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -2449,6 +2507,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2470,7 +2529,7 @@
         <v>7</v>
       </c>
       <c r="G56" t="n">
-        <v>-1086.47780301</v>
+        <v>8856.666666666666</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
@@ -2490,6 +2549,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2511,7 +2571,7 @@
         <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>-1086.47780301</v>
+        <v>8853.333333333334</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
@@ -2531,6 +2591,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2552,7 +2613,7 @@
         <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>-1086.47780301</v>
+        <v>8850</v>
       </c>
       <c r="H58" t="n">
         <v>1</v>
@@ -2572,6 +2633,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2593,7 +2655,7 @@
         <v>27</v>
       </c>
       <c r="G59" t="n">
-        <v>-1086.47780301</v>
+        <v>8850</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
@@ -2613,6 +2675,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2634,7 +2697,7 @@
         <v>16</v>
       </c>
       <c r="G60" t="n">
-        <v>-1086.47780301</v>
+        <v>8850</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
@@ -2654,6 +2717,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2675,7 +2739,7 @@
         <v>20</v>
       </c>
       <c r="G61" t="n">
-        <v>-1086.47780301</v>
+        <v>8850</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
@@ -2695,6 +2759,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2716,7 +2781,7 @@
         <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>-1086.47780301</v>
+        <v>8850</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -2736,6 +2801,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2757,7 +2823,7 @@
         <v>9.975</v>
       </c>
       <c r="G63" t="n">
-        <v>-1096.45280301</v>
+        <v>8845</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -2777,6 +2843,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2798,7 +2865,7 @@
         <v>5.0199</v>
       </c>
       <c r="G64" t="n">
-        <v>-1091.43290301</v>
+        <v>8845</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2816,6 +2883,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2837,7 +2905,7 @@
         <v>13</v>
       </c>
       <c r="G65" t="n">
-        <v>-1104.43290301</v>
+        <v>8843.333333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2855,6 +2923,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2876,7 +2945,7 @@
         <v>11</v>
       </c>
       <c r="G66" t="n">
-        <v>-1115.43290301</v>
+        <v>8845</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
@@ -2896,6 +2965,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2917,7 +2987,7 @@
         <v>8</v>
       </c>
       <c r="G67" t="n">
-        <v>-1115.43290301</v>
+        <v>8841.666666666666</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2935,6 +3005,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2956,7 +3027,7 @@
         <v>4</v>
       </c>
       <c r="G68" t="n">
-        <v>-1115.43290301</v>
+        <v>8840</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
@@ -2976,6 +3047,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2997,7 +3069,7 @@
         <v>81</v>
       </c>
       <c r="G69" t="n">
-        <v>-1115.43290301</v>
+        <v>8840</v>
       </c>
       <c r="H69" t="n">
         <v>1</v>
@@ -3017,6 +3089,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3038,7 +3111,7 @@
         <v>40</v>
       </c>
       <c r="G70" t="n">
-        <v>-1155.43290301</v>
+        <v>8835</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3056,6 +3129,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3077,7 +3151,7 @@
         <v>68.3652</v>
       </c>
       <c r="G71" t="n">
-        <v>-1223.79810301</v>
+        <v>8825</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3095,6 +3169,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3116,7 +3191,7 @@
         <v>90.2968</v>
       </c>
       <c r="G72" t="n">
-        <v>-1133.50130301</v>
+        <v>8838.333333333334</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3134,6 +3209,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3155,7 +3231,7 @@
         <v>56.418</v>
       </c>
       <c r="G73" t="n">
-        <v>-1189.91930301</v>
+        <v>8836.666666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3173,6 +3249,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3194,7 +3271,7 @@
         <v>15.9771</v>
       </c>
       <c r="G74" t="n">
-        <v>-1173.94220301</v>
+        <v>8841.666666666666</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
@@ -3214,6 +3291,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3235,7 +3313,7 @@
         <v>18</v>
       </c>
       <c r="G75" t="n">
-        <v>-1155.94220301</v>
+        <v>8826.666666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3253,6 +3331,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3274,7 +3353,7 @@
         <v>0.5</v>
       </c>
       <c r="G76" t="n">
-        <v>-1156.44220301</v>
+        <v>8830</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
@@ -3294,6 +3373,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3315,7 +3395,7 @@
         <v>69.3343</v>
       </c>
       <c r="G77" t="n">
-        <v>-1087.10790301</v>
+        <v>8848.333333333334</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
@@ -3335,6 +3415,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3356,7 +3437,7 @@
         <v>11.1551</v>
       </c>
       <c r="G78" t="n">
-        <v>-1075.95280301</v>
+        <v>8866.666666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3374,6 +3455,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3395,7 +3477,7 @@
         <v>0.242</v>
       </c>
       <c r="G79" t="n">
-        <v>-1076.19480301</v>
+        <v>8868.333333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3413,6 +3495,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3434,7 +3517,7 @@
         <v>45.6425</v>
       </c>
       <c r="G80" t="n">
-        <v>-1030.55230301</v>
+        <v>8855</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3452,6 +3535,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3473,7 +3557,7 @@
         <v>4.9888</v>
       </c>
       <c r="G81" t="n">
-        <v>-1030.55230301</v>
+        <v>8838.333333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3491,6 +3575,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3512,7 +3597,7 @@
         <v>168.0659</v>
       </c>
       <c r="G82" t="n">
-        <v>-1198.61820301</v>
+        <v>8838.333333333334</v>
       </c>
       <c r="H82" t="n">
         <v>1</v>
@@ -3532,6 +3617,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3553,7 +3639,7 @@
         <v>10</v>
       </c>
       <c r="G83" t="n">
-        <v>-1188.61820301</v>
+        <v>8851.666666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3571,6 +3657,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3592,7 +3679,7 @@
         <v>18</v>
       </c>
       <c r="G84" t="n">
-        <v>-1170.61820301</v>
+        <v>8866.666666666666</v>
       </c>
       <c r="H84" t="n">
         <v>1</v>
@@ -3612,6 +3699,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3633,7 +3721,7 @@
         <v>16</v>
       </c>
       <c r="G85" t="n">
-        <v>-1154.61820301</v>
+        <v>8885</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3651,6 +3739,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3672,7 +3761,7 @@
         <v>26</v>
       </c>
       <c r="G86" t="n">
-        <v>-1154.61820301</v>
+        <v>8888.333333333334</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -3692,6 +3781,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3713,7 +3803,7 @@
         <v>178.3834</v>
       </c>
       <c r="G87" t="n">
-        <v>-976.2348030099997</v>
+        <v>8908.333333333334</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -3733,6 +3823,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3754,7 +3845,7 @@
         <v>459.0254232</v>
       </c>
       <c r="G88" t="n">
-        <v>-1435.26022621</v>
+        <v>8921.666666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3772,6 +3863,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3793,7 +3885,7 @@
         <v>5.5493</v>
       </c>
       <c r="G89" t="n">
-        <v>-1429.71092621</v>
+        <v>8961.666666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3811,6 +3903,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3832,7 +3925,7 @@
         <v>5.5433</v>
       </c>
       <c r="G90" t="n">
-        <v>-1424.16762621</v>
+        <v>8986.666666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3850,6 +3943,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3871,7 +3965,7 @@
         <v>578.9956</v>
       </c>
       <c r="G91" t="n">
-        <v>-845.1720262099998</v>
+        <v>9021.666666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3889,6 +3983,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3910,7 +4005,7 @@
         <v>123</v>
       </c>
       <c r="G92" t="n">
-        <v>-845.1720262099998</v>
+        <v>9030</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3928,6 +4023,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3949,7 +4045,7 @@
         <v>6</v>
       </c>
       <c r="G93" t="n">
-        <v>-845.1720262099998</v>
+        <v>9035</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3967,6 +4063,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3988,7 +4085,7 @@
         <v>3.8463</v>
       </c>
       <c r="G94" t="n">
-        <v>-849.0183262099998</v>
+        <v>9008.333333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4006,6 +4103,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4027,7 +4125,7 @@
         <v>116</v>
       </c>
       <c r="G95" t="n">
-        <v>-965.0183262099998</v>
+        <v>8980</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4045,6 +4143,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4066,7 +4165,7 @@
         <v>28.7212</v>
       </c>
       <c r="G96" t="n">
-        <v>-965.0183262099998</v>
+        <v>8951.666666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4084,6 +4183,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4105,7 +4205,7 @@
         <v>71.88460000000001</v>
       </c>
       <c r="G97" t="n">
-        <v>-965.0183262099998</v>
+        <v>8950</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -4125,6 +4225,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4146,7 +4247,7 @@
         <v>127.8804</v>
       </c>
       <c r="G98" t="n">
-        <v>-1092.89872621</v>
+        <v>8948.333333333334</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -4166,6 +4267,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4187,7 +4289,7 @@
         <v>111.4862</v>
       </c>
       <c r="G99" t="n">
-        <v>-981.4125262099997</v>
+        <v>8966.666666666666</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -4207,6 +4309,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4228,7 +4331,7 @@
         <v>13.3527768</v>
       </c>
       <c r="G100" t="n">
-        <v>-968.0597494099997</v>
+        <v>9000</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -4248,6 +4351,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4269,7 +4373,7 @@
         <v>6</v>
       </c>
       <c r="G101" t="n">
-        <v>-962.0597494099997</v>
+        <v>9036.666666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4287,6 +4391,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4308,7 +4413,7 @@
         <v>182</v>
       </c>
       <c r="G102" t="n">
-        <v>-780.0597494099997</v>
+        <v>9066.666666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4326,6 +4431,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4347,7 +4453,7 @@
         <v>166.0515</v>
       </c>
       <c r="G103" t="n">
-        <v>-614.0082494099996</v>
+        <v>9096.666666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4365,6 +4471,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4386,7 +4493,7 @@
         <v>50.9608</v>
       </c>
       <c r="G104" t="n">
-        <v>-563.0474494099997</v>
+        <v>9135</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4404,6 +4511,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4425,7 +4533,7 @@
         <v>69</v>
       </c>
       <c r="G105" t="n">
-        <v>-494.0474494099997</v>
+        <v>9161.666666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4443,6 +4551,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4464,7 +4573,7 @@
         <v>462.4078</v>
       </c>
       <c r="G106" t="n">
-        <v>-956.4552494099996</v>
+        <v>9150</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4482,6 +4591,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4503,7 +4613,7 @@
         <v>243.5135</v>
       </c>
       <c r="G107" t="n">
-        <v>-1199.96874941</v>
+        <v>9126.666666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4521,6 +4631,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4542,7 +4653,7 @@
         <v>80.13200000000001</v>
       </c>
       <c r="G108" t="n">
-        <v>-1119.83674941</v>
+        <v>9128.333333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4560,6 +4671,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4581,7 +4693,7 @@
         <v>149</v>
       </c>
       <c r="G109" t="n">
-        <v>-970.8367494099996</v>
+        <v>9163.333333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4599,6 +4711,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4620,7 +4733,7 @@
         <v>1.32</v>
       </c>
       <c r="G110" t="n">
-        <v>-969.5167494099995</v>
+        <v>9230</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4638,6 +4751,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4659,7 +4773,7 @@
         <v>997.03142947</v>
       </c>
       <c r="G111" t="n">
-        <v>27.5146800600005</v>
+        <v>9331.666666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4677,6 +4791,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4698,7 +4813,7 @@
         <v>74.6206</v>
       </c>
       <c r="G112" t="n">
-        <v>-47.1059199399995</v>
+        <v>9283.333333333334</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4716,6 +4831,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4737,7 +4853,7 @@
         <v>0.233</v>
       </c>
       <c r="G113" t="n">
-        <v>-46.8729199399995</v>
+        <v>9208.333333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4755,6 +4871,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4776,7 +4893,7 @@
         <v>0.2231</v>
       </c>
       <c r="G114" t="n">
-        <v>-46.6498199399995</v>
+        <v>9076.666666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4794,6 +4911,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4815,7 +4933,7 @@
         <v>0.1001</v>
       </c>
       <c r="G115" t="n">
-        <v>-46.5497199399995</v>
+        <v>9193.333333333334</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4833,6 +4951,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4854,7 +4973,7 @@
         <v>9.2387</v>
       </c>
       <c r="G116" t="n">
-        <v>-55.7884199399995</v>
+        <v>9270</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4872,6 +4991,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4893,7 +5013,7 @@
         <v>8.1</v>
       </c>
       <c r="G117" t="n">
-        <v>-63.8884199399995</v>
+        <v>9288.333333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4911,6 +5031,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4932,7 +5053,7 @@
         <v>10.9</v>
       </c>
       <c r="G118" t="n">
-        <v>-52.9884199399995</v>
+        <v>9200</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4950,6 +5071,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4971,7 +5093,7 @@
         <v>90</v>
       </c>
       <c r="G119" t="n">
-        <v>-142.9884199399995</v>
+        <v>9145</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4989,6 +5111,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5010,7 +5133,7 @@
         <v>150.1275</v>
       </c>
       <c r="G120" t="n">
-        <v>-142.9884199399995</v>
+        <v>9143.333333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5028,6 +5151,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5049,7 +5173,7 @@
         <v>30</v>
       </c>
       <c r="G121" t="n">
-        <v>-142.9884199399995</v>
+        <v>9140</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5067,6 +5191,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5088,7 +5213,7 @@
         <v>6.5361</v>
       </c>
       <c r="G122" t="n">
-        <v>-149.5245199399995</v>
+        <v>9126.666666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5106,6 +5231,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5127,7 +5253,7 @@
         <v>29.8353</v>
       </c>
       <c r="G123" t="n">
-        <v>-179.3598199399995</v>
+        <v>9108.333333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5145,6 +5271,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5166,7 +5293,7 @@
         <v>86.2436</v>
       </c>
       <c r="G124" t="n">
-        <v>-93.11621993999951</v>
+        <v>9121.666666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5184,6 +5311,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5205,7 +5333,7 @@
         <v>12.62386243</v>
       </c>
       <c r="G125" t="n">
-        <v>-80.49235750999951</v>
+        <v>9150</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5223,6 +5351,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5244,7 +5373,7 @@
         <v>141.9291</v>
       </c>
       <c r="G126" t="n">
-        <v>-80.49235750999951</v>
+        <v>9183.333333333334</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5262,6 +5391,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5283,7 +5413,7 @@
         <v>0.223</v>
       </c>
       <c r="G127" t="n">
-        <v>-80.26935750999951</v>
+        <v>9206.666666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5301,6 +5431,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5322,7 +5453,7 @@
         <v>0.3264</v>
       </c>
       <c r="G128" t="n">
-        <v>-80.59575750999952</v>
+        <v>9183.333333333334</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5340,6 +5471,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5361,7 +5493,7 @@
         <v>0.5468</v>
       </c>
       <c r="G129" t="n">
-        <v>-80.04895750999951</v>
+        <v>9205</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5379,6 +5511,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5400,23 +5533,24 @@
         <v>10</v>
       </c>
       <c r="G130" t="n">
-        <v>-90.04895750999951</v>
+        <v>9163.333333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>1.01638418079096</v>
       </c>
     </row>
     <row r="131">
@@ -5439,7 +5573,7 @@
         <v>10.7</v>
       </c>
       <c r="G131" t="n">
-        <v>-90.04895750999951</v>
+        <v>9166.666666666666</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5449,14 +5583,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5478,7 +5609,7 @@
         <v>56.1189</v>
       </c>
       <c r="G132" t="n">
-        <v>-33.93005750999951</v>
+        <v>9171.666666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5488,14 +5619,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5517,7 +5645,7 @@
         <v>23.1345</v>
       </c>
       <c r="G133" t="n">
-        <v>-57.06455750999952</v>
+        <v>9213.333333333334</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5527,14 +5655,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5556,24 +5681,21 @@
         <v>41</v>
       </c>
       <c r="G134" t="n">
-        <v>-98.06455750999952</v>
+        <v>9248.333333333334</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5595,7 +5717,7 @@
         <v>19.4976</v>
       </c>
       <c r="G135" t="n">
-        <v>-98.06455750999952</v>
+        <v>9236.666666666666</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5605,14 +5727,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5634,7 +5753,7 @@
         <v>0.1009</v>
       </c>
       <c r="G136" t="n">
-        <v>-97.96365750999952</v>
+        <v>9260</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5644,14 +5763,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5673,24 +5789,21 @@
         <v>5.61</v>
       </c>
       <c r="G137" t="n">
-        <v>-92.35365750999952</v>
+        <v>9313.333333333334</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5712,24 +5825,21 @@
         <v>4.9875</v>
       </c>
       <c r="G138" t="n">
-        <v>-97.34115750999952</v>
+        <v>9313.333333333334</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5751,7 +5861,7 @@
         <v>1.5778</v>
       </c>
       <c r="G139" t="n">
-        <v>-98.91895750999952</v>
+        <v>9276.666666666666</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5761,14 +5871,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5790,7 +5897,7 @@
         <v>0.139</v>
       </c>
       <c r="G140" t="n">
-        <v>-98.77995750999952</v>
+        <v>9271.666666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5800,14 +5907,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5829,7 +5933,7 @@
         <v>4.8863</v>
       </c>
       <c r="G141" t="n">
-        <v>-103.6662575099995</v>
+        <v>9275</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5839,12 +5943,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5866,7 +5969,7 @@
         <v>4.8777</v>
       </c>
       <c r="G142" t="n">
-        <v>-98.78855750999952</v>
+        <v>9288.333333333334</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5880,6 +5983,7 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest BTG.xlsx
+++ b/BackTest/2019-10-27 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8990</v>
+        <v>8865</v>
       </c>
       <c r="C2" t="n">
-        <v>8950</v>
+        <v>8865</v>
       </c>
       <c r="D2" t="n">
-        <v>8990</v>
+        <v>8865</v>
       </c>
       <c r="E2" t="n">
-        <v>8950</v>
+        <v>8865</v>
       </c>
       <c r="F2" t="n">
-        <v>6.3786</v>
+        <v>55.52</v>
       </c>
       <c r="G2" t="n">
-        <v>8950</v>
+        <v>-1172.5978</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8995</v>
+        <v>8865</v>
       </c>
       <c r="C3" t="n">
-        <v>8945</v>
+        <v>8865</v>
       </c>
       <c r="D3" t="n">
-        <v>8995</v>
+        <v>8865</v>
       </c>
       <c r="E3" t="n">
-        <v>8945</v>
+        <v>8865</v>
       </c>
       <c r="F3" t="n">
-        <v>84.151</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>8960</v>
+        <v>-1172.5978</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8945</v>
+        <v>8865</v>
       </c>
       <c r="C4" t="n">
-        <v>8945</v>
+        <v>8865</v>
       </c>
       <c r="D4" t="n">
-        <v>8945</v>
+        <v>8865</v>
       </c>
       <c r="E4" t="n">
-        <v>8945</v>
+        <v>8865</v>
       </c>
       <c r="F4" t="n">
-        <v>18.763</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>8946.666666666666</v>
+        <v>-1172.5978</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8950</v>
+        <v>8865</v>
       </c>
       <c r="C5" t="n">
-        <v>8950</v>
+        <v>8930</v>
       </c>
       <c r="D5" t="n">
-        <v>8950</v>
+        <v>8930</v>
       </c>
       <c r="E5" t="n">
-        <v>8950</v>
+        <v>8865</v>
       </c>
       <c r="F5" t="n">
-        <v>36.4389</v>
+        <v>28</v>
       </c>
       <c r="G5" t="n">
-        <v>8946.666666666666</v>
+        <v>-1144.5978</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8955</v>
+        <v>8870</v>
       </c>
       <c r="C6" t="n">
-        <v>8955</v>
+        <v>8950</v>
       </c>
       <c r="D6" t="n">
-        <v>8955</v>
+        <v>8950</v>
       </c>
       <c r="E6" t="n">
-        <v>8955</v>
+        <v>8870</v>
       </c>
       <c r="F6" t="n">
-        <v>18</v>
+        <v>16.0761</v>
       </c>
       <c r="G6" t="n">
-        <v>8950</v>
+        <v>-1128.5217</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8975</v>
+        <v>8955</v>
       </c>
       <c r="C7" t="n">
-        <v>8955</v>
+        <v>8960</v>
       </c>
       <c r="D7" t="n">
-        <v>8975</v>
+        <v>8960</v>
       </c>
       <c r="E7" t="n">
         <v>8955</v>
       </c>
       <c r="F7" t="n">
-        <v>100.276</v>
+        <v>53.5</v>
       </c>
       <c r="G7" t="n">
-        <v>8953.333333333334</v>
+        <v>-1075.0217</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8955</v>
+        <v>8950</v>
       </c>
       <c r="C8" t="n">
-        <v>8935</v>
+        <v>8950</v>
       </c>
       <c r="D8" t="n">
-        <v>8955</v>
+        <v>8950</v>
       </c>
       <c r="E8" t="n">
-        <v>8935</v>
+        <v>8950</v>
       </c>
       <c r="F8" t="n">
-        <v>38.6675</v>
+        <v>2.4995</v>
       </c>
       <c r="G8" t="n">
-        <v>8948.333333333334</v>
+        <v>-1077.5212</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8965</v>
+        <v>8955</v>
       </c>
       <c r="C9" t="n">
-        <v>8915</v>
+        <v>8955</v>
       </c>
       <c r="D9" t="n">
-        <v>8965</v>
+        <v>8955</v>
       </c>
       <c r="E9" t="n">
-        <v>8915</v>
+        <v>8955</v>
       </c>
       <c r="F9" t="n">
-        <v>18.7689</v>
+        <v>11.8699</v>
       </c>
       <c r="G9" t="n">
-        <v>8935</v>
+        <v>-1065.6513</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8920</v>
+        <v>8955</v>
       </c>
       <c r="C10" t="n">
-        <v>8920</v>
+        <v>8960</v>
       </c>
       <c r="D10" t="n">
-        <v>8920</v>
+        <v>8960</v>
       </c>
       <c r="E10" t="n">
-        <v>8920</v>
+        <v>8955</v>
       </c>
       <c r="F10" t="n">
-        <v>2.3959</v>
+        <v>70.8899</v>
       </c>
       <c r="G10" t="n">
-        <v>8923.333333333334</v>
+        <v>-994.7613999999998</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8920</v>
+        <v>8960</v>
       </c>
       <c r="C11" t="n">
-        <v>8920</v>
+        <v>8960</v>
       </c>
       <c r="D11" t="n">
-        <v>8920</v>
+        <v>8960</v>
       </c>
       <c r="E11" t="n">
-        <v>8920</v>
+        <v>8960</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>7.6125</v>
       </c>
       <c r="G11" t="n">
-        <v>8918.333333333334</v>
+        <v>-994.7613999999998</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8930</v>
+        <v>8925</v>
       </c>
       <c r="C12" t="n">
-        <v>8930</v>
+        <v>8925</v>
       </c>
       <c r="D12" t="n">
-        <v>8930</v>
+        <v>8925</v>
       </c>
       <c r="E12" t="n">
-        <v>8930</v>
+        <v>8925</v>
       </c>
       <c r="F12" t="n">
-        <v>330.734</v>
+        <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>8923.333333333334</v>
+        <v>-1018.7614</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -846,10 +846,10 @@
         <v>8925</v>
       </c>
       <c r="F13" t="n">
-        <v>17.4303</v>
+        <v>16</v>
       </c>
       <c r="G13" t="n">
-        <v>8925</v>
+        <v>-1018.7614</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8925</v>
+        <v>8930</v>
       </c>
       <c r="C14" t="n">
-        <v>8900</v>
+        <v>8935</v>
       </c>
       <c r="D14" t="n">
-        <v>8925</v>
+        <v>8935</v>
       </c>
       <c r="E14" t="n">
-        <v>8900</v>
+        <v>8930</v>
       </c>
       <c r="F14" t="n">
-        <v>119.4206</v>
+        <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>8918.333333333334</v>
+        <v>-1002.7614</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8930</v>
+        <v>8935</v>
       </c>
       <c r="C15" t="n">
-        <v>8930</v>
+        <v>8925</v>
       </c>
       <c r="D15" t="n">
-        <v>8930</v>
+        <v>8935</v>
       </c>
       <c r="E15" t="n">
-        <v>8930</v>
+        <v>8925</v>
       </c>
       <c r="F15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" t="n">
-        <v>8918.333333333334</v>
+        <v>-1021.7614</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8920</v>
+        <v>8930</v>
       </c>
       <c r="C16" t="n">
-        <v>8930</v>
+        <v>8925</v>
       </c>
       <c r="D16" t="n">
         <v>8930</v>
       </c>
       <c r="E16" t="n">
-        <v>8920</v>
+        <v>8925</v>
       </c>
       <c r="F16" t="n">
-        <v>114.9563</v>
+        <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>8920</v>
+        <v>-1021.7614</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8920</v>
+        <v>8930</v>
       </c>
       <c r="C17" t="n">
-        <v>8920</v>
+        <v>8930</v>
       </c>
       <c r="D17" t="n">
-        <v>8920</v>
+        <v>8930</v>
       </c>
       <c r="E17" t="n">
-        <v>8920</v>
+        <v>8930</v>
       </c>
       <c r="F17" t="n">
-        <v>22.8604</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>8926.666666666666</v>
+        <v>-1017.7614</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1017,19 +1017,19 @@
         <v>8930</v>
       </c>
       <c r="C18" t="n">
-        <v>8930</v>
+        <v>8900</v>
       </c>
       <c r="D18" t="n">
         <v>8930</v>
       </c>
       <c r="E18" t="n">
-        <v>8930</v>
+        <v>8900</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1</v>
+        <v>395.2605</v>
       </c>
       <c r="G18" t="n">
-        <v>8926.666666666666</v>
+        <v>-1413.0219</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8920</v>
+        <v>8900</v>
       </c>
       <c r="C19" t="n">
-        <v>8920</v>
+        <v>8900</v>
       </c>
       <c r="D19" t="n">
-        <v>8920</v>
+        <v>8900</v>
       </c>
       <c r="E19" t="n">
-        <v>8920</v>
+        <v>8900</v>
       </c>
       <c r="F19" t="n">
-        <v>38.6479</v>
+        <v>18.0825</v>
       </c>
       <c r="G19" t="n">
-        <v>8923.333333333334</v>
+        <v>-1413.0219</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8900</v>
+        <v>8930</v>
       </c>
       <c r="C20" t="n">
-        <v>8900</v>
+        <v>8930</v>
       </c>
       <c r="D20" t="n">
-        <v>8900</v>
+        <v>8930</v>
       </c>
       <c r="E20" t="n">
-        <v>8900</v>
+        <v>8930</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2135</v>
+        <v>38.2232</v>
       </c>
       <c r="G20" t="n">
-        <v>8916.666666666666</v>
+        <v>-1374.7987</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8890</v>
+        <v>8900</v>
       </c>
       <c r="C21" t="n">
-        <v>8890</v>
+        <v>8900</v>
       </c>
       <c r="D21" t="n">
-        <v>8890</v>
+        <v>8900</v>
       </c>
       <c r="E21" t="n">
-        <v>8890</v>
+        <v>8900</v>
       </c>
       <c r="F21" t="n">
-        <v>1.1242</v>
+        <v>0.2659</v>
       </c>
       <c r="G21" t="n">
-        <v>8903.333333333334</v>
+        <v>-1375.0646</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>8855</v>
+        <v>8900</v>
       </c>
       <c r="C22" t="n">
-        <v>8855</v>
+        <v>8900</v>
       </c>
       <c r="D22" t="n">
-        <v>8855</v>
+        <v>8900</v>
       </c>
       <c r="E22" t="n">
-        <v>8855</v>
+        <v>8900</v>
       </c>
       <c r="F22" t="n">
-        <v>16.3551</v>
+        <v>1.4044</v>
       </c>
       <c r="G22" t="n">
-        <v>8881.666666666666</v>
+        <v>-1375.0646</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>8855</v>
+        <v>8930</v>
       </c>
       <c r="C23" t="n">
-        <v>8855</v>
+        <v>8930</v>
       </c>
       <c r="D23" t="n">
-        <v>8855</v>
+        <v>8930</v>
       </c>
       <c r="E23" t="n">
-        <v>8855</v>
+        <v>8930</v>
       </c>
       <c r="F23" t="n">
-        <v>59.8391</v>
+        <v>20.3177</v>
       </c>
       <c r="G23" t="n">
-        <v>8866.666666666666</v>
+        <v>-1354.7469</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>8905</v>
+        <v>8945</v>
       </c>
       <c r="C24" t="n">
-        <v>8905</v>
+        <v>8950</v>
       </c>
       <c r="D24" t="n">
-        <v>8905</v>
+        <v>8950</v>
       </c>
       <c r="E24" t="n">
-        <v>8905</v>
+        <v>8945</v>
       </c>
       <c r="F24" t="n">
-        <v>1.0787</v>
+        <v>57.94</v>
       </c>
       <c r="G24" t="n">
-        <v>8871.666666666666</v>
+        <v>-1296.8069</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>8900</v>
+        <v>8950</v>
       </c>
       <c r="C25" t="n">
-        <v>8900</v>
+        <v>8950</v>
       </c>
       <c r="D25" t="n">
-        <v>8900</v>
+        <v>8950</v>
       </c>
       <c r="E25" t="n">
-        <v>8900</v>
+        <v>8950</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G25" t="n">
-        <v>8886.666666666666</v>
+        <v>-1296.8069</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>8900</v>
+        <v>8960</v>
       </c>
       <c r="C26" t="n">
-        <v>8900</v>
+        <v>8960</v>
       </c>
       <c r="D26" t="n">
-        <v>8900</v>
+        <v>8960</v>
       </c>
       <c r="E26" t="n">
-        <v>8900</v>
+        <v>8960</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1123</v>
+        <v>0.5</v>
       </c>
       <c r="G26" t="n">
-        <v>8901.666666666666</v>
+        <v>-1296.3069</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>8855</v>
+        <v>8960</v>
       </c>
       <c r="C27" t="n">
-        <v>8870</v>
+        <v>8960</v>
       </c>
       <c r="D27" t="n">
-        <v>8870</v>
+        <v>8960</v>
       </c>
       <c r="E27" t="n">
-        <v>8850</v>
+        <v>8960</v>
       </c>
       <c r="F27" t="n">
-        <v>109.2789</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>8890</v>
+        <v>-1296.3069</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,38 +1374,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>8865</v>
+        <v>8960</v>
       </c>
       <c r="C28" t="n">
-        <v>8870</v>
+        <v>8960</v>
       </c>
       <c r="D28" t="n">
-        <v>8870</v>
+        <v>8960</v>
       </c>
       <c r="E28" t="n">
-        <v>8865</v>
+        <v>8960</v>
       </c>
       <c r="F28" t="n">
-        <v>88.85890000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G28" t="n">
-        <v>8880</v>
+        <v>-1296.3069</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>8870</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1416,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>8850</v>
+        <v>8960</v>
       </c>
       <c r="C29" t="n">
-        <v>8850</v>
+        <v>8915</v>
       </c>
       <c r="D29" t="n">
-        <v>8850</v>
+        <v>8960</v>
       </c>
       <c r="E29" t="n">
-        <v>8850</v>
+        <v>8915</v>
       </c>
       <c r="F29" t="n">
-        <v>15.2679</v>
+        <v>78.2285</v>
       </c>
       <c r="G29" t="n">
-        <v>8863.333333333334</v>
+        <v>-1374.5354</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1441,11 +1435,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1456,38 +1446,32 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>8840</v>
+        <v>8960</v>
       </c>
       <c r="C30" t="n">
-        <v>8825</v>
+        <v>8985</v>
       </c>
       <c r="D30" t="n">
-        <v>8840</v>
+        <v>8990</v>
       </c>
       <c r="E30" t="n">
-        <v>8825</v>
+        <v>8960</v>
       </c>
       <c r="F30" t="n">
-        <v>52.8207</v>
+        <v>97.02529699</v>
       </c>
       <c r="G30" t="n">
-        <v>8848.333333333334</v>
+        <v>-1277.51010301</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>8850</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1498,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>8845</v>
+        <v>8990</v>
       </c>
       <c r="C31" t="n">
-        <v>8840</v>
+        <v>8950</v>
       </c>
       <c r="D31" t="n">
-        <v>8845</v>
+        <v>8990</v>
       </c>
       <c r="E31" t="n">
-        <v>8840</v>
+        <v>8950</v>
       </c>
       <c r="F31" t="n">
-        <v>42.31</v>
+        <v>6.3786</v>
       </c>
       <c r="G31" t="n">
-        <v>8838.333333333334</v>
+        <v>-1283.88870301</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1523,11 +1507,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1538,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>8845</v>
+        <v>8995</v>
       </c>
       <c r="C32" t="n">
-        <v>8840</v>
+        <v>8945</v>
       </c>
       <c r="D32" t="n">
-        <v>8845</v>
+        <v>8995</v>
       </c>
       <c r="E32" t="n">
-        <v>8805</v>
+        <v>8945</v>
       </c>
       <c r="F32" t="n">
-        <v>51.0669</v>
+        <v>84.151</v>
       </c>
       <c r="G32" t="n">
-        <v>8835</v>
+        <v>-1368.03970301</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1563,11 +1543,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1578,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>8840</v>
+        <v>8945</v>
       </c>
       <c r="C33" t="n">
-        <v>8840</v>
+        <v>8945</v>
       </c>
       <c r="D33" t="n">
-        <v>8840</v>
+        <v>8945</v>
       </c>
       <c r="E33" t="n">
-        <v>8840</v>
+        <v>8945</v>
       </c>
       <c r="F33" t="n">
-        <v>7.27</v>
+        <v>18.763</v>
       </c>
       <c r="G33" t="n">
-        <v>8840</v>
+        <v>-1368.03970301</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1603,11 +1579,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1618,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>8845</v>
+        <v>8950</v>
       </c>
       <c r="C34" t="n">
-        <v>8850</v>
+        <v>8950</v>
       </c>
       <c r="D34" t="n">
-        <v>8850</v>
+        <v>8950</v>
       </c>
       <c r="E34" t="n">
-        <v>8845</v>
+        <v>8950</v>
       </c>
       <c r="F34" t="n">
-        <v>129.3407</v>
+        <v>36.4389</v>
       </c>
       <c r="G34" t="n">
-        <v>8843.333333333334</v>
+        <v>-1331.60080301</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1643,11 +1615,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1658,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>8835</v>
+        <v>8955</v>
       </c>
       <c r="C35" t="n">
-        <v>8835</v>
+        <v>8955</v>
       </c>
       <c r="D35" t="n">
-        <v>8835</v>
+        <v>8955</v>
       </c>
       <c r="E35" t="n">
-        <v>8835</v>
+        <v>8955</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G35" t="n">
-        <v>8841.666666666666</v>
+        <v>-1313.60080301</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1683,11 +1651,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>8870</v>
+        <v>8975</v>
       </c>
       <c r="C36" t="n">
-        <v>8895</v>
+        <v>8955</v>
       </c>
       <c r="D36" t="n">
-        <v>8895</v>
+        <v>8975</v>
       </c>
       <c r="E36" t="n">
-        <v>8870</v>
+        <v>8955</v>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>100.276</v>
       </c>
       <c r="G36" t="n">
-        <v>8860</v>
+        <v>-1313.60080301</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1723,11 +1687,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1738,38 +1698,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>8845</v>
+        <v>8955</v>
       </c>
       <c r="C37" t="n">
-        <v>8845</v>
+        <v>8935</v>
       </c>
       <c r="D37" t="n">
-        <v>8845</v>
+        <v>8955</v>
       </c>
       <c r="E37" t="n">
-        <v>8845</v>
+        <v>8935</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>38.6675</v>
       </c>
       <c r="G37" t="n">
-        <v>8858.333333333334</v>
+        <v>-1352.26830301</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>8895</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1780,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>8845</v>
+        <v>8965</v>
       </c>
       <c r="C38" t="n">
-        <v>8845</v>
+        <v>8915</v>
       </c>
       <c r="D38" t="n">
-        <v>8845</v>
+        <v>8965</v>
       </c>
       <c r="E38" t="n">
-        <v>8845</v>
+        <v>8915</v>
       </c>
       <c r="F38" t="n">
-        <v>8.075200000000001</v>
+        <v>18.7689</v>
       </c>
       <c r="G38" t="n">
-        <v>8861.666666666666</v>
+        <v>-1371.03720301</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1805,11 +1759,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1820,38 +1770,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>8850</v>
+        <v>8920</v>
       </c>
       <c r="C39" t="n">
-        <v>8850</v>
+        <v>8920</v>
       </c>
       <c r="D39" t="n">
-        <v>8850</v>
+        <v>8920</v>
       </c>
       <c r="E39" t="n">
-        <v>8850</v>
+        <v>8920</v>
       </c>
       <c r="F39" t="n">
-        <v>38.0653</v>
+        <v>2.3959</v>
       </c>
       <c r="G39" t="n">
-        <v>8846.666666666666</v>
+        <v>-1368.64130301</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>8845</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1862,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>8850</v>
+        <v>8920</v>
       </c>
       <c r="C40" t="n">
-        <v>8850</v>
+        <v>8920</v>
       </c>
       <c r="D40" t="n">
-        <v>8850</v>
+        <v>8920</v>
       </c>
       <c r="E40" t="n">
-        <v>8850</v>
+        <v>8920</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1</v>
+        <v>20</v>
       </c>
       <c r="G40" t="n">
-        <v>8848.333333333334</v>
+        <v>-1368.64130301</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1887,11 +1831,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1902,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>8850</v>
+        <v>8930</v>
       </c>
       <c r="C41" t="n">
-        <v>8850</v>
+        <v>8930</v>
       </c>
       <c r="D41" t="n">
-        <v>8850</v>
+        <v>8930</v>
       </c>
       <c r="E41" t="n">
-        <v>8850</v>
+        <v>8930</v>
       </c>
       <c r="F41" t="n">
-        <v>8.697900000000001</v>
+        <v>330.734</v>
       </c>
       <c r="G41" t="n">
-        <v>8850</v>
+        <v>-1037.90730301</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1927,11 +1867,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1942,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>8855</v>
+        <v>8925</v>
       </c>
       <c r="C42" t="n">
-        <v>8855</v>
+        <v>8925</v>
       </c>
       <c r="D42" t="n">
-        <v>8855</v>
+        <v>8925</v>
       </c>
       <c r="E42" t="n">
-        <v>8855</v>
+        <v>8925</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2</v>
+        <v>17.4303</v>
       </c>
       <c r="G42" t="n">
-        <v>8851.666666666666</v>
+        <v>-1055.33760301</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1967,11 +1903,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1982,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>8850</v>
+        <v>8925</v>
       </c>
       <c r="C43" t="n">
-        <v>8835</v>
+        <v>8900</v>
       </c>
       <c r="D43" t="n">
-        <v>8850</v>
+        <v>8925</v>
       </c>
       <c r="E43" t="n">
-        <v>8835</v>
+        <v>8900</v>
       </c>
       <c r="F43" t="n">
-        <v>8</v>
+        <v>119.4206</v>
       </c>
       <c r="G43" t="n">
-        <v>8846.666666666666</v>
+        <v>-1174.75820301</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2007,11 +1939,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2022,38 +1950,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>8840</v>
+        <v>8930</v>
       </c>
       <c r="C44" t="n">
-        <v>8830</v>
+        <v>8930</v>
       </c>
       <c r="D44" t="n">
-        <v>8840</v>
+        <v>8930</v>
       </c>
       <c r="E44" t="n">
-        <v>8830</v>
+        <v>8930</v>
       </c>
       <c r="F44" t="n">
-        <v>78.062</v>
+        <v>20</v>
       </c>
       <c r="G44" t="n">
-        <v>8840</v>
+        <v>-1154.75820301</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>8835</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2064,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>8835</v>
+        <v>8920</v>
       </c>
       <c r="C45" t="n">
-        <v>8830</v>
+        <v>8930</v>
       </c>
       <c r="D45" t="n">
-        <v>8835</v>
+        <v>8930</v>
       </c>
       <c r="E45" t="n">
-        <v>8830</v>
+        <v>8920</v>
       </c>
       <c r="F45" t="n">
-        <v>67.91240000000001</v>
+        <v>114.9563</v>
       </c>
       <c r="G45" t="n">
-        <v>8831.666666666666</v>
+        <v>-1154.75820301</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2089,11 +2011,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2104,38 +2022,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>8830</v>
+        <v>8920</v>
       </c>
       <c r="C46" t="n">
-        <v>8830</v>
+        <v>8920</v>
       </c>
       <c r="D46" t="n">
-        <v>8830</v>
+        <v>8920</v>
       </c>
       <c r="E46" t="n">
-        <v>8830</v>
+        <v>8920</v>
       </c>
       <c r="F46" t="n">
-        <v>43.1677</v>
+        <v>22.8604</v>
       </c>
       <c r="G46" t="n">
-        <v>8830</v>
+        <v>-1177.61860301</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>8830</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2146,38 +2058,32 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>8830</v>
+        <v>8930</v>
       </c>
       <c r="C47" t="n">
-        <v>8830</v>
+        <v>8930</v>
       </c>
       <c r="D47" t="n">
-        <v>8830</v>
+        <v>8930</v>
       </c>
       <c r="E47" t="n">
-        <v>8830</v>
+        <v>8930</v>
       </c>
       <c r="F47" t="n">
-        <v>10.1002</v>
+        <v>0.1</v>
       </c>
       <c r="G47" t="n">
-        <v>8830</v>
+        <v>-1177.51860301</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>8830</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2188,38 +2094,32 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>8830</v>
+        <v>8920</v>
       </c>
       <c r="C48" t="n">
-        <v>8830</v>
+        <v>8920</v>
       </c>
       <c r="D48" t="n">
-        <v>8830</v>
+        <v>8920</v>
       </c>
       <c r="E48" t="n">
-        <v>8830</v>
+        <v>8920</v>
       </c>
       <c r="F48" t="n">
-        <v>49.7667</v>
+        <v>38.6479</v>
       </c>
       <c r="G48" t="n">
-        <v>8830</v>
+        <v>-1216.16650301</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>8830</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2230,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>8830</v>
+        <v>8900</v>
       </c>
       <c r="C49" t="n">
-        <v>8830</v>
+        <v>8900</v>
       </c>
       <c r="D49" t="n">
-        <v>8830</v>
+        <v>8900</v>
       </c>
       <c r="E49" t="n">
-        <v>8830</v>
+        <v>8900</v>
       </c>
       <c r="F49" t="n">
-        <v>26.8898</v>
+        <v>0.2135</v>
       </c>
       <c r="G49" t="n">
-        <v>8830</v>
+        <v>-1216.38000301</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2255,11 +2155,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2270,38 +2166,32 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>8830</v>
+        <v>8890</v>
       </c>
       <c r="C50" t="n">
-        <v>8830</v>
+        <v>8890</v>
       </c>
       <c r="D50" t="n">
-        <v>8860</v>
+        <v>8890</v>
       </c>
       <c r="E50" t="n">
-        <v>8830</v>
+        <v>8890</v>
       </c>
       <c r="F50" t="n">
-        <v>175.6023</v>
+        <v>1.1242</v>
       </c>
       <c r="G50" t="n">
-        <v>8830</v>
+        <v>-1217.50420301</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>8830</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2312,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>8830</v>
+        <v>8855</v>
       </c>
       <c r="C51" t="n">
-        <v>8850</v>
+        <v>8855</v>
       </c>
       <c r="D51" t="n">
-        <v>8850</v>
+        <v>8855</v>
       </c>
       <c r="E51" t="n">
-        <v>8830</v>
+        <v>8855</v>
       </c>
       <c r="F51" t="n">
-        <v>12.1085</v>
+        <v>16.3551</v>
       </c>
       <c r="G51" t="n">
-        <v>8836.666666666666</v>
+        <v>-1233.85930301</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2337,11 +2227,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2352,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>8820</v>
+        <v>8855</v>
       </c>
       <c r="C52" t="n">
-        <v>8825</v>
+        <v>8855</v>
       </c>
       <c r="D52" t="n">
-        <v>8860</v>
+        <v>8855</v>
       </c>
       <c r="E52" t="n">
-        <v>8820</v>
+        <v>8855</v>
       </c>
       <c r="F52" t="n">
-        <v>11.0567</v>
+        <v>59.8391</v>
       </c>
       <c r="G52" t="n">
-        <v>8835</v>
+        <v>-1233.85930301</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2377,11 +2263,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2392,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>8855</v>
+        <v>8905</v>
       </c>
       <c r="C53" t="n">
-        <v>8825</v>
+        <v>8905</v>
       </c>
       <c r="D53" t="n">
-        <v>8855</v>
+        <v>8905</v>
       </c>
       <c r="E53" t="n">
-        <v>8825</v>
+        <v>8905</v>
       </c>
       <c r="F53" t="n">
-        <v>101.1796</v>
+        <v>1.0787</v>
       </c>
       <c r="G53" t="n">
-        <v>8833.333333333334</v>
+        <v>-1232.78060301</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2417,11 +2299,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2432,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>8855</v>
+        <v>8900</v>
       </c>
       <c r="C54" t="n">
-        <v>8860</v>
+        <v>8900</v>
       </c>
       <c r="D54" t="n">
-        <v>8860</v>
+        <v>8900</v>
       </c>
       <c r="E54" t="n">
-        <v>8855</v>
+        <v>8900</v>
       </c>
       <c r="F54" t="n">
-        <v>110.3645</v>
+        <v>0.6</v>
       </c>
       <c r="G54" t="n">
-        <v>8836.666666666666</v>
+        <v>-1233.38060301</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2457,11 +2335,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2472,38 +2346,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>8850</v>
+        <v>8900</v>
       </c>
       <c r="C55" t="n">
-        <v>8860</v>
+        <v>8900</v>
       </c>
       <c r="D55" t="n">
-        <v>8860</v>
+        <v>8900</v>
       </c>
       <c r="E55" t="n">
-        <v>8850</v>
+        <v>8900</v>
       </c>
       <c r="F55" t="n">
-        <v>19.1086</v>
+        <v>0.1123</v>
       </c>
       <c r="G55" t="n">
-        <v>8848.333333333334</v>
+        <v>-1233.38060301</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>8860</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2514,38 +2382,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>8850</v>
+        <v>8855</v>
       </c>
       <c r="C56" t="n">
-        <v>8850</v>
+        <v>8870</v>
       </c>
       <c r="D56" t="n">
-        <v>8850</v>
+        <v>8870</v>
       </c>
       <c r="E56" t="n">
         <v>8850</v>
       </c>
       <c r="F56" t="n">
-        <v>7</v>
+        <v>109.2789</v>
       </c>
       <c r="G56" t="n">
-        <v>8856.666666666666</v>
+        <v>-1342.65950301</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>8860</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2556,38 +2418,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>8850</v>
+        <v>8865</v>
       </c>
       <c r="C57" t="n">
-        <v>8850</v>
+        <v>8870</v>
       </c>
       <c r="D57" t="n">
-        <v>8850</v>
+        <v>8870</v>
       </c>
       <c r="E57" t="n">
-        <v>8850</v>
+        <v>8865</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>88.85890000000001</v>
       </c>
       <c r="G57" t="n">
-        <v>8853.333333333334</v>
+        <v>-1342.65950301</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>8850</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2610,26 +2466,20 @@
         <v>8850</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>15.2679</v>
       </c>
       <c r="G58" t="n">
-        <v>8850</v>
+        <v>-1357.92740301</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>8850</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2640,38 +2490,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>8850</v>
+        <v>8840</v>
       </c>
       <c r="C59" t="n">
-        <v>8850</v>
+        <v>8825</v>
       </c>
       <c r="D59" t="n">
-        <v>8850</v>
+        <v>8840</v>
       </c>
       <c r="E59" t="n">
-        <v>8850</v>
+        <v>8825</v>
       </c>
       <c r="F59" t="n">
-        <v>27</v>
+        <v>52.8207</v>
       </c>
       <c r="G59" t="n">
-        <v>8850</v>
+        <v>-1410.74810301</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>8850</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2682,38 +2526,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>8850</v>
+        <v>8845</v>
       </c>
       <c r="C60" t="n">
-        <v>8850</v>
+        <v>8840</v>
       </c>
       <c r="D60" t="n">
-        <v>8850</v>
+        <v>8845</v>
       </c>
       <c r="E60" t="n">
-        <v>8850</v>
+        <v>8840</v>
       </c>
       <c r="F60" t="n">
-        <v>16</v>
+        <v>42.31</v>
       </c>
       <c r="G60" t="n">
-        <v>8850</v>
+        <v>-1368.43810301</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>8850</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2724,38 +2562,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>8850</v>
+        <v>8845</v>
       </c>
       <c r="C61" t="n">
-        <v>8850</v>
+        <v>8840</v>
       </c>
       <c r="D61" t="n">
-        <v>8850</v>
+        <v>8845</v>
       </c>
       <c r="E61" t="n">
-        <v>8850</v>
+        <v>8805</v>
       </c>
       <c r="F61" t="n">
-        <v>20</v>
+        <v>51.0669</v>
       </c>
       <c r="G61" t="n">
-        <v>8850</v>
+        <v>-1368.43810301</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>8850</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2766,38 +2598,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>8850</v>
+        <v>8840</v>
       </c>
       <c r="C62" t="n">
-        <v>8850</v>
+        <v>8840</v>
       </c>
       <c r="D62" t="n">
-        <v>8850</v>
+        <v>8840</v>
       </c>
       <c r="E62" t="n">
-        <v>8850</v>
+        <v>8840</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>7.27</v>
       </c>
       <c r="G62" t="n">
-        <v>8850</v>
+        <v>-1368.43810301</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>8850</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2808,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>8845</v>
+      </c>
+      <c r="C63" t="n">
         <v>8850</v>
-      </c>
-      <c r="C63" t="n">
-        <v>8835</v>
       </c>
       <c r="D63" t="n">
         <v>8850</v>
       </c>
       <c r="E63" t="n">
-        <v>8835</v>
+        <v>8845</v>
       </c>
       <c r="F63" t="n">
-        <v>9.975</v>
+        <v>129.3407</v>
       </c>
       <c r="G63" t="n">
-        <v>8845</v>
+        <v>-1239.09740301</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -2832,14 +2658,12 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>8840</v>
+      </c>
+      <c r="K63" t="n">
+        <v>8840</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2850,34 +2674,38 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>8835</v>
+      </c>
+      <c r="C64" t="n">
+        <v>8835</v>
+      </c>
+      <c r="D64" t="n">
+        <v>8835</v>
+      </c>
+      <c r="E64" t="n">
+        <v>8835</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-1241.09740301</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
         <v>8850</v>
       </c>
-      <c r="C64" t="n">
-        <v>8850</v>
-      </c>
-      <c r="D64" t="n">
-        <v>8850</v>
-      </c>
-      <c r="E64" t="n">
-        <v>8850</v>
-      </c>
-      <c r="F64" t="n">
-        <v>5.0199</v>
-      </c>
-      <c r="G64" t="n">
-        <v>8845</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>8840</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M64" t="n">
@@ -2890,22 +2718,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>8845</v>
+        <v>8870</v>
       </c>
       <c r="C65" t="n">
-        <v>8845</v>
+        <v>8895</v>
       </c>
       <c r="D65" t="n">
-        <v>8845</v>
+        <v>8895</v>
       </c>
       <c r="E65" t="n">
-        <v>8845</v>
+        <v>8870</v>
       </c>
       <c r="F65" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="G65" t="n">
-        <v>8843.333333333334</v>
+        <v>-1141.09740301</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2914,10 +2742,12 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>8840</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M65" t="n">
@@ -2933,35 +2763,29 @@
         <v>8845</v>
       </c>
       <c r="C66" t="n">
-        <v>8840</v>
+        <v>8845</v>
       </c>
       <c r="D66" t="n">
         <v>8845</v>
       </c>
       <c r="E66" t="n">
-        <v>8840</v>
+        <v>8845</v>
       </c>
       <c r="F66" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>8845</v>
+        <v>-1143.09740301</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>8845</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2972,22 +2796,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>8840</v>
+        <v>8845</v>
       </c>
       <c r="C67" t="n">
-        <v>8840</v>
+        <v>8845</v>
       </c>
       <c r="D67" t="n">
-        <v>8840</v>
+        <v>8845</v>
       </c>
       <c r="E67" t="n">
-        <v>8840</v>
+        <v>8845</v>
       </c>
       <c r="F67" t="n">
-        <v>8</v>
+        <v>8.075200000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>8841.666666666666</v>
+        <v>-1143.09740301</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2997,11 +2821,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3012,38 +2832,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>8840</v>
+        <v>8850</v>
       </c>
       <c r="C68" t="n">
-        <v>8840</v>
+        <v>8850</v>
       </c>
       <c r="D68" t="n">
-        <v>8840</v>
+        <v>8850</v>
       </c>
       <c r="E68" t="n">
-        <v>8840</v>
+        <v>8850</v>
       </c>
       <c r="F68" t="n">
-        <v>4</v>
+        <v>38.0653</v>
       </c>
       <c r="G68" t="n">
-        <v>8840</v>
+        <v>-1105.03210301</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>8840</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3054,38 +2868,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>8840</v>
+        <v>8850</v>
       </c>
       <c r="C69" t="n">
-        <v>8840</v>
+        <v>8850</v>
       </c>
       <c r="D69" t="n">
-        <v>8840</v>
+        <v>8850</v>
       </c>
       <c r="E69" t="n">
-        <v>8840</v>
+        <v>8850</v>
       </c>
       <c r="F69" t="n">
-        <v>81</v>
+        <v>0.1</v>
       </c>
       <c r="G69" t="n">
-        <v>8840</v>
+        <v>-1105.03210301</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>8840</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3096,22 +2904,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>8825</v>
+        <v>8850</v>
       </c>
       <c r="C70" t="n">
-        <v>8825</v>
+        <v>8850</v>
       </c>
       <c r="D70" t="n">
-        <v>8825</v>
+        <v>8850</v>
       </c>
       <c r="E70" t="n">
-        <v>8825</v>
+        <v>8850</v>
       </c>
       <c r="F70" t="n">
-        <v>40</v>
+        <v>8.697900000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>8835</v>
+        <v>-1105.03210301</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3121,11 +2929,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3136,22 +2940,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>8825</v>
+        <v>8855</v>
       </c>
       <c r="C71" t="n">
-        <v>8810</v>
+        <v>8855</v>
       </c>
       <c r="D71" t="n">
-        <v>8825</v>
+        <v>8855</v>
       </c>
       <c r="E71" t="n">
-        <v>8810</v>
+        <v>8855</v>
       </c>
       <c r="F71" t="n">
-        <v>68.3652</v>
+        <v>0.2</v>
       </c>
       <c r="G71" t="n">
-        <v>8825</v>
+        <v>-1104.83210301</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3161,11 +2965,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3176,22 +2976,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>8825</v>
+        <v>8850</v>
       </c>
       <c r="C72" t="n">
-        <v>8880</v>
+        <v>8835</v>
       </c>
       <c r="D72" t="n">
-        <v>8880</v>
+        <v>8850</v>
       </c>
       <c r="E72" t="n">
-        <v>8825</v>
+        <v>8835</v>
       </c>
       <c r="F72" t="n">
-        <v>90.2968</v>
+        <v>8</v>
       </c>
       <c r="G72" t="n">
-        <v>8838.333333333334</v>
+        <v>-1112.83210301</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3201,11 +3001,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3216,22 +3012,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>8825</v>
+        <v>8840</v>
       </c>
       <c r="C73" t="n">
-        <v>8820</v>
+        <v>8830</v>
       </c>
       <c r="D73" t="n">
+        <v>8840</v>
+      </c>
+      <c r="E73" t="n">
         <v>8830</v>
       </c>
-      <c r="E73" t="n">
-        <v>8820</v>
-      </c>
       <c r="F73" t="n">
-        <v>56.418</v>
+        <v>78.062</v>
       </c>
       <c r="G73" t="n">
-        <v>8836.666666666666</v>
+        <v>-1190.89410301</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3241,11 +3037,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3256,22 +3048,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>8825</v>
+        <v>8835</v>
       </c>
       <c r="C74" t="n">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="D74" t="n">
-        <v>8825</v>
+        <v>8835</v>
       </c>
       <c r="E74" t="n">
-        <v>8825</v>
+        <v>8830</v>
       </c>
       <c r="F74" t="n">
-        <v>15.9771</v>
+        <v>67.91240000000001</v>
       </c>
       <c r="G74" t="n">
-        <v>8841.666666666666</v>
+        <v>-1190.89410301</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
@@ -3280,12 +3072,12 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>8820</v>
+        <v>8830</v>
       </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -3298,30 +3090,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>8835</v>
+        <v>8830</v>
       </c>
       <c r="C75" t="n">
-        <v>8835</v>
+        <v>8830</v>
       </c>
       <c r="D75" t="n">
-        <v>8835</v>
+        <v>8830</v>
       </c>
       <c r="E75" t="n">
-        <v>8835</v>
+        <v>8830</v>
       </c>
       <c r="F75" t="n">
-        <v>18</v>
+        <v>43.1677</v>
       </c>
       <c r="G75" t="n">
-        <v>8826.666666666666</v>
+        <v>-1190.89410301</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>8830</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
@@ -3350,19 +3144,19 @@
         <v>8830</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5</v>
+        <v>10.1002</v>
       </c>
       <c r="G76" t="n">
+        <v>-1190.89410301</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
         <v>8830</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>8835</v>
       </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
@@ -3380,22 +3174,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>8880</v>
+        <v>8830</v>
       </c>
       <c r="C77" t="n">
-        <v>8880</v>
+        <v>8830</v>
       </c>
       <c r="D77" t="n">
-        <v>8880</v>
+        <v>8830</v>
       </c>
       <c r="E77" t="n">
-        <v>8880</v>
+        <v>8830</v>
       </c>
       <c r="F77" t="n">
-        <v>69.3343</v>
+        <v>49.7667</v>
       </c>
       <c r="G77" t="n">
-        <v>8848.333333333334</v>
+        <v>-1190.89410301</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
@@ -3422,30 +3216,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>8890</v>
+        <v>8830</v>
       </c>
       <c r="C78" t="n">
-        <v>8890</v>
+        <v>8830</v>
       </c>
       <c r="D78" t="n">
-        <v>8890</v>
+        <v>8830</v>
       </c>
       <c r="E78" t="n">
-        <v>8890</v>
+        <v>8830</v>
       </c>
       <c r="F78" t="n">
-        <v>11.1551</v>
+        <v>26.8898</v>
       </c>
       <c r="G78" t="n">
-        <v>8866.666666666666</v>
+        <v>-1190.89410301</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>8830</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
@@ -3462,30 +3258,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>8835</v>
+        <v>8830</v>
       </c>
       <c r="C79" t="n">
-        <v>8835</v>
+        <v>8830</v>
       </c>
       <c r="D79" t="n">
-        <v>8835</v>
+        <v>8860</v>
       </c>
       <c r="E79" t="n">
-        <v>8835</v>
+        <v>8830</v>
       </c>
       <c r="F79" t="n">
-        <v>0.242</v>
+        <v>175.6023</v>
       </c>
       <c r="G79" t="n">
-        <v>8868.333333333334</v>
+        <v>-1190.89410301</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>8830</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
@@ -3502,30 +3300,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>8840</v>
+        <v>8830</v>
       </c>
       <c r="C80" t="n">
-        <v>8840</v>
+        <v>8850</v>
       </c>
       <c r="D80" t="n">
-        <v>8840</v>
+        <v>8850</v>
       </c>
       <c r="E80" t="n">
-        <v>8840</v>
+        <v>8830</v>
       </c>
       <c r="F80" t="n">
-        <v>45.6425</v>
+        <v>12.1085</v>
       </c>
       <c r="G80" t="n">
-        <v>8855</v>
+        <v>-1178.78560301</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>8830</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
@@ -3542,30 +3342,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>8890</v>
+        <v>8820</v>
       </c>
       <c r="C81" t="n">
-        <v>8840</v>
+        <v>8825</v>
       </c>
       <c r="D81" t="n">
-        <v>8890</v>
+        <v>8860</v>
       </c>
       <c r="E81" t="n">
-        <v>8840</v>
+        <v>8820</v>
       </c>
       <c r="F81" t="n">
-        <v>4.9888</v>
+        <v>11.0567</v>
       </c>
       <c r="G81" t="n">
-        <v>8838.333333333334</v>
+        <v>-1189.84230301</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>8850</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -3582,22 +3384,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>8890</v>
+        <v>8855</v>
       </c>
       <c r="C82" t="n">
-        <v>8835</v>
+        <v>8825</v>
       </c>
       <c r="D82" t="n">
-        <v>8890</v>
+        <v>8855</v>
       </c>
       <c r="E82" t="n">
-        <v>8835</v>
+        <v>8825</v>
       </c>
       <c r="F82" t="n">
-        <v>168.0659</v>
+        <v>101.1796</v>
       </c>
       <c r="G82" t="n">
-        <v>8838.333333333334</v>
+        <v>-1189.84230301</v>
       </c>
       <c r="H82" t="n">
         <v>1</v>
@@ -3606,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>8840</v>
+        <v>8825</v>
       </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
@@ -3624,30 +3426,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>8880</v>
+        <v>8855</v>
       </c>
       <c r="C83" t="n">
-        <v>8880</v>
+        <v>8860</v>
       </c>
       <c r="D83" t="n">
-        <v>8885</v>
+        <v>8860</v>
       </c>
       <c r="E83" t="n">
-        <v>8880</v>
+        <v>8855</v>
       </c>
       <c r="F83" t="n">
-        <v>10</v>
+        <v>110.3645</v>
       </c>
       <c r="G83" t="n">
-        <v>8851.666666666666</v>
+        <v>-1079.47780301</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>8825</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
@@ -3664,22 +3468,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>8885</v>
+        <v>8850</v>
       </c>
       <c r="C84" t="n">
-        <v>8885</v>
+        <v>8860</v>
       </c>
       <c r="D84" t="n">
-        <v>8885</v>
+        <v>8860</v>
       </c>
       <c r="E84" t="n">
-        <v>8885</v>
+        <v>8850</v>
       </c>
       <c r="F84" t="n">
-        <v>18</v>
+        <v>19.1086</v>
       </c>
       <c r="G84" t="n">
-        <v>8866.666666666666</v>
+        <v>-1079.47780301</v>
       </c>
       <c r="H84" t="n">
         <v>1</v>
@@ -3688,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>8880</v>
+        <v>8860</v>
       </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
@@ -3706,22 +3510,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>8885</v>
+        <v>8850</v>
       </c>
       <c r="C85" t="n">
-        <v>8890</v>
+        <v>8850</v>
       </c>
       <c r="D85" t="n">
-        <v>8890</v>
+        <v>8850</v>
       </c>
       <c r="E85" t="n">
-        <v>8885</v>
+        <v>8850</v>
       </c>
       <c r="F85" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G85" t="n">
-        <v>8885</v>
+        <v>-1086.47780301</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3746,32 +3550,30 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>8890</v>
+        <v>8850</v>
       </c>
       <c r="C86" t="n">
-        <v>8890</v>
+        <v>8850</v>
       </c>
       <c r="D86" t="n">
-        <v>8890</v>
+        <v>8850</v>
       </c>
       <c r="E86" t="n">
-        <v>8890</v>
+        <v>8850</v>
       </c>
       <c r="F86" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>8888.333333333334</v>
+        <v>-1086.47780301</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>8890</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
@@ -3788,32 +3590,30 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>8890</v>
+        <v>8850</v>
       </c>
       <c r="C87" t="n">
-        <v>8945</v>
+        <v>8850</v>
       </c>
       <c r="D87" t="n">
-        <v>8945</v>
+        <v>8850</v>
       </c>
       <c r="E87" t="n">
-        <v>8890</v>
+        <v>8850</v>
       </c>
       <c r="F87" t="n">
-        <v>178.3834</v>
+        <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>8908.333333333334</v>
+        <v>-1086.47780301</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>8890</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
@@ -3830,22 +3630,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8995</v>
+        <v>8850</v>
       </c>
       <c r="C88" t="n">
-        <v>8930</v>
+        <v>8850</v>
       </c>
       <c r="D88" t="n">
-        <v>9050</v>
+        <v>8850</v>
       </c>
       <c r="E88" t="n">
-        <v>8930</v>
+        <v>8850</v>
       </c>
       <c r="F88" t="n">
-        <v>459.0254232</v>
+        <v>27</v>
       </c>
       <c r="G88" t="n">
-        <v>8921.666666666666</v>
+        <v>-1086.47780301</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3870,22 +3670,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9010</v>
+        <v>8850</v>
       </c>
       <c r="C89" t="n">
-        <v>9010</v>
+        <v>8850</v>
       </c>
       <c r="D89" t="n">
-        <v>9010</v>
+        <v>8850</v>
       </c>
       <c r="E89" t="n">
-        <v>9010</v>
+        <v>8850</v>
       </c>
       <c r="F89" t="n">
-        <v>5.5493</v>
+        <v>16</v>
       </c>
       <c r="G89" t="n">
-        <v>8961.666666666666</v>
+        <v>-1086.47780301</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3910,22 +3710,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9020</v>
+        <v>8850</v>
       </c>
       <c r="C90" t="n">
-        <v>9020</v>
+        <v>8850</v>
       </c>
       <c r="D90" t="n">
-        <v>9020</v>
+        <v>8850</v>
       </c>
       <c r="E90" t="n">
-        <v>9020</v>
+        <v>8850</v>
       </c>
       <c r="F90" t="n">
-        <v>5.5433</v>
+        <v>20</v>
       </c>
       <c r="G90" t="n">
-        <v>8986.666666666666</v>
+        <v>-1086.47780301</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3950,22 +3750,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9035</v>
+        <v>8850</v>
       </c>
       <c r="C91" t="n">
-        <v>9035</v>
+        <v>8850</v>
       </c>
       <c r="D91" t="n">
-        <v>9035</v>
+        <v>8850</v>
       </c>
       <c r="E91" t="n">
-        <v>9035</v>
+        <v>8850</v>
       </c>
       <c r="F91" t="n">
-        <v>578.9956</v>
+        <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>9021.666666666666</v>
+        <v>-1086.47780301</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3990,22 +3790,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9035</v>
+        <v>8850</v>
       </c>
       <c r="C92" t="n">
-        <v>9035</v>
+        <v>8835</v>
       </c>
       <c r="D92" t="n">
-        <v>9035</v>
+        <v>8850</v>
       </c>
       <c r="E92" t="n">
-        <v>9035</v>
+        <v>8835</v>
       </c>
       <c r="F92" t="n">
-        <v>123</v>
+        <v>9.975</v>
       </c>
       <c r="G92" t="n">
-        <v>9030</v>
+        <v>-1096.45280301</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4030,22 +3830,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9035</v>
+        <v>8850</v>
       </c>
       <c r="C93" t="n">
-        <v>9035</v>
+        <v>8850</v>
       </c>
       <c r="D93" t="n">
-        <v>9035</v>
+        <v>8850</v>
       </c>
       <c r="E93" t="n">
-        <v>9035</v>
+        <v>8850</v>
       </c>
       <c r="F93" t="n">
-        <v>6</v>
+        <v>5.0199</v>
       </c>
       <c r="G93" t="n">
-        <v>9035</v>
+        <v>-1091.43290301</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4070,22 +3870,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>8955</v>
+        <v>8845</v>
       </c>
       <c r="C94" t="n">
-        <v>8955</v>
+        <v>8845</v>
       </c>
       <c r="D94" t="n">
-        <v>8955</v>
+        <v>8845</v>
       </c>
       <c r="E94" t="n">
-        <v>8955</v>
+        <v>8845</v>
       </c>
       <c r="F94" t="n">
-        <v>3.8463</v>
+        <v>13</v>
       </c>
       <c r="G94" t="n">
-        <v>9008.333333333334</v>
+        <v>-1104.43290301</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4110,30 +3910,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>8955</v>
+        <v>8845</v>
       </c>
       <c r="C95" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="D95" t="n">
-        <v>8955</v>
+        <v>8845</v>
       </c>
       <c r="E95" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="F95" t="n">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="G95" t="n">
-        <v>8980</v>
+        <v>-1115.43290301</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>8845</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
@@ -4150,30 +3952,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="C96" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="D96" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="E96" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="F96" t="n">
-        <v>28.7212</v>
+        <v>8</v>
       </c>
       <c r="G96" t="n">
-        <v>8951.666666666666</v>
+        <v>-1115.43290301</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>8840</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
@@ -4190,22 +3994,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="C97" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="D97" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="E97" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="F97" t="n">
-        <v>71.88460000000001</v>
+        <v>4</v>
       </c>
       <c r="G97" t="n">
-        <v>8950</v>
+        <v>-1115.43290301</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -4214,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
@@ -4232,22 +4036,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="C98" t="n">
-        <v>8945</v>
+        <v>8840</v>
       </c>
       <c r="D98" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="E98" t="n">
-        <v>8945</v>
+        <v>8840</v>
       </c>
       <c r="F98" t="n">
-        <v>127.8804</v>
+        <v>81</v>
       </c>
       <c r="G98" t="n">
-        <v>8948.333333333334</v>
+        <v>-1115.43290301</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -4256,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>8950</v>
+        <v>8840</v>
       </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
@@ -4274,22 +4078,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9005</v>
+        <v>8825</v>
       </c>
       <c r="C99" t="n">
-        <v>9005</v>
+        <v>8825</v>
       </c>
       <c r="D99" t="n">
-        <v>9005</v>
+        <v>8825</v>
       </c>
       <c r="E99" t="n">
-        <v>9005</v>
+        <v>8825</v>
       </c>
       <c r="F99" t="n">
-        <v>111.4862</v>
+        <v>40</v>
       </c>
       <c r="G99" t="n">
-        <v>8966.666666666666</v>
+        <v>-1155.43290301</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -4298,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>8945</v>
+        <v>8840</v>
       </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
@@ -4316,22 +4120,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9050</v>
+        <v>8825</v>
       </c>
       <c r="C100" t="n">
-        <v>9050</v>
+        <v>8810</v>
       </c>
       <c r="D100" t="n">
-        <v>9050</v>
+        <v>8825</v>
       </c>
       <c r="E100" t="n">
-        <v>9050</v>
+        <v>8810</v>
       </c>
       <c r="F100" t="n">
-        <v>13.3527768</v>
+        <v>68.3652</v>
       </c>
       <c r="G100" t="n">
-        <v>9000</v>
+        <v>-1223.79810301</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -4340,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>9005</v>
+        <v>8825</v>
       </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
@@ -4358,30 +4162,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9050</v>
+        <v>8825</v>
       </c>
       <c r="C101" t="n">
-        <v>9055</v>
+        <v>8880</v>
       </c>
       <c r="D101" t="n">
-        <v>9055</v>
+        <v>8880</v>
       </c>
       <c r="E101" t="n">
-        <v>9050</v>
+        <v>8825</v>
       </c>
       <c r="F101" t="n">
-        <v>6</v>
+        <v>90.2968</v>
       </c>
       <c r="G101" t="n">
-        <v>9036.666666666666</v>
+        <v>-1133.50130301</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>8810</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
@@ -4398,30 +4204,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9050</v>
+        <v>8825</v>
       </c>
       <c r="C102" t="n">
-        <v>9095</v>
+        <v>8820</v>
       </c>
       <c r="D102" t="n">
-        <v>9095</v>
+        <v>8830</v>
       </c>
       <c r="E102" t="n">
-        <v>9050</v>
+        <v>8820</v>
       </c>
       <c r="F102" t="n">
-        <v>182</v>
+        <v>56.418</v>
       </c>
       <c r="G102" t="n">
-        <v>9066.666666666666</v>
+        <v>-1189.91930301</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>8880</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
@@ -4438,30 +4246,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9085</v>
+        <v>8825</v>
       </c>
       <c r="C103" t="n">
-        <v>9140</v>
+        <v>8825</v>
       </c>
       <c r="D103" t="n">
-        <v>9140</v>
+        <v>8825</v>
       </c>
       <c r="E103" t="n">
-        <v>9025</v>
+        <v>8825</v>
       </c>
       <c r="F103" t="n">
-        <v>166.0515</v>
+        <v>15.9771</v>
       </c>
       <c r="G103" t="n">
-        <v>9096.666666666666</v>
+        <v>-1173.94220301</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>8820</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
@@ -4478,30 +4288,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9140</v>
+        <v>8835</v>
       </c>
       <c r="C104" t="n">
-        <v>9170</v>
+        <v>8835</v>
       </c>
       <c r="D104" t="n">
-        <v>9170</v>
+        <v>8835</v>
       </c>
       <c r="E104" t="n">
-        <v>9140</v>
+        <v>8835</v>
       </c>
       <c r="F104" t="n">
-        <v>50.9608</v>
+        <v>18</v>
       </c>
       <c r="G104" t="n">
-        <v>9135</v>
+        <v>-1155.94220301</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>8825</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
@@ -4518,30 +4330,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9170</v>
+        <v>8830</v>
       </c>
       <c r="C105" t="n">
-        <v>9175</v>
+        <v>8830</v>
       </c>
       <c r="D105" t="n">
-        <v>9180</v>
+        <v>8830</v>
       </c>
       <c r="E105" t="n">
-        <v>9170</v>
+        <v>8830</v>
       </c>
       <c r="F105" t="n">
-        <v>69</v>
+        <v>0.5</v>
       </c>
       <c r="G105" t="n">
-        <v>9161.666666666666</v>
+        <v>-1156.44220301</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>8835</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
@@ -4558,30 +4372,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9100</v>
+        <v>8880</v>
       </c>
       <c r="C106" t="n">
-        <v>9105</v>
+        <v>8880</v>
       </c>
       <c r="D106" t="n">
-        <v>9105</v>
+        <v>8880</v>
       </c>
       <c r="E106" t="n">
-        <v>9100</v>
+        <v>8880</v>
       </c>
       <c r="F106" t="n">
-        <v>462.4078</v>
+        <v>69.3343</v>
       </c>
       <c r="G106" t="n">
-        <v>9150</v>
+        <v>-1087.10790301</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>8830</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
@@ -4598,30 +4414,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9100</v>
+        <v>8890</v>
       </c>
       <c r="C107" t="n">
-        <v>9100</v>
+        <v>8890</v>
       </c>
       <c r="D107" t="n">
-        <v>9100</v>
+        <v>8890</v>
       </c>
       <c r="E107" t="n">
-        <v>9100</v>
+        <v>8890</v>
       </c>
       <c r="F107" t="n">
-        <v>243.5135</v>
+        <v>11.1551</v>
       </c>
       <c r="G107" t="n">
-        <v>9126.666666666666</v>
+        <v>-1075.95280301</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>8880</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
@@ -4638,30 +4456,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9160</v>
+        <v>8835</v>
       </c>
       <c r="C108" t="n">
-        <v>9180</v>
+        <v>8835</v>
       </c>
       <c r="D108" t="n">
-        <v>9180</v>
+        <v>8835</v>
       </c>
       <c r="E108" t="n">
-        <v>9160</v>
+        <v>8835</v>
       </c>
       <c r="F108" t="n">
-        <v>80.13200000000001</v>
+        <v>0.242</v>
       </c>
       <c r="G108" t="n">
-        <v>9128.333333333334</v>
+        <v>-1076.19480301</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>8890</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
@@ -4678,30 +4498,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9180</v>
+        <v>8840</v>
       </c>
       <c r="C109" t="n">
-        <v>9210</v>
+        <v>8840</v>
       </c>
       <c r="D109" t="n">
-        <v>9210</v>
+        <v>8840</v>
       </c>
       <c r="E109" t="n">
-        <v>9180</v>
+        <v>8840</v>
       </c>
       <c r="F109" t="n">
-        <v>149</v>
+        <v>45.6425</v>
       </c>
       <c r="G109" t="n">
-        <v>9163.333333333334</v>
+        <v>-1030.55230301</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>8835</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
@@ -4718,30 +4540,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9210</v>
+        <v>8890</v>
       </c>
       <c r="C110" t="n">
-        <v>9300</v>
+        <v>8840</v>
       </c>
       <c r="D110" t="n">
-        <v>9300</v>
+        <v>8890</v>
       </c>
       <c r="E110" t="n">
-        <v>9210</v>
+        <v>8840</v>
       </c>
       <c r="F110" t="n">
-        <v>1.32</v>
+        <v>4.9888</v>
       </c>
       <c r="G110" t="n">
-        <v>9230</v>
+        <v>-1030.55230301</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>8840</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
@@ -4758,30 +4582,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9300</v>
+        <v>8890</v>
       </c>
       <c r="C111" t="n">
-        <v>9485</v>
+        <v>8835</v>
       </c>
       <c r="D111" t="n">
-        <v>9500</v>
+        <v>8890</v>
       </c>
       <c r="E111" t="n">
-        <v>9065</v>
+        <v>8835</v>
       </c>
       <c r="F111" t="n">
-        <v>997.03142947</v>
+        <v>168.0659</v>
       </c>
       <c r="G111" t="n">
-        <v>9331.666666666666</v>
+        <v>-1198.61820301</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>8840</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
@@ -4798,30 +4624,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9120</v>
+        <v>8880</v>
       </c>
       <c r="C112" t="n">
-        <v>9065</v>
+        <v>8880</v>
       </c>
       <c r="D112" t="n">
-        <v>9120</v>
+        <v>8885</v>
       </c>
       <c r="E112" t="n">
-        <v>9060</v>
+        <v>8880</v>
       </c>
       <c r="F112" t="n">
-        <v>74.6206</v>
+        <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>9283.333333333334</v>
+        <v>-1188.61820301</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>8835</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
@@ -4838,30 +4666,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9420</v>
+        <v>8885</v>
       </c>
       <c r="C113" t="n">
-        <v>9075</v>
+        <v>8885</v>
       </c>
       <c r="D113" t="n">
-        <v>9420</v>
+        <v>8885</v>
       </c>
       <c r="E113" t="n">
-        <v>9075</v>
+        <v>8885</v>
       </c>
       <c r="F113" t="n">
-        <v>0.233</v>
+        <v>18</v>
       </c>
       <c r="G113" t="n">
-        <v>9208.333333333334</v>
+        <v>-1170.61820301</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>8880</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
@@ -4878,30 +4708,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9410</v>
+        <v>8885</v>
       </c>
       <c r="C114" t="n">
-        <v>9090</v>
+        <v>8890</v>
       </c>
       <c r="D114" t="n">
-        <v>9415</v>
+        <v>8890</v>
       </c>
       <c r="E114" t="n">
-        <v>9090</v>
+        <v>8885</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2231</v>
+        <v>16</v>
       </c>
       <c r="G114" t="n">
-        <v>9076.666666666666</v>
+        <v>-1154.61820301</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>8885</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
@@ -4918,30 +4750,32 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9410</v>
+        <v>8890</v>
       </c>
       <c r="C115" t="n">
-        <v>9415</v>
+        <v>8890</v>
       </c>
       <c r="D115" t="n">
-        <v>9415</v>
+        <v>8890</v>
       </c>
       <c r="E115" t="n">
-        <v>9410</v>
+        <v>8890</v>
       </c>
       <c r="F115" t="n">
-        <v>0.1001</v>
+        <v>26</v>
       </c>
       <c r="G115" t="n">
-        <v>9193.333333333334</v>
+        <v>-1154.61820301</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>8890</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
@@ -4958,22 +4792,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9140</v>
+        <v>8890</v>
       </c>
       <c r="C116" t="n">
-        <v>9305</v>
+        <v>8945</v>
       </c>
       <c r="D116" t="n">
-        <v>9305</v>
+        <v>8945</v>
       </c>
       <c r="E116" t="n">
-        <v>9140</v>
+        <v>8890</v>
       </c>
       <c r="F116" t="n">
-        <v>9.2387</v>
+        <v>178.3834</v>
       </c>
       <c r="G116" t="n">
-        <v>9270</v>
+        <v>-976.2348030099997</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4998,22 +4832,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9145</v>
+        <v>8995</v>
       </c>
       <c r="C117" t="n">
-        <v>9145</v>
+        <v>8930</v>
       </c>
       <c r="D117" t="n">
-        <v>9145</v>
+        <v>9050</v>
       </c>
       <c r="E117" t="n">
-        <v>9145</v>
+        <v>8930</v>
       </c>
       <c r="F117" t="n">
-        <v>8.1</v>
+        <v>459.0254232</v>
       </c>
       <c r="G117" t="n">
-        <v>9288.333333333334</v>
+        <v>-1435.26022621</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5038,22 +4872,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9150</v>
+        <v>9010</v>
       </c>
       <c r="C118" t="n">
-        <v>9150</v>
+        <v>9010</v>
       </c>
       <c r="D118" t="n">
-        <v>9150</v>
+        <v>9010</v>
       </c>
       <c r="E118" t="n">
-        <v>9150</v>
+        <v>9010</v>
       </c>
       <c r="F118" t="n">
-        <v>10.9</v>
+        <v>5.5493</v>
       </c>
       <c r="G118" t="n">
-        <v>9200</v>
+        <v>-1429.71092621</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5078,22 +4912,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9140</v>
+        <v>9020</v>
       </c>
       <c r="C119" t="n">
-        <v>9140</v>
+        <v>9020</v>
       </c>
       <c r="D119" t="n">
-        <v>9140</v>
+        <v>9020</v>
       </c>
       <c r="E119" t="n">
-        <v>9140</v>
+        <v>9020</v>
       </c>
       <c r="F119" t="n">
-        <v>90</v>
+        <v>5.5433</v>
       </c>
       <c r="G119" t="n">
-        <v>9145</v>
+        <v>-1424.16762621</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5118,22 +4952,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9140</v>
+        <v>9035</v>
       </c>
       <c r="C120" t="n">
-        <v>9140</v>
+        <v>9035</v>
       </c>
       <c r="D120" t="n">
-        <v>9205</v>
+        <v>9035</v>
       </c>
       <c r="E120" t="n">
-        <v>9140</v>
+        <v>9035</v>
       </c>
       <c r="F120" t="n">
-        <v>150.1275</v>
+        <v>578.9956</v>
       </c>
       <c r="G120" t="n">
-        <v>9143.333333333334</v>
+        <v>-845.1720262099998</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5158,22 +4992,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9140</v>
+        <v>9035</v>
       </c>
       <c r="C121" t="n">
-        <v>9140</v>
+        <v>9035</v>
       </c>
       <c r="D121" t="n">
-        <v>9140</v>
+        <v>9035</v>
       </c>
       <c r="E121" t="n">
-        <v>9140</v>
+        <v>9035</v>
       </c>
       <c r="F121" t="n">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="G121" t="n">
-        <v>9140</v>
+        <v>-845.1720262099998</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5198,22 +5032,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9200</v>
+        <v>9035</v>
       </c>
       <c r="C122" t="n">
-        <v>9100</v>
+        <v>9035</v>
       </c>
       <c r="D122" t="n">
-        <v>9200</v>
+        <v>9035</v>
       </c>
       <c r="E122" t="n">
-        <v>9100</v>
+        <v>9035</v>
       </c>
       <c r="F122" t="n">
-        <v>6.5361</v>
+        <v>6</v>
       </c>
       <c r="G122" t="n">
-        <v>9126.666666666666</v>
+        <v>-845.1720262099998</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5238,22 +5072,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9140</v>
+        <v>8955</v>
       </c>
       <c r="C123" t="n">
-        <v>9085</v>
+        <v>8955</v>
       </c>
       <c r="D123" t="n">
-        <v>9140</v>
+        <v>8955</v>
       </c>
       <c r="E123" t="n">
-        <v>9085</v>
+        <v>8955</v>
       </c>
       <c r="F123" t="n">
-        <v>29.8353</v>
+        <v>3.8463</v>
       </c>
       <c r="G123" t="n">
-        <v>9108.333333333334</v>
+        <v>-849.0183262099998</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5278,22 +5112,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9140</v>
+        <v>8955</v>
       </c>
       <c r="C124" t="n">
-        <v>9180</v>
+        <v>8950</v>
       </c>
       <c r="D124" t="n">
-        <v>9180</v>
+        <v>8955</v>
       </c>
       <c r="E124" t="n">
-        <v>9140</v>
+        <v>8950</v>
       </c>
       <c r="F124" t="n">
-        <v>86.2436</v>
+        <v>116</v>
       </c>
       <c r="G124" t="n">
-        <v>9121.666666666666</v>
+        <v>-965.0183262099998</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5318,22 +5152,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9180</v>
+        <v>8950</v>
       </c>
       <c r="C125" t="n">
-        <v>9185</v>
+        <v>8950</v>
       </c>
       <c r="D125" t="n">
-        <v>9185</v>
+        <v>8950</v>
       </c>
       <c r="E125" t="n">
-        <v>9180</v>
+        <v>8950</v>
       </c>
       <c r="F125" t="n">
-        <v>12.62386243</v>
+        <v>28.7212</v>
       </c>
       <c r="G125" t="n">
-        <v>9150</v>
+        <v>-965.0183262099998</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5358,22 +5192,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9185</v>
+        <v>8950</v>
       </c>
       <c r="C126" t="n">
-        <v>9185</v>
+        <v>8950</v>
       </c>
       <c r="D126" t="n">
-        <v>9185</v>
+        <v>8950</v>
       </c>
       <c r="E126" t="n">
-        <v>9185</v>
+        <v>8950</v>
       </c>
       <c r="F126" t="n">
-        <v>141.9291</v>
+        <v>71.88460000000001</v>
       </c>
       <c r="G126" t="n">
-        <v>9183.333333333334</v>
+        <v>-965.0183262099998</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5398,22 +5232,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9115</v>
+        <v>8950</v>
       </c>
       <c r="C127" t="n">
-        <v>9250</v>
+        <v>8945</v>
       </c>
       <c r="D127" t="n">
-        <v>9250</v>
+        <v>8950</v>
       </c>
       <c r="E127" t="n">
-        <v>9115</v>
+        <v>8945</v>
       </c>
       <c r="F127" t="n">
-        <v>0.223</v>
+        <v>127.8804</v>
       </c>
       <c r="G127" t="n">
-        <v>9206.666666666666</v>
+        <v>-1092.89872621</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5438,22 +5272,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9120</v>
+        <v>9005</v>
       </c>
       <c r="C128" t="n">
-        <v>9115</v>
+        <v>9005</v>
       </c>
       <c r="D128" t="n">
-        <v>9120</v>
+        <v>9005</v>
       </c>
       <c r="E128" t="n">
-        <v>9115</v>
+        <v>9005</v>
       </c>
       <c r="F128" t="n">
-        <v>0.3264</v>
+        <v>111.4862</v>
       </c>
       <c r="G128" t="n">
-        <v>9183.333333333334</v>
+        <v>-981.4125262099997</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5478,22 +5312,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9265</v>
+        <v>9050</v>
       </c>
       <c r="C129" t="n">
-        <v>9250</v>
+        <v>9050</v>
       </c>
       <c r="D129" t="n">
-        <v>9265</v>
+        <v>9050</v>
       </c>
       <c r="E129" t="n">
-        <v>9250</v>
+        <v>9050</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5468</v>
+        <v>13.3527768</v>
       </c>
       <c r="G129" t="n">
-        <v>9205</v>
+        <v>-968.0597494099997</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5518,62 +5352,62 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9125</v>
+        <v>9050</v>
       </c>
       <c r="C130" t="n">
-        <v>9125</v>
+        <v>9055</v>
       </c>
       <c r="D130" t="n">
-        <v>9125</v>
+        <v>9055</v>
       </c>
       <c r="E130" t="n">
-        <v>9125</v>
+        <v>9050</v>
       </c>
       <c r="F130" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G130" t="n">
-        <v>9163.333333333334</v>
+        <v>-962.0597494099997</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
-        <v>1.01638418079096</v>
-      </c>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9125</v>
+        <v>9050</v>
       </c>
       <c r="C131" t="n">
-        <v>9125</v>
+        <v>9095</v>
       </c>
       <c r="D131" t="n">
-        <v>9125</v>
+        <v>9095</v>
       </c>
       <c r="E131" t="n">
-        <v>9125</v>
+        <v>9050</v>
       </c>
       <c r="F131" t="n">
-        <v>10.7</v>
+        <v>182</v>
       </c>
       <c r="G131" t="n">
-        <v>9166.666666666666</v>
+        <v>-780.0597494099997</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5583,7 +5417,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5594,22 +5432,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9125</v>
+        <v>9085</v>
       </c>
       <c r="C132" t="n">
-        <v>9265</v>
+        <v>9140</v>
       </c>
       <c r="D132" t="n">
-        <v>9265</v>
+        <v>9140</v>
       </c>
       <c r="E132" t="n">
-        <v>9125</v>
+        <v>9025</v>
       </c>
       <c r="F132" t="n">
-        <v>56.1189</v>
+        <v>166.0515</v>
       </c>
       <c r="G132" t="n">
-        <v>9171.666666666666</v>
+        <v>-614.0082494099996</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5619,7 +5457,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5630,22 +5472,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9250</v>
+        <v>9140</v>
       </c>
       <c r="C133" t="n">
-        <v>9250</v>
+        <v>9170</v>
       </c>
       <c r="D133" t="n">
-        <v>9250</v>
+        <v>9170</v>
       </c>
       <c r="E133" t="n">
-        <v>9250</v>
+        <v>9140</v>
       </c>
       <c r="F133" t="n">
-        <v>23.1345</v>
+        <v>50.9608</v>
       </c>
       <c r="G133" t="n">
-        <v>9213.333333333334</v>
+        <v>-563.0474494099997</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5655,7 +5497,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5666,32 +5512,36 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9245</v>
+        <v>9170</v>
       </c>
       <c r="C134" t="n">
-        <v>9230</v>
+        <v>9175</v>
       </c>
       <c r="D134" t="n">
-        <v>9245</v>
+        <v>9180</v>
       </c>
       <c r="E134" t="n">
-        <v>9230</v>
+        <v>9170</v>
       </c>
       <c r="F134" t="n">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="G134" t="n">
-        <v>9248.333333333334</v>
+        <v>-494.0474494099997</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5702,22 +5552,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>9230</v>
+        <v>9100</v>
       </c>
       <c r="C135" t="n">
-        <v>9230</v>
+        <v>9105</v>
       </c>
       <c r="D135" t="n">
-        <v>9230</v>
+        <v>9105</v>
       </c>
       <c r="E135" t="n">
-        <v>9230</v>
+        <v>9100</v>
       </c>
       <c r="F135" t="n">
-        <v>19.4976</v>
+        <v>462.4078</v>
       </c>
       <c r="G135" t="n">
-        <v>9236.666666666666</v>
+        <v>-956.4552494099996</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5727,7 +5577,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5738,22 +5592,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>9320</v>
+        <v>9100</v>
       </c>
       <c r="C136" t="n">
-        <v>9320</v>
+        <v>9100</v>
       </c>
       <c r="D136" t="n">
-        <v>9320</v>
+        <v>9100</v>
       </c>
       <c r="E136" t="n">
-        <v>9320</v>
+        <v>9100</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1009</v>
+        <v>243.5135</v>
       </c>
       <c r="G136" t="n">
-        <v>9260</v>
+        <v>-1199.96874941</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5763,7 +5617,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5774,32 +5632,36 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>9230</v>
+        <v>9160</v>
       </c>
       <c r="C137" t="n">
-        <v>9390</v>
+        <v>9180</v>
       </c>
       <c r="D137" t="n">
-        <v>9390</v>
+        <v>9180</v>
       </c>
       <c r="E137" t="n">
-        <v>9230</v>
+        <v>9160</v>
       </c>
       <c r="F137" t="n">
-        <v>5.61</v>
+        <v>80.13200000000001</v>
       </c>
       <c r="G137" t="n">
-        <v>9313.333333333334</v>
+        <v>-1119.83674941</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5810,32 +5672,36 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9230</v>
+        <v>9180</v>
       </c>
       <c r="C138" t="n">
-        <v>9230</v>
+        <v>9210</v>
       </c>
       <c r="D138" t="n">
-        <v>9230</v>
+        <v>9210</v>
       </c>
       <c r="E138" t="n">
-        <v>9230</v>
+        <v>9180</v>
       </c>
       <c r="F138" t="n">
-        <v>4.9875</v>
+        <v>149</v>
       </c>
       <c r="G138" t="n">
-        <v>9313.333333333334</v>
+        <v>-970.8367494099996</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5849,19 +5715,19 @@
         <v>9210</v>
       </c>
       <c r="C139" t="n">
-        <v>9210</v>
+        <v>9300</v>
       </c>
       <c r="D139" t="n">
-        <v>9210</v>
+        <v>9300</v>
       </c>
       <c r="E139" t="n">
         <v>9210</v>
       </c>
       <c r="F139" t="n">
-        <v>1.5778</v>
+        <v>1.32</v>
       </c>
       <c r="G139" t="n">
-        <v>9276.666666666666</v>
+        <v>-969.5167494099995</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5871,7 +5737,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5882,22 +5752,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>9375</v>
+        <v>9300</v>
       </c>
       <c r="C140" t="n">
-        <v>9375</v>
+        <v>9485</v>
       </c>
       <c r="D140" t="n">
-        <v>9375</v>
+        <v>9500</v>
       </c>
       <c r="E140" t="n">
-        <v>9375</v>
+        <v>9065</v>
       </c>
       <c r="F140" t="n">
-        <v>0.139</v>
+        <v>997.03142947</v>
       </c>
       <c r="G140" t="n">
-        <v>9271.666666666666</v>
+        <v>27.5146800600005</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5907,7 +5777,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5918,32 +5792,36 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>9220</v>
+        <v>9120</v>
       </c>
       <c r="C141" t="n">
-        <v>9240</v>
+        <v>9065</v>
       </c>
       <c r="D141" t="n">
-        <v>9240</v>
+        <v>9120</v>
       </c>
       <c r="E141" t="n">
-        <v>9220</v>
+        <v>9060</v>
       </c>
       <c r="F141" t="n">
-        <v>4.8863</v>
+        <v>74.6206</v>
       </c>
       <c r="G141" t="n">
-        <v>9275</v>
+        <v>-47.1059199399995</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5954,36 +5832,1190 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>9250</v>
+        <v>9420</v>
       </c>
       <c r="C142" t="n">
-        <v>9250</v>
+        <v>9075</v>
       </c>
       <c r="D142" t="n">
-        <v>9250</v>
+        <v>9420</v>
       </c>
       <c r="E142" t="n">
-        <v>9250</v>
+        <v>9075</v>
       </c>
       <c r="F142" t="n">
-        <v>4.8777</v>
+        <v>0.233</v>
       </c>
       <c r="G142" t="n">
-        <v>9288.333333333334</v>
+        <v>-46.8729199399995</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
       <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>9410</v>
+      </c>
+      <c r="C143" t="n">
+        <v>9090</v>
+      </c>
+      <c r="D143" t="n">
+        <v>9415</v>
+      </c>
+      <c r="E143" t="n">
+        <v>9090</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.2231</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-46.6498199399995</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>9410</v>
+      </c>
+      <c r="C144" t="n">
+        <v>9415</v>
+      </c>
+      <c r="D144" t="n">
+        <v>9415</v>
+      </c>
+      <c r="E144" t="n">
+        <v>9410</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.1001</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-46.5497199399995</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>9140</v>
+      </c>
+      <c r="C145" t="n">
+        <v>9305</v>
+      </c>
+      <c r="D145" t="n">
+        <v>9305</v>
+      </c>
+      <c r="E145" t="n">
+        <v>9140</v>
+      </c>
+      <c r="F145" t="n">
+        <v>9.2387</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-55.7884199399995</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>9145</v>
+      </c>
+      <c r="C146" t="n">
+        <v>9145</v>
+      </c>
+      <c r="D146" t="n">
+        <v>9145</v>
+      </c>
+      <c r="E146" t="n">
+        <v>9145</v>
+      </c>
+      <c r="F146" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-63.8884199399995</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>9150</v>
+      </c>
+      <c r="C147" t="n">
+        <v>9150</v>
+      </c>
+      <c r="D147" t="n">
+        <v>9150</v>
+      </c>
+      <c r="E147" t="n">
+        <v>9150</v>
+      </c>
+      <c r="F147" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-52.9884199399995</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>9140</v>
+      </c>
+      <c r="C148" t="n">
+        <v>9140</v>
+      </c>
+      <c r="D148" t="n">
+        <v>9140</v>
+      </c>
+      <c r="E148" t="n">
+        <v>9140</v>
+      </c>
+      <c r="F148" t="n">
+        <v>90</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-142.9884199399995</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>9140</v>
+      </c>
+      <c r="C149" t="n">
+        <v>9140</v>
+      </c>
+      <c r="D149" t="n">
+        <v>9205</v>
+      </c>
+      <c r="E149" t="n">
+        <v>9140</v>
+      </c>
+      <c r="F149" t="n">
+        <v>150.1275</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-142.9884199399995</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>9140</v>
+      </c>
+      <c r="C150" t="n">
+        <v>9140</v>
+      </c>
+      <c r="D150" t="n">
+        <v>9140</v>
+      </c>
+      <c r="E150" t="n">
+        <v>9140</v>
+      </c>
+      <c r="F150" t="n">
+        <v>30</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-142.9884199399995</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>9200</v>
+      </c>
+      <c r="C151" t="n">
+        <v>9100</v>
+      </c>
+      <c r="D151" t="n">
+        <v>9200</v>
+      </c>
+      <c r="E151" t="n">
+        <v>9100</v>
+      </c>
+      <c r="F151" t="n">
+        <v>6.5361</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-149.5245199399995</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>9140</v>
+      </c>
+      <c r="C152" t="n">
+        <v>9085</v>
+      </c>
+      <c r="D152" t="n">
+        <v>9140</v>
+      </c>
+      <c r="E152" t="n">
+        <v>9085</v>
+      </c>
+      <c r="F152" t="n">
+        <v>29.8353</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-179.3598199399995</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>9140</v>
+      </c>
+      <c r="C153" t="n">
+        <v>9180</v>
+      </c>
+      <c r="D153" t="n">
+        <v>9180</v>
+      </c>
+      <c r="E153" t="n">
+        <v>9140</v>
+      </c>
+      <c r="F153" t="n">
+        <v>86.2436</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-93.11621993999951</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>9180</v>
+      </c>
+      <c r="C154" t="n">
+        <v>9185</v>
+      </c>
+      <c r="D154" t="n">
+        <v>9185</v>
+      </c>
+      <c r="E154" t="n">
+        <v>9180</v>
+      </c>
+      <c r="F154" t="n">
+        <v>12.62386243</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-80.49235750999951</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>9185</v>
+      </c>
+      <c r="C155" t="n">
+        <v>9185</v>
+      </c>
+      <c r="D155" t="n">
+        <v>9185</v>
+      </c>
+      <c r="E155" t="n">
+        <v>9185</v>
+      </c>
+      <c r="F155" t="n">
+        <v>141.9291</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-80.49235750999951</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>9115</v>
+      </c>
+      <c r="C156" t="n">
+        <v>9250</v>
+      </c>
+      <c r="D156" t="n">
+        <v>9250</v>
+      </c>
+      <c r="E156" t="n">
+        <v>9115</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-80.26935750999951</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>9120</v>
+      </c>
+      <c r="C157" t="n">
+        <v>9115</v>
+      </c>
+      <c r="D157" t="n">
+        <v>9120</v>
+      </c>
+      <c r="E157" t="n">
+        <v>9115</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.3264</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-80.59575750999952</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>9265</v>
+      </c>
+      <c r="C158" t="n">
+        <v>9250</v>
+      </c>
+      <c r="D158" t="n">
+        <v>9265</v>
+      </c>
+      <c r="E158" t="n">
+        <v>9250</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.5468</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-80.04895750999951</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>9125</v>
+      </c>
+      <c r="C159" t="n">
+        <v>9125</v>
+      </c>
+      <c r="D159" t="n">
+        <v>9125</v>
+      </c>
+      <c r="E159" t="n">
+        <v>9125</v>
+      </c>
+      <c r="F159" t="n">
+        <v>10</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-90.04895750999951</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>9125</v>
+      </c>
+      <c r="C160" t="n">
+        <v>9125</v>
+      </c>
+      <c r="D160" t="n">
+        <v>9125</v>
+      </c>
+      <c r="E160" t="n">
+        <v>9125</v>
+      </c>
+      <c r="F160" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-90.04895750999951</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>9125</v>
+      </c>
+      <c r="C161" t="n">
+        <v>9265</v>
+      </c>
+      <c r="D161" t="n">
+        <v>9265</v>
+      </c>
+      <c r="E161" t="n">
+        <v>9125</v>
+      </c>
+      <c r="F161" t="n">
+        <v>56.1189</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-33.93005750999951</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>9250</v>
+      </c>
+      <c r="C162" t="n">
+        <v>9250</v>
+      </c>
+      <c r="D162" t="n">
+        <v>9250</v>
+      </c>
+      <c r="E162" t="n">
+        <v>9250</v>
+      </c>
+      <c r="F162" t="n">
+        <v>23.1345</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-57.06455750999952</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>9245</v>
+      </c>
+      <c r="C163" t="n">
+        <v>9230</v>
+      </c>
+      <c r="D163" t="n">
+        <v>9245</v>
+      </c>
+      <c r="E163" t="n">
+        <v>9230</v>
+      </c>
+      <c r="F163" t="n">
+        <v>41</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-98.06455750999952</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>9230</v>
+      </c>
+      <c r="C164" t="n">
+        <v>9230</v>
+      </c>
+      <c r="D164" t="n">
+        <v>9230</v>
+      </c>
+      <c r="E164" t="n">
+        <v>9230</v>
+      </c>
+      <c r="F164" t="n">
+        <v>19.4976</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-98.06455750999952</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>9320</v>
+      </c>
+      <c r="C165" t="n">
+        <v>9320</v>
+      </c>
+      <c r="D165" t="n">
+        <v>9320</v>
+      </c>
+      <c r="E165" t="n">
+        <v>9320</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.1009</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-97.96365750999952</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>9230</v>
+      </c>
+      <c r="C166" t="n">
+        <v>9390</v>
+      </c>
+      <c r="D166" t="n">
+        <v>9390</v>
+      </c>
+      <c r="E166" t="n">
+        <v>9230</v>
+      </c>
+      <c r="F166" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-92.35365750999952</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>9230</v>
+      </c>
+      <c r="C167" t="n">
+        <v>9230</v>
+      </c>
+      <c r="D167" t="n">
+        <v>9230</v>
+      </c>
+      <c r="E167" t="n">
+        <v>9230</v>
+      </c>
+      <c r="F167" t="n">
+        <v>4.9875</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-97.34115750999952</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>9210</v>
+      </c>
+      <c r="C168" t="n">
+        <v>9210</v>
+      </c>
+      <c r="D168" t="n">
+        <v>9210</v>
+      </c>
+      <c r="E168" t="n">
+        <v>9210</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1.5778</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-98.91895750999952</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>9375</v>
+      </c>
+      <c r="C169" t="n">
+        <v>9375</v>
+      </c>
+      <c r="D169" t="n">
+        <v>9375</v>
+      </c>
+      <c r="E169" t="n">
+        <v>9375</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-98.77995750999952</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>9220</v>
+      </c>
+      <c r="C170" t="n">
+        <v>9240</v>
+      </c>
+      <c r="D170" t="n">
+        <v>9240</v>
+      </c>
+      <c r="E170" t="n">
+        <v>9220</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4.8863</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-103.6662575099995</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>9250</v>
+      </c>
+      <c r="C171" t="n">
+        <v>9250</v>
+      </c>
+      <c r="D171" t="n">
+        <v>9250</v>
+      </c>
+      <c r="E171" t="n">
+        <v>9250</v>
+      </c>
+      <c r="F171" t="n">
+        <v>4.8777</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-98.78855750999952</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest BTG.xlsx
+++ b/BackTest/2019-10-27 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N171"/>
+  <dimension ref="A1:M171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-1374.5354</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,22 +2464,15 @@
         <v>-1239.09740301</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>8840</v>
-      </c>
-      <c r="K63" t="n">
-        <v>8840</v>
-      </c>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2692,26 +2497,15 @@
         <v>-1241.09740301</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K64" t="n">
-        <v>8840</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2738,22 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>8840</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2780,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2816,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2852,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2888,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2924,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2960,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2996,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3030,18 +2794,21 @@
         <v>-1190.89410301</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>8835</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3066,24 +2833,21 @@
         <v>-1190.89410301</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
         <v>8830</v>
       </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3108,24 +2872,21 @@
         <v>-1190.89410301</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
         <v>8830</v>
       </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3150,24 +2911,21 @@
         <v>-1190.89410301</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
         <v>8830</v>
       </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3192,24 +2950,21 @@
         <v>-1190.89410301</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
         <v>8830</v>
       </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3234,24 +2989,21 @@
         <v>-1190.89410301</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
         <v>8830</v>
       </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3276,24 +3028,21 @@
         <v>-1190.89410301</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
         <v>8830</v>
       </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3318,24 +3067,21 @@
         <v>-1178.78560301</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
         <v>8830</v>
       </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3360,24 +3106,21 @@
         <v>-1189.84230301</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>8850</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3402,24 +3145,21 @@
         <v>-1189.84230301</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
         <v>8825</v>
       </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3444,24 +3184,21 @@
         <v>-1079.47780301</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
         <v>8825</v>
       </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3486,24 +3223,21 @@
         <v>-1079.47780301</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
         <v>8860</v>
       </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3528,22 +3262,21 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>8860</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3568,22 +3301,21 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>8850</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3608,22 +3340,21 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>8850</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3648,22 +3379,21 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>8850</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3688,22 +3418,21 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>8850</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3728,22 +3457,21 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>8850</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3768,22 +3496,21 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>8850</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3808,22 +3535,21 @@
         <v>-1096.45280301</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>8850</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3848,22 +3574,21 @@
         <v>-1091.43290301</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>8835</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3888,22 +3613,21 @@
         <v>-1104.43290301</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>8850</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3928,24 +3652,21 @@
         <v>-1115.43290301</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
         <v>8845</v>
       </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3970,24 +3691,21 @@
         <v>-1115.43290301</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
         <v>8840</v>
       </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4012,24 +3730,21 @@
         <v>-1115.43290301</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
         <v>8840</v>
       </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4054,24 +3769,21 @@
         <v>-1115.43290301</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
         <v>8840</v>
       </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4096,24 +3808,21 @@
         <v>-1155.43290301</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
         <v>8840</v>
       </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4138,24 +3847,21 @@
         <v>-1223.79810301</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
         <v>8825</v>
       </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4180,24 +3886,21 @@
         <v>-1133.50130301</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
         <v>8810</v>
       </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4222,24 +3925,21 @@
         <v>-1189.91930301</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
         <v>8880</v>
       </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4264,24 +3964,19 @@
         <v>-1173.94220301</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>8820</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4306,24 +4001,21 @@
         <v>-1155.94220301</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
         <v>8825</v>
       </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4348,24 +4040,21 @@
         <v>-1156.44220301</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
         <v>8835</v>
       </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4390,24 +4079,21 @@
         <v>-1087.10790301</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
         <v>8830</v>
       </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4432,24 +4118,21 @@
         <v>-1075.95280301</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
         <v>8880</v>
       </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4474,24 +4157,21 @@
         <v>-1076.19480301</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
         <v>8890</v>
       </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4516,24 +4196,21 @@
         <v>-1030.55230301</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
         <v>8835</v>
       </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4558,24 +4235,21 @@
         <v>-1030.55230301</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
         <v>8840</v>
       </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4600,24 +4274,21 @@
         <v>-1198.61820301</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
         <v>8840</v>
       </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4642,24 +4313,21 @@
         <v>-1188.61820301</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
         <v>8835</v>
       </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4684,24 +4352,21 @@
         <v>-1170.61820301</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
         <v>8880</v>
       </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4726,24 +4391,19 @@
         <v>-1154.61820301</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>8885</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4768,24 +4428,21 @@
         <v>-1154.61820301</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
         <v>8890</v>
       </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4812,20 +4469,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4852,20 +4506,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4892,20 +4543,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4932,20 +4580,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4972,20 +4617,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5012,20 +4654,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5052,20 +4691,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5092,20 +4728,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5132,20 +4765,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5172,20 +4802,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5212,20 +4839,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5252,20 +4876,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5292,20 +4913,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5332,20 +4950,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5372,20 +4987,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5412,20 +5024,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5452,20 +5061,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5492,20 +5098,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5532,20 +5135,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5572,20 +5172,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5610,22 +5207,19 @@
         <v>-1199.96874941</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5652,20 +5246,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5690,22 +5281,19 @@
         <v>-970.8367494099996</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5732,20 +5320,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5772,20 +5357,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5810,22 +5392,19 @@
         <v>-47.1059199399995</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5850,22 +5429,19 @@
         <v>-46.8729199399995</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5892,20 +5468,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5932,20 +5505,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5972,20 +5542,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6012,20 +5579,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6052,20 +5616,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6092,20 +5653,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6130,22 +5688,17 @@
         <v>-142.9884199399995</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6172,20 +5725,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6212,20 +5758,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6252,20 +5791,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6290,22 +5822,15 @@
         <v>-93.11621993999951</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6332,20 +5857,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6370,22 +5888,15 @@
         <v>-80.49235750999951</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6412,20 +5923,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6450,22 +5954,15 @@
         <v>-80.59575750999952</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6492,20 +5989,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6530,22 +6020,15 @@
         <v>-90.04895750999951</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6570,22 +6053,15 @@
         <v>-90.04895750999951</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6610,22 +6086,15 @@
         <v>-33.93005750999951</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6650,22 +6119,15 @@
         <v>-57.06455750999952</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6690,22 +6152,15 @@
         <v>-98.06455750999952</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6732,20 +6187,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6770,22 +6218,15 @@
         <v>-97.96365750999952</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6812,20 +6253,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6852,20 +6286,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6892,20 +6319,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6932,18 +6352,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L169" t="n">
+        <v>1</v>
       </c>
       <c r="M169" t="inlineStr"/>
-      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6970,16 +6385,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7006,18 +6418,15 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest BTG.xlsx
+++ b/BackTest/2019-10-27 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1342,7 +1342,7 @@
         <v>-1374.5354</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -2200,10 +2200,14 @@
         <v>-1233.38060301</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>8900</v>
+      </c>
+      <c r="J55" t="n">
+        <v>8900</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
@@ -2236,8 +2240,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2276,19 @@
         <v>-1342.65950301</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>8870</v>
+      </c>
+      <c r="J57" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2320,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2356,19 @@
         <v>-1410.74810301</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>8850</v>
+      </c>
+      <c r="J59" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2397,19 @@
         <v>-1368.43810301</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>8825</v>
+      </c>
+      <c r="J60" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2438,19 @@
         <v>-1368.43810301</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>8840</v>
+      </c>
+      <c r="J61" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2479,19 @@
         <v>-1368.43810301</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>8840</v>
+      </c>
+      <c r="J62" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2520,19 @@
         <v>-1239.09740301</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>8840</v>
+      </c>
+      <c r="J63" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2561,19 @@
         <v>-1241.09740301</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>8850</v>
+      </c>
+      <c r="J64" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2602,19 @@
         <v>-1141.09740301</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>8835</v>
+      </c>
+      <c r="J65" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2643,19 @@
         <v>-1143.09740301</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>8895</v>
+      </c>
+      <c r="J66" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2684,19 @@
         <v>-1143.09740301</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8845</v>
+      </c>
+      <c r="J67" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2725,19 @@
         <v>-1105.03210301</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>8845</v>
+      </c>
+      <c r="J68" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2766,19 @@
         <v>-1105.03210301</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>8850</v>
+      </c>
+      <c r="J69" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2807,19 @@
         <v>-1105.03210301</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>8850</v>
+      </c>
+      <c r="J70" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2848,19 @@
         <v>-1104.83210301</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>8850</v>
+      </c>
+      <c r="J71" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2889,19 @@
         <v>-1112.83210301</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>8855</v>
+      </c>
+      <c r="J72" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,15 +2930,17 @@
         <v>-1190.89410301</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>8835</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>8900</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -2833,12 +2971,14 @@
         <v>-1190.89410301</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>8830</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>8900</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2872,12 +3012,14 @@
         <v>-1190.89410301</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>8830</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>8900</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2911,12 +3053,14 @@
         <v>-1190.89410301</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>8830</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>8900</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2950,12 +3094,14 @@
         <v>-1190.89410301</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>8830</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>8900</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2989,12 +3135,14 @@
         <v>-1190.89410301</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>8830</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>8900</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3028,12 +3176,14 @@
         <v>-1190.89410301</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>8830</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>8900</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3067,12 +3217,14 @@
         <v>-1178.78560301</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>8830</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>8900</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3106,12 +3258,14 @@
         <v>-1189.84230301</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>8850</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>8900</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3145,12 +3299,14 @@
         <v>-1189.84230301</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>8825</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>8900</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3184,12 +3340,14 @@
         <v>-1079.47780301</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>8825</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>8900</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3223,12 +3381,14 @@
         <v>-1079.47780301</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>8860</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>8900</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3262,12 +3422,14 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>8860</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>8900</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3301,12 +3463,14 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>8850</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>8900</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3340,12 +3504,14 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>8850</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>8900</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3379,12 +3545,14 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>8850</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>8900</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3418,12 +3586,14 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>8850</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>8900</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3457,12 +3627,14 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>8850</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>8900</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3496,12 +3668,14 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>8850</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>8900</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3535,12 +3709,14 @@
         <v>-1096.45280301</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>8850</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>8900</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3574,12 +3750,14 @@
         <v>-1091.43290301</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>8835</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>8900</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3613,12 +3791,14 @@
         <v>-1104.43290301</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>8850</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>8900</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3652,12 +3832,14 @@
         <v>-1115.43290301</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>8845</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>8900</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3691,12 +3873,14 @@
         <v>-1115.43290301</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>8840</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>8900</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3730,12 +3914,14 @@
         <v>-1115.43290301</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>8840</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>8900</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3769,12 +3955,14 @@
         <v>-1115.43290301</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>8840</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>8900</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3808,12 +3996,14 @@
         <v>-1155.43290301</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>8840</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>8900</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3847,12 +4037,14 @@
         <v>-1223.79810301</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>8825</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>8900</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3886,12 +4078,14 @@
         <v>-1133.50130301</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>8810</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>8900</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3925,12 +4119,14 @@
         <v>-1189.91930301</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>8880</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>8900</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3964,10 +4160,14 @@
         <v>-1173.94220301</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>8820</v>
+      </c>
+      <c r="J103" t="n">
+        <v>8900</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4001,12 +4201,14 @@
         <v>-1155.94220301</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>8825</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>8900</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4040,12 +4242,14 @@
         <v>-1156.44220301</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>8835</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>8900</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4079,12 +4283,14 @@
         <v>-1087.10790301</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>8830</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>8900</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4118,12 +4324,14 @@
         <v>-1075.95280301</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>8880</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>8900</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4157,12 +4365,14 @@
         <v>-1076.19480301</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>8890</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>8900</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4196,12 +4406,14 @@
         <v>-1030.55230301</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>8835</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>8900</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4235,12 +4447,14 @@
         <v>-1030.55230301</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>8840</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>8900</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4274,12 +4488,14 @@
         <v>-1198.61820301</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>8840</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>8900</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4313,12 +4529,14 @@
         <v>-1188.61820301</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>8835</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>8900</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4352,12 +4570,14 @@
         <v>-1170.61820301</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>8880</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>8900</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4391,10 +4611,14 @@
         <v>-1154.61820301</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>8885</v>
+      </c>
+      <c r="J114" t="n">
+        <v>8900</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4428,12 +4652,14 @@
         <v>-1154.61820301</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>8890</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>8900</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4467,10 +4693,14 @@
         <v>-976.2348030099997</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>8890</v>
+      </c>
+      <c r="J116" t="n">
+        <v>8900</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4504,10 +4734,14 @@
         <v>-1435.26022621</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>8945</v>
+      </c>
+      <c r="J117" t="n">
+        <v>8900</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4544,7 +4778,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>8900</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4581,7 +4817,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>8900</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4618,7 +4856,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>8900</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4655,7 +4895,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>8900</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4692,7 +4934,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>8900</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4729,7 +4973,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>8900</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4766,7 +5012,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>8900</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4803,7 +5051,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>8900</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4840,7 +5090,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>8900</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4877,7 +5129,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>8900</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4914,7 +5168,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>8900</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4951,7 +5207,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>8900</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4988,7 +5246,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>8900</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5025,7 +5285,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>8900</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5062,7 +5324,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>8900</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5099,7 +5363,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>8900</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5136,7 +5402,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>8900</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5173,7 +5441,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>8900</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5207,10 +5477,12 @@
         <v>-1199.96874941</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>8900</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5247,7 +5519,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>8900</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5281,10 +5555,12 @@
         <v>-970.8367494099996</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>8900</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5321,7 +5597,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>8900</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5358,7 +5636,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>8900</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5392,10 +5672,12 @@
         <v>-47.1059199399995</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>8900</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5429,10 +5711,12 @@
         <v>-46.8729199399995</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>8900</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5469,7 +5753,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>8900</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5506,7 +5792,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>8900</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5543,7 +5831,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>8900</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5580,7 +5870,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>8900</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5617,7 +5909,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>8900</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5654,7 +5948,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>8900</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5688,16 +5984,20 @@
         <v>-142.9884199399995</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>8900</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
       <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
@@ -5726,8 +6026,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5759,8 +6065,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5792,8 +6104,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5822,11 +6140,17 @@
         <v>-93.11621993999951</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5858,8 +6182,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5888,11 +6218,17 @@
         <v>-80.49235750999951</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5924,8 +6260,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5954,11 +6296,17 @@
         <v>-80.59575750999952</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5990,8 +6338,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6020,13 +6374,19 @@
         <v>-90.04895750999951</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>8900</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L159" t="n">
-        <v>1</v>
+        <v>1.020280898876404</v>
       </c>
       <c r="M159" t="inlineStr"/>
     </row>
@@ -6053,7 +6413,7 @@
         <v>-90.04895750999951</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6086,7 +6446,7 @@
         <v>-33.93005750999951</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6119,7 +6479,7 @@
         <v>-57.06455750999952</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6152,7 +6512,7 @@
         <v>-98.06455750999952</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6185,7 +6545,7 @@
         <v>-98.06455750999952</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6218,7 +6578,7 @@
         <v>-97.96365750999952</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6251,7 +6611,7 @@
         <v>-92.35365750999952</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6284,7 +6644,7 @@
         <v>-97.34115750999952</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6350,7 +6710,7 @@
         <v>-98.77995750999952</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6427,6 +6787,6 @@
       <c r="M171" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest BTG.xlsx
+++ b/BackTest/2019-10-27 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2200,14 +2200,10 @@
         <v>-1233.38060301</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>8900</v>
-      </c>
-      <c r="J55" t="n">
-        <v>8900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
@@ -2240,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2276,19 +2266,11 @@
         <v>-1342.65950301</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>8870</v>
-      </c>
-      <c r="J57" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2320,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2356,19 +2332,11 @@
         <v>-1410.74810301</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>8850</v>
-      </c>
-      <c r="J59" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2397,19 +2365,11 @@
         <v>-1368.43810301</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>8825</v>
-      </c>
-      <c r="J60" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2438,19 +2398,11 @@
         <v>-1368.43810301</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>8840</v>
-      </c>
-      <c r="J61" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2479,19 +2431,11 @@
         <v>-1368.43810301</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>8840</v>
-      </c>
-      <c r="J62" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2520,19 +2464,11 @@
         <v>-1239.09740301</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>8840</v>
-      </c>
-      <c r="J63" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2561,19 +2497,11 @@
         <v>-1241.09740301</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>8850</v>
-      </c>
-      <c r="J64" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2602,19 +2530,11 @@
         <v>-1141.09740301</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>8835</v>
-      </c>
-      <c r="J65" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2643,19 +2563,11 @@
         <v>-1143.09740301</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8895</v>
-      </c>
-      <c r="J66" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2684,19 +2596,11 @@
         <v>-1143.09740301</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>8845</v>
-      </c>
-      <c r="J67" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2725,19 +2629,11 @@
         <v>-1105.03210301</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>8845</v>
-      </c>
-      <c r="J68" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2766,19 +2662,11 @@
         <v>-1105.03210301</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>8850</v>
-      </c>
-      <c r="J69" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2807,19 +2695,11 @@
         <v>-1105.03210301</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>8850</v>
-      </c>
-      <c r="J70" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2848,19 +2728,11 @@
         <v>-1104.83210301</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>8850</v>
-      </c>
-      <c r="J71" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2894,12 +2766,10 @@
       <c r="I72" t="n">
         <v>8855</v>
       </c>
-      <c r="J72" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -2935,9 +2805,7 @@
       <c r="I73" t="n">
         <v>8835</v>
       </c>
-      <c r="J73" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2976,9 +2844,7 @@
       <c r="I74" t="n">
         <v>8830</v>
       </c>
-      <c r="J74" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3017,9 +2883,7 @@
       <c r="I75" t="n">
         <v>8830</v>
       </c>
-      <c r="J75" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3058,9 +2922,7 @@
       <c r="I76" t="n">
         <v>8830</v>
       </c>
-      <c r="J76" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3099,9 +2961,7 @@
       <c r="I77" t="n">
         <v>8830</v>
       </c>
-      <c r="J77" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3140,9 +3000,7 @@
       <c r="I78" t="n">
         <v>8830</v>
       </c>
-      <c r="J78" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3181,9 +3039,7 @@
       <c r="I79" t="n">
         <v>8830</v>
       </c>
-      <c r="J79" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3222,9 +3078,7 @@
       <c r="I80" t="n">
         <v>8830</v>
       </c>
-      <c r="J80" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3263,9 +3117,7 @@
       <c r="I81" t="n">
         <v>8850</v>
       </c>
-      <c r="J81" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3304,9 +3156,7 @@
       <c r="I82" t="n">
         <v>8825</v>
       </c>
-      <c r="J82" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3345,9 +3195,7 @@
       <c r="I83" t="n">
         <v>8825</v>
       </c>
-      <c r="J83" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3386,9 +3234,7 @@
       <c r="I84" t="n">
         <v>8860</v>
       </c>
-      <c r="J84" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3427,9 +3273,7 @@
       <c r="I85" t="n">
         <v>8860</v>
       </c>
-      <c r="J85" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3468,9 +3312,7 @@
       <c r="I86" t="n">
         <v>8850</v>
       </c>
-      <c r="J86" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3504,14 +3346,10 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>8850</v>
-      </c>
-      <c r="J87" t="n">
-        <v>8900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3550,9 +3388,7 @@
       <c r="I88" t="n">
         <v>8850</v>
       </c>
-      <c r="J88" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3586,14 +3422,10 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>8850</v>
-      </c>
-      <c r="J89" t="n">
-        <v>8900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3632,9 +3464,7 @@
       <c r="I90" t="n">
         <v>8850</v>
       </c>
-      <c r="J90" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3668,14 +3498,10 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>8850</v>
-      </c>
-      <c r="J91" t="n">
-        <v>8900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3709,14 +3535,10 @@
         <v>-1096.45280301</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>8850</v>
-      </c>
-      <c r="J92" t="n">
-        <v>8900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3755,9 +3577,7 @@
       <c r="I93" t="n">
         <v>8835</v>
       </c>
-      <c r="J93" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3796,9 +3616,7 @@
       <c r="I94" t="n">
         <v>8850</v>
       </c>
-      <c r="J94" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3837,9 +3655,7 @@
       <c r="I95" t="n">
         <v>8845</v>
       </c>
-      <c r="J95" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3878,9 +3694,7 @@
       <c r="I96" t="n">
         <v>8840</v>
       </c>
-      <c r="J96" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3919,9 +3733,7 @@
       <c r="I97" t="n">
         <v>8840</v>
       </c>
-      <c r="J97" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3960,9 +3772,7 @@
       <c r="I98" t="n">
         <v>8840</v>
       </c>
-      <c r="J98" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4001,9 +3811,7 @@
       <c r="I99" t="n">
         <v>8840</v>
       </c>
-      <c r="J99" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4042,9 +3850,7 @@
       <c r="I100" t="n">
         <v>8825</v>
       </c>
-      <c r="J100" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4083,9 +3889,7 @@
       <c r="I101" t="n">
         <v>8810</v>
       </c>
-      <c r="J101" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4124,9 +3928,7 @@
       <c r="I102" t="n">
         <v>8880</v>
       </c>
-      <c r="J102" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4165,9 +3967,7 @@
       <c r="I103" t="n">
         <v>8820</v>
       </c>
-      <c r="J103" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4206,9 +4006,7 @@
       <c r="I104" t="n">
         <v>8825</v>
       </c>
-      <c r="J104" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4247,9 +4045,7 @@
       <c r="I105" t="n">
         <v>8835</v>
       </c>
-      <c r="J105" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4288,9 +4084,7 @@
       <c r="I106" t="n">
         <v>8830</v>
       </c>
-      <c r="J106" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4329,9 +4123,7 @@
       <c r="I107" t="n">
         <v>8880</v>
       </c>
-      <c r="J107" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4365,14 +4157,10 @@
         <v>-1076.19480301</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>8890</v>
-      </c>
-      <c r="J108" t="n">
-        <v>8900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4411,9 +4199,7 @@
       <c r="I109" t="n">
         <v>8835</v>
       </c>
-      <c r="J109" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4452,9 +4238,7 @@
       <c r="I110" t="n">
         <v>8840</v>
       </c>
-      <c r="J110" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4488,14 +4272,10 @@
         <v>-1198.61820301</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>8840</v>
-      </c>
-      <c r="J111" t="n">
-        <v>8900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4529,14 +4309,10 @@
         <v>-1188.61820301</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>8835</v>
-      </c>
-      <c r="J112" t="n">
-        <v>8900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4570,14 +4346,10 @@
         <v>-1170.61820301</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>8880</v>
-      </c>
-      <c r="J113" t="n">
-        <v>8900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4611,14 +4383,10 @@
         <v>-1154.61820301</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>8885</v>
-      </c>
-      <c r="J114" t="n">
-        <v>8900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4652,14 +4420,10 @@
         <v>-1154.61820301</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>8890</v>
-      </c>
-      <c r="J115" t="n">
-        <v>8900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4693,14 +4457,10 @@
         <v>-976.2348030099997</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>8890</v>
-      </c>
-      <c r="J116" t="n">
-        <v>8900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4734,14 +4494,10 @@
         <v>-1435.26022621</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>8945</v>
-      </c>
-      <c r="J117" t="n">
-        <v>8900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4778,9 +4534,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4817,9 +4571,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4856,9 +4608,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4895,9 +4645,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4934,9 +4682,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4973,9 +4719,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5012,9 +4756,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5051,9 +4793,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5090,9 +4830,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5129,9 +4867,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5168,9 +4904,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5207,9 +4941,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5246,9 +4978,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5285,9 +5015,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5324,9 +5052,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5363,9 +5089,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5402,9 +5126,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5441,9 +5163,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5480,9 +5200,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5519,9 +5237,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5558,9 +5274,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5597,9 +5311,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5633,20 +5345,16 @@
         <v>27.5146800600005</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
@@ -5675,14 +5383,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5711,17 +5413,11 @@
         <v>-46.8729199399995</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5750,17 +5446,11 @@
         <v>-46.6498199399995</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5789,17 +5479,11 @@
         <v>-46.5497199399995</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5831,14 +5515,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5870,14 +5548,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5906,17 +5578,11 @@
         <v>-52.9884199399995</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5948,14 +5614,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5987,14 +5647,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6026,14 +5680,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6062,17 +5710,11 @@
         <v>-149.5245199399995</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6101,17 +5743,11 @@
         <v>-179.3598199399995</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6140,17 +5776,11 @@
         <v>-93.11621993999951</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6179,17 +5809,11 @@
         <v>-80.49235750999951</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6218,17 +5842,11 @@
         <v>-80.49235750999951</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6257,17 +5875,11 @@
         <v>-80.26935750999951</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6299,14 +5911,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6338,14 +5944,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6374,19 +5974,13 @@
         <v>-90.04895750999951</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>1.020280898876404</v>
+        <v>1</v>
       </c>
       <c r="M159" t="inlineStr"/>
     </row>
@@ -6512,7 +6106,7 @@
         <v>-98.06455750999952</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6677,7 +6271,7 @@
         <v>-98.91895750999952</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6743,7 +6337,7 @@
         <v>-103.6662575099995</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6776,7 +6370,7 @@
         <v>-98.78855750999952</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6787,6 +6381,6 @@
       <c r="M171" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest BTG.xlsx
+++ b/BackTest/2019-10-27 BackTest BTG.xlsx
@@ -2464,10 +2464,14 @@
         <v>-1239.09740301</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>8840</v>
+      </c>
+      <c r="J63" t="n">
+        <v>8840</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
@@ -2497,11 +2501,19 @@
         <v>-1241.09740301</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>8850</v>
+      </c>
+      <c r="J64" t="n">
+        <v>8840</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2542,19 @@
         <v>-1141.09740301</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>8835</v>
+      </c>
+      <c r="J65" t="n">
+        <v>8840</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,10 +2583,14 @@
         <v>-1143.09740301</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>8895</v>
+      </c>
+      <c r="J66" t="n">
+        <v>8895</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
@@ -2599,8 +2623,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>8895</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2659,19 @@
         <v>-1105.03210301</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>8845</v>
+      </c>
+      <c r="J68" t="n">
+        <v>8895</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,10 +2700,14 @@
         <v>-1105.03210301</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>8850</v>
+      </c>
+      <c r="J69" t="n">
+        <v>8850</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2698,8 +2740,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>8850</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +2779,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>8850</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2766,7 +2820,9 @@
       <c r="I72" t="n">
         <v>8855</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>8850</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -2805,7 +2861,9 @@
       <c r="I73" t="n">
         <v>8835</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>8850</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2844,7 +2902,9 @@
       <c r="I74" t="n">
         <v>8830</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>8850</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2883,7 +2943,9 @@
       <c r="I75" t="n">
         <v>8830</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>8850</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2922,7 +2984,9 @@
       <c r="I76" t="n">
         <v>8830</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>8850</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2961,7 +3025,9 @@
       <c r="I77" t="n">
         <v>8830</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>8850</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3000,7 +3066,9 @@
       <c r="I78" t="n">
         <v>8830</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>8850</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3039,7 +3107,9 @@
       <c r="I79" t="n">
         <v>8830</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>8850</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3078,7 +3148,9 @@
       <c r="I80" t="n">
         <v>8830</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>8850</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3117,7 +3189,9 @@
       <c r="I81" t="n">
         <v>8850</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>8850</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3156,7 +3230,9 @@
       <c r="I82" t="n">
         <v>8825</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>8850</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3195,7 +3271,9 @@
       <c r="I83" t="n">
         <v>8825</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>8850</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3234,7 +3312,9 @@
       <c r="I84" t="n">
         <v>8860</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>8850</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3273,7 +3353,9 @@
       <c r="I85" t="n">
         <v>8860</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>8850</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3312,7 +3394,9 @@
       <c r="I86" t="n">
         <v>8850</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>8850</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3346,10 +3430,14 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>8850</v>
+      </c>
+      <c r="J87" t="n">
+        <v>8850</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3388,7 +3476,9 @@
       <c r="I88" t="n">
         <v>8850</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>8850</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3422,10 +3512,14 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>8850</v>
+      </c>
+      <c r="J89" t="n">
+        <v>8850</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3464,7 +3558,9 @@
       <c r="I90" t="n">
         <v>8850</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>8850</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3498,10 +3594,14 @@
         <v>-1086.47780301</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>8850</v>
+      </c>
+      <c r="J91" t="n">
+        <v>8850</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3535,10 +3635,14 @@
         <v>-1096.45280301</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>8850</v>
+      </c>
+      <c r="J92" t="n">
+        <v>8850</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3577,7 +3681,9 @@
       <c r="I93" t="n">
         <v>8835</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>8850</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3616,7 +3722,9 @@
       <c r="I94" t="n">
         <v>8850</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>8850</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3655,7 +3763,9 @@
       <c r="I95" t="n">
         <v>8845</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>8850</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3694,7 +3804,9 @@
       <c r="I96" t="n">
         <v>8840</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>8850</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3733,7 +3845,9 @@
       <c r="I97" t="n">
         <v>8840</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>8850</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3772,7 +3886,9 @@
       <c r="I98" t="n">
         <v>8840</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>8850</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3811,7 +3927,9 @@
       <c r="I99" t="n">
         <v>8840</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>8850</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3850,7 +3968,9 @@
       <c r="I100" t="n">
         <v>8825</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>8850</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3889,7 +4009,9 @@
       <c r="I101" t="n">
         <v>8810</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>8850</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3928,7 +4050,9 @@
       <c r="I102" t="n">
         <v>8880</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>8850</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3967,7 +4091,9 @@
       <c r="I103" t="n">
         <v>8820</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>8850</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4006,7 +4132,9 @@
       <c r="I104" t="n">
         <v>8825</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>8850</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4045,7 +4173,9 @@
       <c r="I105" t="n">
         <v>8835</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>8850</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4084,7 +4214,9 @@
       <c r="I106" t="n">
         <v>8830</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>8850</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4123,7 +4255,9 @@
       <c r="I107" t="n">
         <v>8880</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>8850</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4157,10 +4291,14 @@
         <v>-1076.19480301</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>8890</v>
+      </c>
+      <c r="J108" t="n">
+        <v>8850</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4199,7 +4337,9 @@
       <c r="I109" t="n">
         <v>8835</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>8850</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4238,7 +4378,9 @@
       <c r="I110" t="n">
         <v>8840</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>8850</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4272,10 +4414,14 @@
         <v>-1198.61820301</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>8840</v>
+      </c>
+      <c r="J111" t="n">
+        <v>8850</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4309,10 +4455,14 @@
         <v>-1188.61820301</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>8835</v>
+      </c>
+      <c r="J112" t="n">
+        <v>8850</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4346,10 +4496,14 @@
         <v>-1170.61820301</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>8880</v>
+      </c>
+      <c r="J113" t="n">
+        <v>8850</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4383,10 +4537,14 @@
         <v>-1154.61820301</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>8885</v>
+      </c>
+      <c r="J114" t="n">
+        <v>8850</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4423,7 +4581,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>8850</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4460,7 +4620,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>8850</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4497,7 +4659,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>8850</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4534,7 +4698,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>8850</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4571,7 +4737,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>8850</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4608,7 +4776,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>8850</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4645,7 +4815,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>8850</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4682,7 +4854,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>8850</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4719,7 +4893,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>8850</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4756,7 +4932,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>8850</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4793,7 +4971,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>8850</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4830,7 +5010,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>8850</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4867,7 +5049,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>8850</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4904,7 +5088,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>8850</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4941,7 +5127,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>8850</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4978,7 +5166,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>8850</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5015,7 +5205,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>8850</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5052,7 +5244,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>8850</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5089,7 +5283,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>8850</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5126,7 +5322,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>8850</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5163,7 +5361,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>8850</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5200,7 +5400,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>8850</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5237,7 +5439,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>8850</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5274,7 +5478,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>8850</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5311,7 +5517,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>8850</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5345,16 +5553,20 @@
         <v>27.5146800600005</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>8850</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
       <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
@@ -5380,13 +5592,19 @@
         <v>-47.1059199399995</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>8850</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L141" t="n">
-        <v>1</v>
+        <v>1.019293785310735</v>
       </c>
       <c r="M141" t="inlineStr"/>
     </row>
@@ -5512,7 +5730,7 @@
         <v>-55.7884199399995</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5578,7 +5796,7 @@
         <v>-52.9884199399995</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5710,7 +5928,7 @@
         <v>-149.5245199399995</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5743,7 +5961,7 @@
         <v>-179.3598199399995</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5776,7 +5994,7 @@
         <v>-93.11621993999951</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5809,7 +6027,7 @@
         <v>-80.49235750999951</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5842,7 +6060,7 @@
         <v>-80.49235750999951</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5875,7 +6093,7 @@
         <v>-80.26935750999951</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6139,7 +6357,7 @@
         <v>-98.06455750999952</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6172,7 +6390,7 @@
         <v>-97.96365750999952</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6205,7 +6423,7 @@
         <v>-92.35365750999952</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6238,7 +6456,7 @@
         <v>-97.34115750999952</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6271,7 +6489,7 @@
         <v>-98.91895750999952</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6304,7 +6522,7 @@
         <v>-98.77995750999952</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6337,7 +6555,7 @@
         <v>-103.6662575099995</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6370,7 +6588,7 @@
         <v>-98.78855750999952</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest BTG.xlsx
+++ b/BackTest/2019-10-27 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M171"/>
+  <dimension ref="A1:L171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>55.52</v>
       </c>
       <c r="G2" t="n">
-        <v>-1172.5978</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>-1172.5978</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>-1172.5978</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>28</v>
       </c>
       <c r="G5" t="n">
-        <v>-1144.5978</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>16.0761</v>
       </c>
       <c r="G6" t="n">
-        <v>-1128.5217</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>53.5</v>
       </c>
       <c r="G7" t="n">
-        <v>-1075.0217</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2.4995</v>
       </c>
       <c r="G8" t="n">
-        <v>-1077.5212</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>11.8699</v>
       </c>
       <c r="G9" t="n">
-        <v>-1065.6513</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>70.8899</v>
       </c>
       <c r="G10" t="n">
-        <v>-994.7613999999998</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>7.6125</v>
       </c>
       <c r="G11" t="n">
-        <v>-994.7613999999998</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>-1018.7614</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>16</v>
       </c>
       <c r="G13" t="n">
-        <v>-1018.7614</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>-1002.7614</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>19</v>
       </c>
       <c r="G15" t="n">
-        <v>-1021.7614</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>-1021.7614</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>-1017.7614</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>395.2605</v>
       </c>
       <c r="G18" t="n">
-        <v>-1413.0219</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>18.0825</v>
       </c>
       <c r="G19" t="n">
-        <v>-1413.0219</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>38.2232</v>
       </c>
       <c r="G20" t="n">
-        <v>-1374.7987</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>0.2659</v>
       </c>
       <c r="G21" t="n">
-        <v>-1375.0646</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1.4044</v>
       </c>
       <c r="G22" t="n">
-        <v>-1375.0646</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>20.3177</v>
       </c>
       <c r="G23" t="n">
-        <v>-1354.7469</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>57.94</v>
       </c>
       <c r="G24" t="n">
-        <v>-1296.8069</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>0.5</v>
       </c>
       <c r="G25" t="n">
-        <v>-1296.8069</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>0.5</v>
       </c>
       <c r="G26" t="n">
-        <v>-1296.3069</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>-1296.3069</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>0.5</v>
       </c>
       <c r="G28" t="n">
-        <v>-1296.3069</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>78.2285</v>
       </c>
       <c r="G29" t="n">
-        <v>-1374.5354</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>97.02529699</v>
       </c>
       <c r="G30" t="n">
-        <v>-1277.51010301</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>6.3786</v>
       </c>
       <c r="G31" t="n">
-        <v>-1283.88870301</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>84.151</v>
       </c>
       <c r="G32" t="n">
-        <v>-1368.03970301</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>18.763</v>
       </c>
       <c r="G33" t="n">
-        <v>-1368.03970301</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>36.4389</v>
       </c>
       <c r="G34" t="n">
-        <v>-1331.60080301</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>18</v>
       </c>
       <c r="G35" t="n">
-        <v>-1313.60080301</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>100.276</v>
       </c>
       <c r="G36" t="n">
-        <v>-1313.60080301</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>38.6675</v>
       </c>
       <c r="G37" t="n">
-        <v>-1352.26830301</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>18.7689</v>
       </c>
       <c r="G38" t="n">
-        <v>-1371.03720301</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>2.3959</v>
       </c>
       <c r="G39" t="n">
-        <v>-1368.64130301</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>20</v>
       </c>
       <c r="G40" t="n">
-        <v>-1368.64130301</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>330.734</v>
       </c>
       <c r="G41" t="n">
-        <v>-1037.90730301</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>17.4303</v>
       </c>
       <c r="G42" t="n">
-        <v>-1055.33760301</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>119.4206</v>
       </c>
       <c r="G43" t="n">
-        <v>-1174.75820301</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>20</v>
       </c>
       <c r="G44" t="n">
-        <v>-1154.75820301</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>114.9563</v>
       </c>
       <c r="G45" t="n">
-        <v>-1154.75820301</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>22.8604</v>
       </c>
       <c r="G46" t="n">
-        <v>-1177.61860301</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>0.1</v>
       </c>
       <c r="G47" t="n">
-        <v>-1177.51860301</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>38.6479</v>
       </c>
       <c r="G48" t="n">
-        <v>-1216.16650301</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>0.2135</v>
       </c>
       <c r="G49" t="n">
-        <v>-1216.38000301</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1.1242</v>
       </c>
       <c r="G50" t="n">
-        <v>-1217.50420301</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>16.3551</v>
       </c>
       <c r="G51" t="n">
-        <v>-1233.85930301</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>59.8391</v>
       </c>
       <c r="G52" t="n">
-        <v>-1233.85930301</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1.0787</v>
       </c>
       <c r="G53" t="n">
-        <v>-1232.78060301</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>0.6</v>
       </c>
       <c r="G54" t="n">
-        <v>-1233.38060301</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>0.1123</v>
       </c>
       <c r="G55" t="n">
-        <v>-1233.38060301</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>109.2789</v>
       </c>
       <c r="G56" t="n">
-        <v>-1342.65950301</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>88.85890000000001</v>
       </c>
       <c r="G57" t="n">
-        <v>-1342.65950301</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>15.2679</v>
       </c>
       <c r="G58" t="n">
-        <v>-1357.92740301</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>52.8207</v>
       </c>
       <c r="G59" t="n">
-        <v>-1410.74810301</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>42.31</v>
       </c>
       <c r="G60" t="n">
-        <v>-1368.43810301</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>51.0669</v>
       </c>
       <c r="G61" t="n">
-        <v>-1368.43810301</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>7.27</v>
       </c>
       <c r="G62" t="n">
-        <v>-1368.43810301</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,22 +2273,15 @@
         <v>129.3407</v>
       </c>
       <c r="G63" t="n">
-        <v>-1239.09740301</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>8840</v>
-      </c>
-      <c r="J63" t="n">
-        <v>8840</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2498,1119 +2303,885 @@
         <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>-1241.09740301</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>8850</v>
-      </c>
-      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>8870</v>
+      </c>
+      <c r="C65" t="n">
+        <v>8895</v>
+      </c>
+      <c r="D65" t="n">
+        <v>8895</v>
+      </c>
+      <c r="E65" t="n">
+        <v>8870</v>
+      </c>
+      <c r="F65" t="n">
+        <v>100</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>8845</v>
+      </c>
+      <c r="C66" t="n">
+        <v>8845</v>
+      </c>
+      <c r="D66" t="n">
+        <v>8845</v>
+      </c>
+      <c r="E66" t="n">
+        <v>8845</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>8845</v>
+      </c>
+      <c r="C67" t="n">
+        <v>8845</v>
+      </c>
+      <c r="D67" t="n">
+        <v>8845</v>
+      </c>
+      <c r="E67" t="n">
+        <v>8845</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8.075200000000001</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>8850</v>
+      </c>
+      <c r="C68" t="n">
+        <v>8850</v>
+      </c>
+      <c r="D68" t="n">
+        <v>8850</v>
+      </c>
+      <c r="E68" t="n">
+        <v>8850</v>
+      </c>
+      <c r="F68" t="n">
+        <v>38.0653</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>8850</v>
+      </c>
+      <c r="C69" t="n">
+        <v>8850</v>
+      </c>
+      <c r="D69" t="n">
+        <v>8850</v>
+      </c>
+      <c r="E69" t="n">
+        <v>8850</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>8850</v>
+      </c>
+      <c r="C70" t="n">
+        <v>8850</v>
+      </c>
+      <c r="D70" t="n">
+        <v>8850</v>
+      </c>
+      <c r="E70" t="n">
+        <v>8850</v>
+      </c>
+      <c r="F70" t="n">
+        <v>8.697900000000001</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>8855</v>
+      </c>
+      <c r="C71" t="n">
+        <v>8855</v>
+      </c>
+      <c r="D71" t="n">
+        <v>8855</v>
+      </c>
+      <c r="E71" t="n">
+        <v>8855</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>8850</v>
+      </c>
+      <c r="C72" t="n">
+        <v>8835</v>
+      </c>
+      <c r="D72" t="n">
+        <v>8850</v>
+      </c>
+      <c r="E72" t="n">
+        <v>8835</v>
+      </c>
+      <c r="F72" t="n">
+        <v>8</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
         <v>8840</v>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="C73" t="n">
+        <v>8830</v>
+      </c>
+      <c r="D73" t="n">
+        <v>8840</v>
+      </c>
+      <c r="E73" t="n">
+        <v>8830</v>
+      </c>
+      <c r="F73" t="n">
+        <v>78.062</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>8835</v>
+      </c>
+      <c r="C74" t="n">
+        <v>8830</v>
+      </c>
+      <c r="D74" t="n">
+        <v>8835</v>
+      </c>
+      <c r="E74" t="n">
+        <v>8830</v>
+      </c>
+      <c r="F74" t="n">
+        <v>67.91240000000001</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>8830</v>
+      </c>
+      <c r="C75" t="n">
+        <v>8830</v>
+      </c>
+      <c r="D75" t="n">
+        <v>8830</v>
+      </c>
+      <c r="E75" t="n">
+        <v>8830</v>
+      </c>
+      <c r="F75" t="n">
+        <v>43.1677</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>8830</v>
+      </c>
+      <c r="C76" t="n">
+        <v>8830</v>
+      </c>
+      <c r="D76" t="n">
+        <v>8830</v>
+      </c>
+      <c r="E76" t="n">
+        <v>8830</v>
+      </c>
+      <c r="F76" t="n">
+        <v>10.1002</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>8830</v>
+      </c>
+      <c r="C77" t="n">
+        <v>8830</v>
+      </c>
+      <c r="D77" t="n">
+        <v>8830</v>
+      </c>
+      <c r="E77" t="n">
+        <v>8830</v>
+      </c>
+      <c r="F77" t="n">
+        <v>49.7667</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>8830</v>
+      </c>
+      <c r="C78" t="n">
+        <v>8830</v>
+      </c>
+      <c r="D78" t="n">
+        <v>8830</v>
+      </c>
+      <c r="E78" t="n">
+        <v>8830</v>
+      </c>
+      <c r="F78" t="n">
+        <v>26.8898</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>8830</v>
+      </c>
+      <c r="C79" t="n">
+        <v>8830</v>
+      </c>
+      <c r="D79" t="n">
+        <v>8860</v>
+      </c>
+      <c r="E79" t="n">
+        <v>8830</v>
+      </c>
+      <c r="F79" t="n">
+        <v>175.6023</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>8830</v>
+      </c>
+      <c r="C80" t="n">
+        <v>8850</v>
+      </c>
+      <c r="D80" t="n">
+        <v>8850</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8830</v>
+      </c>
+      <c r="F80" t="n">
+        <v>12.1085</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>8820</v>
+      </c>
+      <c r="C81" t="n">
+        <v>8825</v>
+      </c>
+      <c r="D81" t="n">
+        <v>8860</v>
+      </c>
+      <c r="E81" t="n">
+        <v>8820</v>
+      </c>
+      <c r="F81" t="n">
+        <v>11.0567</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>8855</v>
+      </c>
+      <c r="C82" t="n">
+        <v>8825</v>
+      </c>
+      <c r="D82" t="n">
+        <v>8855</v>
+      </c>
+      <c r="E82" t="n">
+        <v>8825</v>
+      </c>
+      <c r="F82" t="n">
+        <v>101.1796</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>8855</v>
+      </c>
+      <c r="C83" t="n">
+        <v>8860</v>
+      </c>
+      <c r="D83" t="n">
+        <v>8860</v>
+      </c>
+      <c r="E83" t="n">
+        <v>8855</v>
+      </c>
+      <c r="F83" t="n">
+        <v>110.3645</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="n">
+        <v>8825</v>
+      </c>
+      <c r="I83" t="n">
+        <v>8825</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>8850</v>
+      </c>
+      <c r="C84" t="n">
+        <v>8860</v>
+      </c>
+      <c r="D84" t="n">
+        <v>8860</v>
+      </c>
+      <c r="E84" t="n">
+        <v>8850</v>
+      </c>
+      <c r="F84" t="n">
+        <v>19.1086</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="n">
+        <v>8860</v>
+      </c>
+      <c r="I84" t="n">
+        <v>8825</v>
+      </c>
+      <c r="J84" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>8870</v>
-      </c>
-      <c r="C65" t="n">
-        <v>8895</v>
-      </c>
-      <c r="D65" t="n">
-        <v>8895</v>
-      </c>
-      <c r="E65" t="n">
-        <v>8870</v>
-      </c>
-      <c r="F65" t="n">
-        <v>100</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-1141.09740301</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>8835</v>
-      </c>
-      <c r="J65" t="n">
-        <v>8840</v>
-      </c>
-      <c r="K65" t="inlineStr">
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>8850</v>
+      </c>
+      <c r="C85" t="n">
+        <v>8850</v>
+      </c>
+      <c r="D85" t="n">
+        <v>8850</v>
+      </c>
+      <c r="E85" t="n">
+        <v>8850</v>
+      </c>
+      <c r="F85" t="n">
+        <v>7</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="n">
+        <v>8860</v>
+      </c>
+      <c r="I85" t="n">
+        <v>8825</v>
+      </c>
+      <c r="J85" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>8845</v>
-      </c>
-      <c r="C66" t="n">
-        <v>8845</v>
-      </c>
-      <c r="D66" t="n">
-        <v>8845</v>
-      </c>
-      <c r="E66" t="n">
-        <v>8845</v>
-      </c>
-      <c r="F66" t="n">
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>8850</v>
+      </c>
+      <c r="C86" t="n">
+        <v>8850</v>
+      </c>
+      <c r="D86" t="n">
+        <v>8850</v>
+      </c>
+      <c r="E86" t="n">
+        <v>8850</v>
+      </c>
+      <c r="F86" t="n">
         <v>2</v>
       </c>
-      <c r="G66" t="n">
-        <v>-1143.09740301</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8895</v>
-      </c>
-      <c r="J66" t="n">
-        <v>8895</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>8845</v>
-      </c>
-      <c r="C67" t="n">
-        <v>8845</v>
-      </c>
-      <c r="D67" t="n">
-        <v>8845</v>
-      </c>
-      <c r="E67" t="n">
-        <v>8845</v>
-      </c>
-      <c r="F67" t="n">
-        <v>8.075200000000001</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-1143.09740301</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>8895</v>
-      </c>
-      <c r="K67" t="inlineStr">
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="n">
+        <v>8850</v>
+      </c>
+      <c r="I86" t="n">
+        <v>8850</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>8850</v>
+      </c>
+      <c r="C87" t="n">
+        <v>8850</v>
+      </c>
+      <c r="D87" t="n">
+        <v>8850</v>
+      </c>
+      <c r="E87" t="n">
+        <v>8850</v>
+      </c>
+      <c r="F87" t="n">
+        <v>10</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>8850</v>
+      </c>
+      <c r="I87" t="n">
+        <v>8850</v>
+      </c>
+      <c r="J87" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>8850</v>
-      </c>
-      <c r="C68" t="n">
-        <v>8850</v>
-      </c>
-      <c r="D68" t="n">
-        <v>8850</v>
-      </c>
-      <c r="E68" t="n">
-        <v>8850</v>
-      </c>
-      <c r="F68" t="n">
-        <v>38.0653</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-1105.03210301</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>8845</v>
-      </c>
-      <c r="J68" t="n">
-        <v>8895</v>
-      </c>
-      <c r="K68" t="inlineStr">
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>8850</v>
+      </c>
+      <c r="C88" t="n">
+        <v>8850</v>
+      </c>
+      <c r="D88" t="n">
+        <v>8850</v>
+      </c>
+      <c r="E88" t="n">
+        <v>8850</v>
+      </c>
+      <c r="F88" t="n">
+        <v>27</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>8850</v>
+      </c>
+      <c r="I88" t="n">
+        <v>8850</v>
+      </c>
+      <c r="J88" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>8850</v>
-      </c>
-      <c r="C69" t="n">
-        <v>8850</v>
-      </c>
-      <c r="D69" t="n">
-        <v>8850</v>
-      </c>
-      <c r="E69" t="n">
-        <v>8850</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-1105.03210301</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>8850</v>
-      </c>
-      <c r="J69" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>8850</v>
-      </c>
-      <c r="C70" t="n">
-        <v>8850</v>
-      </c>
-      <c r="D70" t="n">
-        <v>8850</v>
-      </c>
-      <c r="E70" t="n">
-        <v>8850</v>
-      </c>
-      <c r="F70" t="n">
-        <v>8.697900000000001</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-1105.03210301</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K70" t="inlineStr">
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>8850</v>
+      </c>
+      <c r="C89" t="n">
+        <v>8850</v>
+      </c>
+      <c r="D89" t="n">
+        <v>8850</v>
+      </c>
+      <c r="E89" t="n">
+        <v>8850</v>
+      </c>
+      <c r="F89" t="n">
+        <v>16</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="n">
+        <v>8850</v>
+      </c>
+      <c r="I89" t="n">
+        <v>8850</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>8850</v>
+      </c>
+      <c r="C90" t="n">
+        <v>8850</v>
+      </c>
+      <c r="D90" t="n">
+        <v>8850</v>
+      </c>
+      <c r="E90" t="n">
+        <v>8850</v>
+      </c>
+      <c r="F90" t="n">
+        <v>20</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="n">
+        <v>8850</v>
+      </c>
+      <c r="I90" t="n">
+        <v>8850</v>
+      </c>
+      <c r="J90" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>8855</v>
-      </c>
-      <c r="C71" t="n">
-        <v>8855</v>
-      </c>
-      <c r="D71" t="n">
-        <v>8855</v>
-      </c>
-      <c r="E71" t="n">
-        <v>8855</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-1104.83210301</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K71" t="inlineStr">
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>8850</v>
+      </c>
+      <c r="C91" t="n">
+        <v>8850</v>
+      </c>
+      <c r="D91" t="n">
+        <v>8850</v>
+      </c>
+      <c r="E91" t="n">
+        <v>8850</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="n">
+        <v>8850</v>
+      </c>
+      <c r="I91" t="n">
+        <v>8850</v>
+      </c>
+      <c r="J91" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>8850</v>
-      </c>
-      <c r="C72" t="n">
-        <v>8835</v>
-      </c>
-      <c r="D72" t="n">
-        <v>8850</v>
-      </c>
-      <c r="E72" t="n">
-        <v>8835</v>
-      </c>
-      <c r="F72" t="n">
-        <v>8</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-1112.83210301</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>8855</v>
-      </c>
-      <c r="J72" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>8840</v>
-      </c>
-      <c r="C73" t="n">
-        <v>8830</v>
-      </c>
-      <c r="D73" t="n">
-        <v>8840</v>
-      </c>
-      <c r="E73" t="n">
-        <v>8830</v>
-      </c>
-      <c r="F73" t="n">
-        <v>78.062</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-1190.89410301</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>8835</v>
-      </c>
-      <c r="J73" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>8835</v>
-      </c>
-      <c r="C74" t="n">
-        <v>8830</v>
-      </c>
-      <c r="D74" t="n">
-        <v>8835</v>
-      </c>
-      <c r="E74" t="n">
-        <v>8830</v>
-      </c>
-      <c r="F74" t="n">
-        <v>67.91240000000001</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-1190.89410301</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>8830</v>
-      </c>
-      <c r="J74" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>8830</v>
-      </c>
-      <c r="C75" t="n">
-        <v>8830</v>
-      </c>
-      <c r="D75" t="n">
-        <v>8830</v>
-      </c>
-      <c r="E75" t="n">
-        <v>8830</v>
-      </c>
-      <c r="F75" t="n">
-        <v>43.1677</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-1190.89410301</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>8830</v>
-      </c>
-      <c r="J75" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>8830</v>
-      </c>
-      <c r="C76" t="n">
-        <v>8830</v>
-      </c>
-      <c r="D76" t="n">
-        <v>8830</v>
-      </c>
-      <c r="E76" t="n">
-        <v>8830</v>
-      </c>
-      <c r="F76" t="n">
-        <v>10.1002</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-1190.89410301</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>8830</v>
-      </c>
-      <c r="J76" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>8830</v>
-      </c>
-      <c r="C77" t="n">
-        <v>8830</v>
-      </c>
-      <c r="D77" t="n">
-        <v>8830</v>
-      </c>
-      <c r="E77" t="n">
-        <v>8830</v>
-      </c>
-      <c r="F77" t="n">
-        <v>49.7667</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-1190.89410301</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>8830</v>
-      </c>
-      <c r="J77" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>8830</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8830</v>
-      </c>
-      <c r="D78" t="n">
-        <v>8830</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8830</v>
-      </c>
-      <c r="F78" t="n">
-        <v>26.8898</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-1190.89410301</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>8830</v>
-      </c>
-      <c r="J78" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>8830</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8830</v>
-      </c>
-      <c r="D79" t="n">
-        <v>8860</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8830</v>
-      </c>
-      <c r="F79" t="n">
-        <v>175.6023</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-1190.89410301</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>8830</v>
-      </c>
-      <c r="J79" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>8830</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8850</v>
-      </c>
-      <c r="D80" t="n">
-        <v>8850</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8830</v>
-      </c>
-      <c r="F80" t="n">
-        <v>12.1085</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-1178.78560301</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>8830</v>
-      </c>
-      <c r="J80" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>8820</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8825</v>
-      </c>
-      <c r="D81" t="n">
-        <v>8860</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8820</v>
-      </c>
-      <c r="F81" t="n">
-        <v>11.0567</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-1189.84230301</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8850</v>
-      </c>
-      <c r="J81" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>8855</v>
-      </c>
-      <c r="C82" t="n">
-        <v>8825</v>
-      </c>
-      <c r="D82" t="n">
-        <v>8855</v>
-      </c>
-      <c r="E82" t="n">
-        <v>8825</v>
-      </c>
-      <c r="F82" t="n">
-        <v>101.1796</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-1189.84230301</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>8825</v>
-      </c>
-      <c r="J82" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>8855</v>
-      </c>
-      <c r="C83" t="n">
-        <v>8860</v>
-      </c>
-      <c r="D83" t="n">
-        <v>8860</v>
-      </c>
-      <c r="E83" t="n">
-        <v>8855</v>
-      </c>
-      <c r="F83" t="n">
-        <v>110.3645</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-1079.47780301</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>8825</v>
-      </c>
-      <c r="J83" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>8850</v>
-      </c>
-      <c r="C84" t="n">
-        <v>8860</v>
-      </c>
-      <c r="D84" t="n">
-        <v>8860</v>
-      </c>
-      <c r="E84" t="n">
-        <v>8850</v>
-      </c>
-      <c r="F84" t="n">
-        <v>19.1086</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-1079.47780301</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8860</v>
-      </c>
-      <c r="J84" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>8850</v>
-      </c>
-      <c r="C85" t="n">
-        <v>8850</v>
-      </c>
-      <c r="D85" t="n">
-        <v>8850</v>
-      </c>
-      <c r="E85" t="n">
-        <v>8850</v>
-      </c>
-      <c r="F85" t="n">
-        <v>7</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-1086.47780301</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>8860</v>
-      </c>
-      <c r="J85" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>8850</v>
-      </c>
-      <c r="C86" t="n">
-        <v>8850</v>
-      </c>
-      <c r="D86" t="n">
-        <v>8850</v>
-      </c>
-      <c r="E86" t="n">
-        <v>8850</v>
-      </c>
-      <c r="F86" t="n">
-        <v>2</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-1086.47780301</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>8850</v>
-      </c>
-      <c r="J86" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>8850</v>
-      </c>
-      <c r="C87" t="n">
-        <v>8850</v>
-      </c>
-      <c r="D87" t="n">
-        <v>8850</v>
-      </c>
-      <c r="E87" t="n">
-        <v>8850</v>
-      </c>
-      <c r="F87" t="n">
-        <v>10</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-1086.47780301</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>8850</v>
-      </c>
-      <c r="J87" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>8850</v>
-      </c>
-      <c r="C88" t="n">
-        <v>8850</v>
-      </c>
-      <c r="D88" t="n">
-        <v>8850</v>
-      </c>
-      <c r="E88" t="n">
-        <v>8850</v>
-      </c>
-      <c r="F88" t="n">
-        <v>27</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-1086.47780301</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>8850</v>
-      </c>
-      <c r="J88" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>8850</v>
-      </c>
-      <c r="C89" t="n">
-        <v>8850</v>
-      </c>
-      <c r="D89" t="n">
-        <v>8850</v>
-      </c>
-      <c r="E89" t="n">
-        <v>8850</v>
-      </c>
-      <c r="F89" t="n">
-        <v>16</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-1086.47780301</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>8850</v>
-      </c>
-      <c r="J89" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>8850</v>
-      </c>
-      <c r="C90" t="n">
-        <v>8850</v>
-      </c>
-      <c r="D90" t="n">
-        <v>8850</v>
-      </c>
-      <c r="E90" t="n">
-        <v>8850</v>
-      </c>
-      <c r="F90" t="n">
-        <v>20</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-1086.47780301</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>8850</v>
-      </c>
-      <c r="J90" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>8850</v>
-      </c>
-      <c r="C91" t="n">
-        <v>8850</v>
-      </c>
-      <c r="D91" t="n">
-        <v>8850</v>
-      </c>
-      <c r="E91" t="n">
-        <v>8850</v>
-      </c>
-      <c r="F91" t="n">
-        <v>2</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-1086.47780301</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>8850</v>
-      </c>
-      <c r="J91" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3632,26 +3203,15 @@
         <v>9.975</v>
       </c>
       <c r="G92" t="n">
-        <v>-1096.45280301</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>8850</v>
-      </c>
-      <c r="J92" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3673,26 +3233,15 @@
         <v>5.0199</v>
       </c>
       <c r="G93" t="n">
-        <v>-1091.43290301</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>8835</v>
-      </c>
-      <c r="J93" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3714,26 +3263,15 @@
         <v>13</v>
       </c>
       <c r="G94" t="n">
-        <v>-1104.43290301</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>8850</v>
-      </c>
-      <c r="J94" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3755,26 +3293,15 @@
         <v>11</v>
       </c>
       <c r="G95" t="n">
-        <v>-1115.43290301</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8845</v>
-      </c>
-      <c r="J95" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3796,26 +3323,15 @@
         <v>8</v>
       </c>
       <c r="G96" t="n">
-        <v>-1115.43290301</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>8840</v>
-      </c>
-      <c r="J96" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3837,26 +3353,15 @@
         <v>4</v>
       </c>
       <c r="G97" t="n">
-        <v>-1115.43290301</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>8840</v>
-      </c>
-      <c r="J97" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3878,26 +3383,15 @@
         <v>81</v>
       </c>
       <c r="G98" t="n">
-        <v>-1115.43290301</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>8840</v>
-      </c>
-      <c r="J98" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3919,26 +3413,15 @@
         <v>40</v>
       </c>
       <c r="G99" t="n">
-        <v>-1155.43290301</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>8840</v>
-      </c>
-      <c r="J99" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3960,26 +3443,15 @@
         <v>68.3652</v>
       </c>
       <c r="G100" t="n">
-        <v>-1223.79810301</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8825</v>
-      </c>
-      <c r="J100" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4001,26 +3473,15 @@
         <v>90.2968</v>
       </c>
       <c r="G101" t="n">
-        <v>-1133.50130301</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>8810</v>
-      </c>
-      <c r="J101" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4042,26 +3503,15 @@
         <v>56.418</v>
       </c>
       <c r="G102" t="n">
-        <v>-1189.91930301</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>8880</v>
-      </c>
-      <c r="J102" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4083,26 +3533,15 @@
         <v>15.9771</v>
       </c>
       <c r="G103" t="n">
-        <v>-1173.94220301</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>8820</v>
-      </c>
-      <c r="J103" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4124,26 +3563,15 @@
         <v>18</v>
       </c>
       <c r="G104" t="n">
-        <v>-1155.94220301</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>8825</v>
-      </c>
-      <c r="J104" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4165,26 +3593,15 @@
         <v>0.5</v>
       </c>
       <c r="G105" t="n">
-        <v>-1156.44220301</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>8835</v>
-      </c>
-      <c r="J105" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4206,26 +3623,15 @@
         <v>69.3343</v>
       </c>
       <c r="G106" t="n">
-        <v>-1087.10790301</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>8830</v>
-      </c>
-      <c r="J106" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4247,26 +3653,15 @@
         <v>11.1551</v>
       </c>
       <c r="G107" t="n">
-        <v>-1075.95280301</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>8880</v>
-      </c>
-      <c r="J107" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4288,26 +3683,15 @@
         <v>0.242</v>
       </c>
       <c r="G108" t="n">
-        <v>-1076.19480301</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>8890</v>
-      </c>
-      <c r="J108" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4329,26 +3713,15 @@
         <v>45.6425</v>
       </c>
       <c r="G109" t="n">
-        <v>-1030.55230301</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>8835</v>
-      </c>
-      <c r="J109" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4370,26 +3743,15 @@
         <v>4.9888</v>
       </c>
       <c r="G110" t="n">
-        <v>-1030.55230301</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>8840</v>
-      </c>
-      <c r="J110" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4411,26 +3773,15 @@
         <v>168.0659</v>
       </c>
       <c r="G111" t="n">
-        <v>-1198.61820301</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>8840</v>
-      </c>
-      <c r="J111" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4452,26 +3803,15 @@
         <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>-1188.61820301</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>8835</v>
-      </c>
-      <c r="J112" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4493,26 +3833,15 @@
         <v>18</v>
       </c>
       <c r="G113" t="n">
-        <v>-1170.61820301</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>8880</v>
-      </c>
-      <c r="J113" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4534,26 +3863,15 @@
         <v>16</v>
       </c>
       <c r="G114" t="n">
-        <v>-1154.61820301</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>8885</v>
-      </c>
-      <c r="J114" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4575,24 +3893,15 @@
         <v>26</v>
       </c>
       <c r="G115" t="n">
-        <v>-1154.61820301</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4614,24 +3923,15 @@
         <v>178.3834</v>
       </c>
       <c r="G116" t="n">
-        <v>-976.2348030099997</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4653,24 +3953,15 @@
         <v>459.0254232</v>
       </c>
       <c r="G117" t="n">
-        <v>-1435.26022621</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4692,24 +3983,15 @@
         <v>5.5493</v>
       </c>
       <c r="G118" t="n">
-        <v>-1429.71092621</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4731,24 +4013,15 @@
         <v>5.5433</v>
       </c>
       <c r="G119" t="n">
-        <v>-1424.16762621</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4770,24 +4043,15 @@
         <v>578.9956</v>
       </c>
       <c r="G120" t="n">
-        <v>-845.1720262099998</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4809,24 +4073,15 @@
         <v>123</v>
       </c>
       <c r="G121" t="n">
-        <v>-845.1720262099998</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4848,24 +4103,15 @@
         <v>6</v>
       </c>
       <c r="G122" t="n">
-        <v>-845.1720262099998</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4887,24 +4133,15 @@
         <v>3.8463</v>
       </c>
       <c r="G123" t="n">
-        <v>-849.0183262099998</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4926,24 +4163,15 @@
         <v>116</v>
       </c>
       <c r="G124" t="n">
-        <v>-965.0183262099998</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4965,24 +4193,15 @@
         <v>28.7212</v>
       </c>
       <c r="G125" t="n">
-        <v>-965.0183262099998</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5004,24 +4223,15 @@
         <v>71.88460000000001</v>
       </c>
       <c r="G126" t="n">
-        <v>-965.0183262099998</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5043,24 +4253,15 @@
         <v>127.8804</v>
       </c>
       <c r="G127" t="n">
-        <v>-1092.89872621</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5082,24 +4283,15 @@
         <v>111.4862</v>
       </c>
       <c r="G128" t="n">
-        <v>-981.4125262099997</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5121,24 +4313,15 @@
         <v>13.3527768</v>
       </c>
       <c r="G129" t="n">
-        <v>-968.0597494099997</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5160,24 +4343,15 @@
         <v>6</v>
       </c>
       <c r="G130" t="n">
-        <v>-962.0597494099997</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5199,24 +4373,15 @@
         <v>182</v>
       </c>
       <c r="G131" t="n">
-        <v>-780.0597494099997</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5238,24 +4403,15 @@
         <v>166.0515</v>
       </c>
       <c r="G132" t="n">
-        <v>-614.0082494099996</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5277,24 +4433,15 @@
         <v>50.9608</v>
       </c>
       <c r="G133" t="n">
-        <v>-563.0474494099997</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5316,24 +4463,15 @@
         <v>69</v>
       </c>
       <c r="G134" t="n">
-        <v>-494.0474494099997</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5355,24 +4493,15 @@
         <v>462.4078</v>
       </c>
       <c r="G135" t="n">
-        <v>-956.4552494099996</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5394,24 +4523,15 @@
         <v>243.5135</v>
       </c>
       <c r="G136" t="n">
-        <v>-1199.96874941</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5433,24 +4553,15 @@
         <v>80.13200000000001</v>
       </c>
       <c r="G137" t="n">
-        <v>-1119.83674941</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5472,24 +4583,15 @@
         <v>149</v>
       </c>
       <c r="G138" t="n">
-        <v>-970.8367494099996</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5511,24 +4613,15 @@
         <v>1.32</v>
       </c>
       <c r="G139" t="n">
-        <v>-969.5167494099995</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5550,24 +4643,15 @@
         <v>997.03142947</v>
       </c>
       <c r="G140" t="n">
-        <v>27.5146800600005</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5589,24 +4673,15 @@
         <v>74.6206</v>
       </c>
       <c r="G141" t="n">
-        <v>-47.1059199399995</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>8850</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1.019293785310735</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5628,18 +4703,15 @@
         <v>0.233</v>
       </c>
       <c r="G142" t="n">
-        <v>-46.8729199399995</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5661,18 +4733,15 @@
         <v>0.2231</v>
       </c>
       <c r="G143" t="n">
-        <v>-46.6498199399995</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5694,18 +4763,15 @@
         <v>0.1001</v>
       </c>
       <c r="G144" t="n">
-        <v>-46.5497199399995</v>
-      </c>
-      <c r="H144" t="n">
         <v>2</v>
       </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5727,18 +4793,15 @@
         <v>9.2387</v>
       </c>
       <c r="G145" t="n">
-        <v>-55.7884199399995</v>
-      </c>
-      <c r="H145" t="n">
         <v>2</v>
       </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5760,18 +4823,15 @@
         <v>8.1</v>
       </c>
       <c r="G146" t="n">
-        <v>-63.8884199399995</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5793,18 +4853,15 @@
         <v>10.9</v>
       </c>
       <c r="G147" t="n">
-        <v>-52.9884199399995</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5826,18 +4883,15 @@
         <v>90</v>
       </c>
       <c r="G148" t="n">
-        <v>-142.9884199399995</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5859,18 +4913,15 @@
         <v>150.1275</v>
       </c>
       <c r="G149" t="n">
-        <v>-142.9884199399995</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5892,18 +4943,15 @@
         <v>30</v>
       </c>
       <c r="G150" t="n">
-        <v>-142.9884199399995</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5925,18 +4973,15 @@
         <v>6.5361</v>
       </c>
       <c r="G151" t="n">
-        <v>-149.5245199399995</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5958,18 +5003,15 @@
         <v>29.8353</v>
       </c>
       <c r="G152" t="n">
-        <v>-179.3598199399995</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5991,18 +5033,15 @@
         <v>86.2436</v>
       </c>
       <c r="G153" t="n">
-        <v>-93.11621993999951</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6024,18 +5063,15 @@
         <v>12.62386243</v>
       </c>
       <c r="G154" t="n">
-        <v>-80.49235750999951</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6057,18 +5093,15 @@
         <v>141.9291</v>
       </c>
       <c r="G155" t="n">
-        <v>-80.49235750999951</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6090,18 +5123,15 @@
         <v>0.223</v>
       </c>
       <c r="G156" t="n">
-        <v>-80.26935750999951</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6123,18 +5153,15 @@
         <v>0.3264</v>
       </c>
       <c r="G157" t="n">
-        <v>-80.59575750999952</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6156,18 +5183,15 @@
         <v>0.5468</v>
       </c>
       <c r="G158" t="n">
-        <v>-80.04895750999951</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6189,18 +5213,15 @@
         <v>10</v>
       </c>
       <c r="G159" t="n">
-        <v>-90.04895750999951</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6222,18 +5243,15 @@
         <v>10.7</v>
       </c>
       <c r="G160" t="n">
-        <v>-90.04895750999951</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6255,18 +5273,15 @@
         <v>56.1189</v>
       </c>
       <c r="G161" t="n">
-        <v>-33.93005750999951</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6288,18 +5303,15 @@
         <v>23.1345</v>
       </c>
       <c r="G162" t="n">
-        <v>-57.06455750999952</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6321,18 +5333,15 @@
         <v>41</v>
       </c>
       <c r="G163" t="n">
-        <v>-98.06455750999952</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6354,18 +5363,15 @@
         <v>19.4976</v>
       </c>
       <c r="G164" t="n">
-        <v>-98.06455750999952</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6387,18 +5393,15 @@
         <v>0.1009</v>
       </c>
       <c r="G165" t="n">
-        <v>-97.96365750999952</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6420,18 +5423,15 @@
         <v>5.61</v>
       </c>
       <c r="G166" t="n">
-        <v>-92.35365750999952</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6453,18 +5453,15 @@
         <v>4.9875</v>
       </c>
       <c r="G167" t="n">
-        <v>-97.34115750999952</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6486,18 +5483,15 @@
         <v>1.5778</v>
       </c>
       <c r="G168" t="n">
-        <v>-98.91895750999952</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6519,18 +5513,15 @@
         <v>0.139</v>
       </c>
       <c r="G169" t="n">
-        <v>-98.77995750999952</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6552,18 +5543,15 @@
         <v>4.8863</v>
       </c>
       <c r="G170" t="n">
-        <v>-103.6662575099995</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6585,18 +5573,15 @@
         <v>4.8777</v>
       </c>
       <c r="G171" t="n">
-        <v>-98.78855750999952</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
